--- a/ofc/estimates/परोपकार भवन मर्मत/changed estimate.xlsx
+++ b/ofc/estimates/परोपकार भवन मर्मत/changed estimate.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\परोपकार भवन मर्मत\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\परोपकार भवन मर्मत\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="estimate" sheetId="24" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <definedName name="Ttile">'[1]update Rate'!$N$43</definedName>
     <definedName name="unskilled">'[2]Material rate'!$D$154</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1130,11 +1130,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -1423,7 +1423,7 @@
       <name val="Tahoma"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1439,12 +1439,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,10 +1524,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1541,7 +1535,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1561,14 +1555,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1577,7 +1571,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1601,7 +1595,7 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1636,7 +1630,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1651,7 +1645,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1667,7 +1661,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1703,7 +1697,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1741,7 +1735,7 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1828,7 +1822,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1867,7 +1861,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1916,7 +1910,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="40" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1951,7 +1945,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1965,15 +1959,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1992,24 +1987,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2032,23 +2009,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2071,13 +2051,30 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3071,132 +3068,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J211" sqref="J211"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J174" sqref="J174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="184" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="185" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-    </row>
-    <row r="5" spans="1:11" ht="17.399999999999999">
-      <c r="A5" s="186" t="s">
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="186"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75">
+      <c r="A5" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="186"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6">
-      <c r="A6" s="187" t="s">
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="187"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="188" t="s">
+      <c r="H6" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6">
-      <c r="A7" s="180" t="s">
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="A7" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="181" t="s">
+      <c r="H7" s="183" t="s">
         <v>147</v>
       </c>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -3233,7 +3230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="27.6">
+    <row r="9" spans="1:11" ht="28.5">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -3341,7 +3338,8 @@
         <v>2</v>
       </c>
       <c r="D13" s="36">
-        <v>1.5</v>
+        <f>5/3.281</f>
+        <v>1.5239256324291375</v>
       </c>
       <c r="E13" s="36">
         <v>0.35</v>
@@ -3352,7 +3350,7 @@
       </c>
       <c r="G13" s="37">
         <f t="shared" si="0"/>
-        <v>0.3333053946967387</v>
+        <v>0.3386217562701806</v>
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -3368,18 +3366,19 @@
         <v>2</v>
       </c>
       <c r="D14" s="36">
-        <v>1.5</v>
+        <f>5/3.281</f>
+        <v>1.5239256324291375</v>
       </c>
       <c r="E14" s="36">
         <v>0.35</v>
       </c>
       <c r="F14" s="36">
-        <f>((1.25/3.281)+(1.42/3.281))/2</f>
-        <v>0.40688814385857969</v>
+        <f>((1.25/3.281)+(1.5/3.281))/2</f>
+        <v>0.4190795489180128</v>
       </c>
       <c r="G14" s="37">
         <f t="shared" si="0"/>
-        <v>0.42723255105150859</v>
+        <v>0.44705224663610016</v>
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -3397,7 +3396,7 @@
       <c r="F15" s="36"/>
       <c r="G15" s="32">
         <f>SUM(G10:G14)</f>
-        <v>4.5641191709844557</v>
+        <v>4.5892552281424894</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>83</v>
@@ -3407,7 +3406,7 @@
       </c>
       <c r="J15" s="40">
         <f>G15*I15</f>
-        <v>4450.9290155440412</v>
+        <v>4475.4416984845557</v>
       </c>
       <c r="K15" s="21"/>
     </row>
@@ -3424,7 +3423,7 @@
       <c r="J16" s="40"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" ht="27.6">
+    <row r="17" spans="1:11" ht="28.5">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -4017,7 +4016,7 @@
       <c r="J40" s="40"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="55.2">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="57">
       <c r="A41" s="131">
         <v>3</v>
       </c>
@@ -4164,7 +4163,7 @@
       <c r="J47" s="40"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" ht="27.6">
+    <row r="48" spans="1:11" ht="28.5">
       <c r="A48" s="18">
         <v>4</v>
       </c>
@@ -4263,9 +4262,9 @@
       <c r="J52" s="40"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:14" ht="41.4">
+    <row r="53" spans="1:14" ht="42.75">
       <c r="A53" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="58" t="s">
         <v>85</v>
@@ -4402,9 +4401,9 @@
       <c r="J58" s="40"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:14" ht="30.6">
+    <row r="59" spans="1:14" ht="30.75">
       <c r="A59" s="130">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59" s="84" t="s">
         <v>87</v>
@@ -4586,9 +4585,9 @@
       <c r="J66" s="39"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" ht="15">
+    <row r="67" spans="1:11">
       <c r="A67" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" s="86" t="s">
         <v>89</v>
@@ -4670,12 +4669,12 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E70" s="139">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F70" s="138"/>
       <c r="G70" s="140">
         <f>PRODUCT(C70:F70)</f>
-        <v>1.9800000000000002</v>
+        <v>2.0020000000000002</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="23"/>
@@ -4717,7 +4716,7 @@
       <c r="F72" s="21"/>
       <c r="G72" s="23">
         <f>SUM(G68:G71)</f>
-        <v>17.255438890582141</v>
+        <v>17.27743889058214</v>
       </c>
       <c r="H72" s="22" t="s">
         <v>41</v>
@@ -4727,7 +4726,7 @@
       </c>
       <c r="J72" s="39">
         <f>G72*I72</f>
-        <v>17513.752810774156</v>
+        <v>17536.082150774153</v>
       </c>
       <c r="K72" s="21"/>
     </row>
@@ -4745,7 +4744,7 @@
       <c r="I73" s="23"/>
       <c r="J73" s="39">
         <f>0.13*G72*8617.2/10</f>
-        <v>1933.0163841030176</v>
+        <v>1935.4809033030178</v>
       </c>
       <c r="K73" s="21"/>
     </row>
@@ -4764,7 +4763,7 @@
     </row>
     <row r="75" spans="1:11" ht="30">
       <c r="A75" s="18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75" s="86" t="s">
         <v>90</v>
@@ -4994,7 +4993,7 @@
       </c>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" ht="15">
+    <row r="84" spans="1:11">
       <c r="A84" s="18"/>
       <c r="B84" s="86"/>
       <c r="C84" s="19"/>
@@ -5007,9 +5006,9 @@
       <c r="J84" s="39"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" ht="39">
+    <row r="85" spans="1:11" ht="39.75">
       <c r="A85" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B85" s="58" t="s">
         <v>86</v>
@@ -5129,7 +5128,7 @@
     </row>
     <row r="91" spans="1:11" ht="30">
       <c r="A91" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91" s="86" t="s">
         <v>91</v>
@@ -5396,7 +5395,7 @@
       <c r="H100" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I100" s="23">
+      <c r="I100" s="218">
         <v>131940</v>
       </c>
       <c r="J100" s="39">
@@ -5438,7 +5437,7 @@
     </row>
     <row r="103" spans="1:11" ht="30">
       <c r="A103" s="130">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B103" s="143" t="s">
         <v>98</v>
@@ -5722,7 +5721,7 @@
     </row>
     <row r="116" spans="1:11" ht="30">
       <c r="A116" s="18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B116" s="86" t="s">
         <v>117</v>
@@ -5853,14 +5852,14 @@
       </c>
       <c r="E121" s="36">
         <f>E70</f>
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F121" s="36">
         <v>0.1</v>
       </c>
       <c r="G121" s="37">
         <f t="shared" si="12"/>
-        <v>0.19800000000000004</v>
+        <v>0.20020000000000004</v>
       </c>
       <c r="H121" s="38"/>
       <c r="I121" s="38"/>
@@ -5878,7 +5877,7 @@
       <c r="F122" s="36"/>
       <c r="G122" s="32">
         <f>SUM(G117:G121)</f>
-        <v>0.93358000000000008</v>
+        <v>0.93578000000000006</v>
       </c>
       <c r="H122" s="38" t="s">
         <v>83</v>
@@ -5888,7 +5887,7 @@
       </c>
       <c r="J122" s="40">
         <f>G122*I122</f>
-        <v>12667.653662000001</v>
+        <v>12697.505242000001</v>
       </c>
       <c r="K122" s="21"/>
     </row>
@@ -5906,7 +5905,7 @@
       <c r="I123" s="38"/>
       <c r="J123" s="40">
         <f>0.13*G122*9524.2</f>
-        <v>1155.9083426800003</v>
+        <v>1158.6322638800002</v>
       </c>
       <c r="K123" s="21"/>
     </row>
@@ -5923,9 +5922,9 @@
       <c r="J124" s="40"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" ht="30.6">
+    <row r="125" spans="1:11" ht="30.75">
       <c r="A125" s="18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B125" s="117" t="s">
         <v>119</v>
@@ -5979,7 +5978,7 @@
       <c r="J126" s="121"/>
       <c r="K126" s="119"/>
     </row>
-    <row r="127" spans="1:11" s="1" customFormat="1" ht="27.6">
+    <row r="127" spans="1:11" s="1" customFormat="1" ht="30">
       <c r="A127" s="118"/>
       <c r="B127" s="123" t="s">
         <v>122</v>
@@ -6108,7 +6107,7 @@
       <c r="J131" s="121"/>
       <c r="K131" s="119"/>
     </row>
-    <row r="132" spans="1:11" s="1" customFormat="1" ht="41.4">
+    <row r="132" spans="1:11" s="1" customFormat="1" ht="45">
       <c r="A132" s="118"/>
       <c r="B132" s="123" t="s">
         <v>123</v>
@@ -6215,7 +6214,7 @@
       <c r="J135" s="121"/>
       <c r="K135" s="119"/>
     </row>
-    <row r="136" spans="1:11" s="1" customFormat="1" ht="27.6">
+    <row r="136" spans="1:11" s="1" customFormat="1" ht="30">
       <c r="A136" s="118"/>
       <c r="B136" s="123" t="s">
         <v>158</v>
@@ -6300,7 +6299,7 @@
       <c r="J138" s="121"/>
       <c r="K138" s="119"/>
     </row>
-    <row r="139" spans="1:11" s="1" customFormat="1" ht="27.6">
+    <row r="139" spans="1:11" s="1" customFormat="1" ht="30">
       <c r="A139" s="118"/>
       <c r="B139" s="123" t="s">
         <v>156</v>
@@ -6387,7 +6386,7 @@
     </row>
     <row r="143" spans="1:11" s="1" customFormat="1" ht="30">
       <c r="A143" s="18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B143" s="126" t="s">
         <v>124</v>
@@ -7136,7 +7135,7 @@
       <c r="I174" s="38">
         <v>405.86</v>
       </c>
-      <c r="J174" s="38">
+      <c r="J174" s="39">
         <f>G174*I174</f>
         <v>53749.982101725684</v>
       </c>
@@ -7173,9 +7172,9 @@
       <c r="J176" s="121"/>
       <c r="K176" s="21"/>
     </row>
-    <row r="177" spans="1:13" ht="30.6">
+    <row r="177" spans="1:13" ht="30.75">
       <c r="A177" s="18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B177" s="117" t="s">
         <v>127</v>
@@ -7289,9 +7288,9 @@
       <c r="J182" s="39"/>
       <c r="K182" s="21"/>
     </row>
-    <row r="183" spans="1:13" s="1" customFormat="1" ht="46.2">
+    <row r="183" spans="1:13" s="1" customFormat="1" ht="48">
       <c r="A183" s="18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B183" s="127" t="s">
         <v>141</v>
@@ -7440,9 +7439,9 @@
       <c r="J189" s="39"/>
       <c r="K189" s="21"/>
     </row>
-    <row r="190" spans="1:13" s="159" customFormat="1" ht="15.6">
+    <row r="190" spans="1:13" s="159" customFormat="1" ht="15.75">
       <c r="A190" s="152">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B190" s="153" t="s">
         <v>132</v>
@@ -7629,9 +7628,9 @@
       <c r="J198" s="151"/>
       <c r="K198" s="147"/>
     </row>
-    <row r="199" spans="1:11" s="160" customFormat="1" ht="41.4">
+    <row r="199" spans="1:11" s="160" customFormat="1" ht="42.75">
       <c r="A199" s="130">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B199" s="166" t="s">
         <v>137</v>
@@ -7708,12 +7707,12 @@
       </c>
       <c r="E202" s="137">
         <f>E121</f>
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F202" s="137"/>
       <c r="G202" s="163">
         <f t="shared" si="21"/>
-        <v>1.9800000000000002</v>
+        <v>2.0020000000000002</v>
       </c>
       <c r="H202" s="155"/>
       <c r="I202" s="155"/>
@@ -7751,7 +7750,7 @@
       <c r="F204" s="155"/>
       <c r="G204" s="165">
         <f>SUM(G200:G203)</f>
-        <v>58.066000000000003</v>
+        <v>58.088000000000008</v>
       </c>
       <c r="H204" s="165" t="s">
         <v>134</v>
@@ -7761,7 +7760,7 @@
       </c>
       <c r="J204" s="157">
         <f>G204*I204</f>
-        <v>534.20719999999994</v>
+        <v>534.40960000000007</v>
       </c>
       <c r="K204" s="147"/>
     </row>
@@ -7778,9 +7777,9 @@
       <c r="J205" s="32"/>
       <c r="K205" s="21"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" ht="30">
       <c r="A206" s="18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B206" s="29" t="s">
         <v>163</v>
@@ -7822,7 +7821,7 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B208" s="29" t="s">
         <v>30</v>
@@ -7876,7 +7875,7 @@
       <c r="I210" s="39"/>
       <c r="J210" s="39">
         <f>SUM(J10:J208)</f>
-        <v>558794.47688196914</v>
+        <v>558876.5613253098</v>
       </c>
       <c r="K210" s="34"/>
     </row>
@@ -7898,11 +7897,11 @@
       <c r="B212" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C212" s="182">
+      <c r="C212" s="181">
         <f>J210</f>
-        <v>558794.47688196914</v>
-      </c>
-      <c r="D212" s="182"/>
+        <v>558876.5613253098</v>
+      </c>
+      <c r="D212" s="181"/>
       <c r="E212" s="37">
         <v>100</v>
       </c>
@@ -7918,10 +7917,10 @@
       <c r="B213" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C213" s="189">
+      <c r="C213" s="180">
         <v>500000</v>
       </c>
-      <c r="D213" s="189"/>
+      <c r="D213" s="180"/>
       <c r="E213" s="37"/>
       <c r="F213" s="44"/>
       <c r="G213" s="43"/>
@@ -7935,14 +7934,14 @@
       <c r="B214" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C214" s="189">
+      <c r="C214" s="180">
         <f>C213-C216-C217</f>
         <v>475000</v>
       </c>
-      <c r="D214" s="189"/>
+      <c r="D214" s="180"/>
       <c r="E214" s="37">
         <f>C214/C212*100</f>
-        <v>85.004419272442362</v>
+        <v>84.991934332259987</v>
       </c>
       <c r="F214" s="44"/>
       <c r="G214" s="43"/>
@@ -7956,14 +7955,14 @@
       <c r="B215" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C215" s="182">
+      <c r="C215" s="181">
         <f>C212-C214</f>
-        <v>83794.476881969138</v>
-      </c>
-      <c r="D215" s="182"/>
+        <v>83876.561325309798</v>
+      </c>
+      <c r="D215" s="181"/>
       <c r="E215" s="37">
         <f>100-E214</f>
-        <v>14.995580727557638</v>
+        <v>15.008065667740013</v>
       </c>
       <c r="F215" s="44"/>
       <c r="G215" s="43"/>
@@ -7977,11 +7976,11 @@
       <c r="B216" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C216" s="182">
+      <c r="C216" s="181">
         <f>C213*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D216" s="182"/>
+      <c r="D216" s="181"/>
       <c r="E216" s="37">
         <v>3</v>
       </c>
@@ -7997,11 +7996,11 @@
       <c r="B217" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C217" s="182">
+      <c r="C217" s="181">
         <f>C213*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D217" s="182"/>
+      <c r="D217" s="181"/>
       <c r="E217" s="37">
         <v>2</v>
       </c>
@@ -8083,11 +8082,6 @@
     <row r="274" s="33" customFormat="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C217:D217"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C212:D212"/>
@@ -8098,15 +8092,23 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C217:D217"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B143" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="54" max="10" man="1"/>
+  </rowBreaks>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -8115,116 +8117,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" style="174" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="174" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-    </row>
-    <row r="2" spans="1:14" ht="24.6">
-      <c r="A2" s="193" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="193"/>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+    </row>
+    <row r="2" spans="1:14" ht="25.5">
+      <c r="A2" s="200" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
       <c r="N3" s="176"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="186"/>
       <c r="N4" s="176"/>
     </row>
-    <row r="5" spans="1:14" ht="18">
-      <c r="A5" s="194" t="s">
+    <row r="5" spans="1:14" ht="18.75">
+      <c r="A5" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-    </row>
-    <row r="6" spans="1:14" ht="18">
+      <c r="B5" s="201"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="201"/>
+      <c r="K5" s="201"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.75">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="190">
+      <c r="C6" s="197">
         <f>F67</f>
-        <v>558794.47688196914</v>
-      </c>
-      <c r="D6" s="191"/>
+        <v>558876.5613253098</v>
+      </c>
+      <c r="D6" s="198"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -8232,11 +8234,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="190">
+      <c r="J6" s="197">
         <f>I67</f>
-        <v>559423.62912444922</v>
-      </c>
-      <c r="K6" s="191"/>
+        <v>559505.71356778976</v>
+      </c>
+      <c r="K6" s="198"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="25" t="s">
@@ -8245,77 +8247,77 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="I7" s="198" t="s">
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="I7" s="193" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="198"/>
-      <c r="K7" s="198"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.6">
-      <c r="A8" s="187" t="str">
+      <c r="J7" s="193"/>
+      <c r="K7" s="193"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75">
+      <c r="A8" s="188" t="str">
         <f>estimate!A6</f>
         <v>Project:- परोपकार भवन मर्मत</v>
       </c>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="I8" s="199" t="s">
+      <c r="B8" s="188"/>
+      <c r="C8" s="188"/>
+      <c r="D8" s="188"/>
+      <c r="E8" s="188"/>
+      <c r="F8" s="188"/>
+      <c r="I8" s="194" t="s">
         <v>171</v>
       </c>
-      <c r="J8" s="199"/>
-      <c r="K8" s="199"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="200" t="str">
+      <c r="A9" s="195" t="str">
         <f>estimate!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="200"/>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
-      <c r="I9" s="199" t="s">
+      <c r="B9" s="195"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="195"/>
+      <c r="F9" s="195"/>
+      <c r="I9" s="194" t="s">
         <v>170</v>
       </c>
-      <c r="J9" s="199"/>
-      <c r="K9" s="199"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="194"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="195" t="s">
+      <c r="B11" s="190" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="190" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="201" t="s">
+      <c r="D11" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201" t="s">
+      <c r="E11" s="196"/>
+      <c r="F11" s="196"/>
+      <c r="G11" s="196" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="201"/>
-      <c r="I11" s="201"/>
-      <c r="J11" s="195" t="s">
+      <c r="H11" s="196"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="190" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="196" t="s">
+      <c r="K11" s="191" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="195"/>
-      <c r="B12" s="195"/>
-      <c r="C12" s="195"/>
+      <c r="A12" s="190"/>
+      <c r="B12" s="190"/>
+      <c r="C12" s="190"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -8334,10 +8336,10 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="195"/>
-      <c r="K12" s="196"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="27.6">
+      <c r="J12" s="190"/>
+      <c r="K12" s="191"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="28.5">
       <c r="A13" s="26">
         <f>estimate!A9</f>
         <v>1</v>
@@ -8352,7 +8354,7 @@
       </c>
       <c r="D13" s="12">
         <f>estimate!G15</f>
-        <v>4.5641191709844557</v>
+        <v>4.5892552281424894</v>
       </c>
       <c r="E13" s="12">
         <f>estimate!I15</f>
@@ -8360,11 +8362,11 @@
       </c>
       <c r="F13" s="12">
         <f>D13*E13</f>
-        <v>4450.9290155440412</v>
+        <v>4475.4416984845557</v>
       </c>
       <c r="G13" s="12">
         <f>V!G15</f>
-        <v>4.5641191709844557</v>
+        <v>4.5892552281424894</v>
       </c>
       <c r="H13" s="12">
         <f>V!I15</f>
@@ -8372,7 +8374,7 @@
       </c>
       <c r="I13" s="12">
         <f>G13*H13</f>
-        <v>4450.9290155440412</v>
+        <v>4475.4416984845557</v>
       </c>
       <c r="J13" s="27">
         <f>I13-F13</f>
@@ -8380,7 +8382,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="15.6">
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="15.75">
       <c r="A14" s="26"/>
       <c r="B14" s="31"/>
       <c r="C14" s="12"/>
@@ -8393,7 +8395,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="27.6">
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="28.5">
       <c r="A15" s="26">
         <f>estimate!A17</f>
         <v>2</v>
@@ -8436,7 +8438,7 @@
       </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="15.6">
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="15.75">
       <c r="A16" s="26"/>
       <c r="B16" s="172" t="str">
         <f>estimate!B39</f>
@@ -8461,7 +8463,7 @@
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A17" s="26"/>
       <c r="B17" s="31"/>
       <c r="C17" s="12"/>
@@ -8474,7 +8476,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="41.4">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="57">
       <c r="A18" s="26">
         <f>estimate!A41</f>
         <v>3</v>
@@ -8521,7 +8523,7 @@
         <v>54238.494209999997</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A19" s="26"/>
       <c r="B19" s="172" t="str">
         <f>estimate!B46</f>
@@ -8546,7 +8548,7 @@
       </c>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A20" s="26"/>
       <c r="B20" s="31"/>
       <c r="C20" s="12"/>
@@ -8559,7 +8561,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="27.6">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="28.5">
       <c r="A21" s="26">
         <f>estimate!A48</f>
         <v>4</v>
@@ -8602,7 +8604,7 @@
       </c>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A22" s="26"/>
       <c r="B22" s="172" t="str">
         <f>estimate!B51</f>
@@ -8627,7 +8629,7 @@
       </c>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A23" s="26"/>
       <c r="B23" s="31"/>
       <c r="C23" s="12"/>
@@ -8640,10 +8642,10 @@
       <c r="J23" s="27"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="27.6">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="42.75">
       <c r="A24" s="26">
         <f>estimate!A53</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="58" t="str">
         <f>estimate!B53</f>
@@ -8687,7 +8689,7 @@
         <v>9997.5447192928987</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A25" s="26"/>
       <c r="B25" s="31"/>
       <c r="C25" s="12"/>
@@ -8700,10 +8702,10 @@
       <c r="J25" s="27"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="27.6">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="28.5">
       <c r="A26" s="26">
         <f>estimate!A59</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" s="58" t="str">
         <f>estimate!B59</f>
@@ -8743,7 +8745,7 @@
       </c>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A27" s="26"/>
       <c r="B27" s="31"/>
       <c r="C27" s="12"/>
@@ -8759,7 +8761,7 @@
     <row r="28" spans="1:13" s="1" customFormat="1">
       <c r="A28" s="26">
         <f>estimate!A67</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="168" t="str">
         <f>estimate!B67</f>
@@ -8771,7 +8773,7 @@
       </c>
       <c r="D28" s="12">
         <f>estimate!G72</f>
-        <v>17.255438890582141</v>
+        <v>17.27743889058214</v>
       </c>
       <c r="E28" s="12">
         <f>estimate!I72</f>
@@ -8779,11 +8781,11 @@
       </c>
       <c r="F28" s="12">
         <f t="shared" ref="F28" si="14">D28*E28</f>
-        <v>17513.752810774156</v>
+        <v>17536.082150774153</v>
       </c>
       <c r="G28" s="12">
         <f>V!G72</f>
-        <v>17.255438890582141</v>
+        <v>17.27743889058214</v>
       </c>
       <c r="H28" s="12">
         <f>V!I72</f>
@@ -8791,7 +8793,7 @@
       </c>
       <c r="I28" s="12">
         <f t="shared" ref="I28" si="15">G28*H28</f>
-        <v>17513.752810774156</v>
+        <v>17536.082150774153</v>
       </c>
       <c r="J28" s="27">
         <f t="shared" ref="J28:J29" si="16">I28-F28</f>
@@ -8799,7 +8801,7 @@
       </c>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A29" s="26"/>
       <c r="B29" s="172" t="str">
         <f>estimate!B73</f>
@@ -8810,13 +8812,13 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12">
         <f>estimate!J73</f>
-        <v>1933.0163841030176</v>
+        <v>1935.4809033030178</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12">
         <f>V!J73</f>
-        <v>1933.0163841030176</v>
+        <v>1935.4809033030178</v>
       </c>
       <c r="J29" s="27">
         <f t="shared" si="16"/>
@@ -8824,7 +8826,7 @@
       </c>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A30" s="26"/>
       <c r="B30" s="31"/>
       <c r="C30" s="12"/>
@@ -8837,10 +8839,10 @@
       <c r="J30" s="27"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="27.6">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="28.5">
       <c r="A31" s="26">
         <f>estimate!A75</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="168" t="str">
         <f>estimate!B75</f>
@@ -8880,7 +8882,7 @@
       </c>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A32" s="26"/>
       <c r="B32" s="172" t="str">
         <f>estimate!B83</f>
@@ -8905,7 +8907,7 @@
       </c>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A33" s="26"/>
       <c r="B33" s="31"/>
       <c r="C33" s="12"/>
@@ -8918,12 +8920,12 @@
       <c r="J33" s="27"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" ht="25.2">
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="28.5">
       <c r="A34" s="26">
         <f>estimate!A85</f>
-        <v>10</v>
-      </c>
-      <c r="B34" s="179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="217" t="s">
         <v>86</v>
       </c>
       <c r="C34" s="12" t="str">
@@ -8964,7 +8966,7 @@
         <v>9821.2799999999988</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="35" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A35" s="26"/>
       <c r="B35" s="172" t="str">
         <f>estimate!B89</f>
@@ -8989,7 +8991,7 @@
       </c>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="36" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A36" s="26"/>
       <c r="B36" s="31"/>
       <c r="C36" s="12"/>
@@ -9002,10 +9004,10 @@
       <c r="J36" s="27"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:16" s="1" customFormat="1" ht="27.6">
+    <row r="37" spans="1:16" s="1" customFormat="1" ht="28.5">
       <c r="A37" s="26">
         <f>estimate!A91</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" s="168" t="str">
         <f>estimate!B91</f>
@@ -9045,7 +9047,7 @@
       </c>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="38" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A38" s="26"/>
       <c r="B38" s="172" t="str">
         <f>estimate!B101</f>
@@ -9070,7 +9072,7 @@
       </c>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="39" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A39" s="26"/>
       <c r="B39" s="31"/>
       <c r="C39" s="12"/>
@@ -9083,10 +9085,10 @@
       <c r="J39" s="27"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:16" s="1" customFormat="1">
+    <row r="40" spans="1:16" s="1" customFormat="1" ht="28.5">
       <c r="A40" s="26">
         <f>estimate!A103</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="168" t="str">
         <f>estimate!B103</f>
@@ -9126,7 +9128,7 @@
       </c>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="41" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A41" s="26"/>
       <c r="B41" s="172" t="str">
         <f>estimate!B114</f>
@@ -9151,7 +9153,7 @@
       </c>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="42" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A42" s="26"/>
       <c r="B42" s="31"/>
       <c r="C42" s="12"/>
@@ -9164,10 +9166,10 @@
       <c r="J42" s="27"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:16" s="1" customFormat="1" ht="27.6">
+    <row r="43" spans="1:16" s="1" customFormat="1" ht="28.5">
       <c r="A43" s="26">
         <f>estimate!A116</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="168" t="str">
         <f>estimate!B116</f>
@@ -9179,7 +9181,7 @@
       </c>
       <c r="D43" s="12">
         <f>estimate!G122</f>
-        <v>0.93358000000000008</v>
+        <v>0.93578000000000006</v>
       </c>
       <c r="E43" s="12">
         <f>estimate!I122</f>
@@ -9187,11 +9189,11 @@
       </c>
       <c r="F43" s="12">
         <f t="shared" ref="F43" si="29">D43*E43</f>
-        <v>12667.653662000001</v>
+        <v>12697.505242000001</v>
       </c>
       <c r="G43" s="12">
         <f>V!G122</f>
-        <v>0.93358000000000008</v>
+        <v>0.93578000000000006</v>
       </c>
       <c r="H43" s="12">
         <f>V!I122</f>
@@ -9199,7 +9201,7 @@
       </c>
       <c r="I43" s="12">
         <f t="shared" ref="I43" si="30">G43*H43</f>
-        <v>12667.653662000001</v>
+        <v>12697.505242000001</v>
       </c>
       <c r="J43" s="27">
         <f t="shared" ref="J43:J47" si="31">I43-F43</f>
@@ -9207,7 +9209,7 @@
       </c>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="44" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A44" s="26"/>
       <c r="B44" s="172" t="str">
         <f>estimate!B123</f>
@@ -9218,13 +9220,13 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12">
         <f>estimate!J123</f>
-        <v>1155.9083426800003</v>
+        <v>1158.6322638800002</v>
       </c>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12">
         <f>V!J123</f>
-        <v>1155.9083426800003</v>
+        <v>1158.6322638800002</v>
       </c>
       <c r="J44" s="27">
         <f t="shared" si="31"/>
@@ -9232,7 +9234,7 @@
       </c>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="45" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A45" s="26"/>
       <c r="B45" s="31"/>
       <c r="C45" s="12"/>
@@ -9245,10 +9247,10 @@
       <c r="J45" s="27"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:16" s="1" customFormat="1" ht="27.6">
+    <row r="46" spans="1:16" s="1" customFormat="1" ht="28.5">
       <c r="A46" s="26">
         <f>estimate!A125</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46" s="168" t="str">
         <f>estimate!B125</f>
@@ -9297,7 +9299,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="47" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A47" s="26"/>
       <c r="B47" s="172" t="str">
         <f>estimate!B141</f>
@@ -9326,11 +9328,11 @@
       </c>
       <c r="O47" s="177">
         <f>(1837.5*G15)+(1347.5/10*G21)+(612.5/10*G28)+(1225*G31)+(1125/9*G34)+(14700*G37)+(21070/100*G40)+(612.5*G43)+(841.57/18.94*G46)+(14700/100*G49)+(7105/100*G52)+(1347.5/10*G55)</f>
-        <v>77340.175780099642</v>
+        <v>77342.870780099649</v>
       </c>
       <c r="P47" s="177"/>
     </row>
-    <row r="48" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="48" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A48" s="26"/>
       <c r="B48" s="31"/>
       <c r="C48" s="12"/>
@@ -9347,14 +9349,14 @@
       </c>
       <c r="O48" s="177">
         <f>(975.2*G13)+((2024+184)*G15)+(1150/10*G21)+(1950.4*G24)+(644*G26)+(920/10*G28)+(3680*G31)+(1840/9*G34)+(11040*G37)+(23644/100*G40)+(3220*G43)+(718.52/18.94*G46)+(14720/100*G49)+(5336/100*G52)+(1150/10*G55)+(9.2*G61)</f>
-        <v>96077.632610105051</v>
+        <v>96111.455693045573</v>
       </c>
       <c r="P48" s="177"/>
     </row>
     <row r="49" spans="1:16" s="1" customFormat="1">
       <c r="A49" s="26">
         <f>estimate!A143</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49" s="58" t="str">
         <f>estimate!B143</f>
@@ -9398,14 +9400,14 @@
       </c>
       <c r="O49" s="178">
         <f>(8481.2*G15)+(6360.9/10*G28)</f>
-        <v>48173.726057196647</v>
+        <v>48187.720037196646</v>
       </c>
       <c r="P49" s="178">
         <f>0.13*O49</f>
-        <v>6262.5843874355642</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" s="1" customFormat="1" ht="15.6">
+        <v>6264.4036048355647</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A50" s="26"/>
       <c r="B50" s="172" t="str">
         <f>estimate!B175</f>
@@ -9434,14 +9436,14 @@
       </c>
       <c r="O50" s="178">
         <f>(953.37*G15)+(2256.3/10*G28)+(1414.16*G31)+(544.85/9*G34)+(1350.6*G43)+(4639.73/100*G49)</f>
-        <v>18330.44394116478</v>
+        <v>18338.379121164777</v>
       </c>
       <c r="P50" s="178">
         <f t="shared" ref="P50:P74" si="37">0.13*O50</f>
-        <v>2382.9577123514214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" s="1" customFormat="1" ht="15.6">
+        <v>2383.989285751421</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A51" s="26"/>
       <c r="B51" s="31"/>
       <c r="C51" s="12"/>
@@ -9458,17 +9460,17 @@
       </c>
       <c r="O51" s="178">
         <f>(849.17*G15)+(3881.92*G31)+(1247.06/9*G34)+(4852.4*G43)+(6526.47/100*G49)</f>
-        <v>24412.228143820881</v>
+        <v>24422.903423820881</v>
       </c>
       <c r="P51" s="178">
         <f t="shared" si="37"/>
-        <v>3173.5896586967147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" s="1" customFormat="1" ht="27.6">
+        <v>3174.9774450967147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="1" customFormat="1" ht="28.5">
       <c r="A52" s="26">
         <f>estimate!A177</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52" s="58" t="str">
         <f>estimate!B177</f>
@@ -9512,14 +9514,14 @@
       </c>
       <c r="O52" s="178">
         <f>(28*G15)+(42*G31)+(25.2/9*G34)+(56*G43)</f>
-        <v>270.96333590612619</v>
+        <v>271.08653590612619</v>
       </c>
       <c r="P52" s="178">
         <f t="shared" si="37"/>
-        <v>35.225233667796402</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" s="1" customFormat="1" ht="15.6">
+        <v>35.241249667796403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A53" s="26"/>
       <c r="B53" s="172" t="str">
         <f>estimate!B181</f>
@@ -9555,7 +9557,7 @@
         <v>5713.1837443200002</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="54" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A54" s="26"/>
       <c r="B54" s="31"/>
       <c r="C54" s="12"/>
@@ -9579,10 +9581,10 @@
         <v>677.07897130328649</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="1" customFormat="1" ht="52.2">
+    <row r="55" spans="1:16" s="1" customFormat="1" ht="54">
       <c r="A55" s="26">
         <f>estimate!A183</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55" s="127" t="s">
         <v>141</v>
@@ -9632,7 +9634,7 @@
         <v>103.84942407129945</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="56" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A56" s="26"/>
       <c r="B56" s="172" t="str">
         <f>estimate!B188</f>
@@ -9668,7 +9670,7 @@
         <v>35.322498613789676</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="57" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A57" s="26"/>
       <c r="B57" s="31"/>
       <c r="C57" s="12"/>
@@ -9695,7 +9697,7 @@
     <row r="58" spans="1:16" s="1" customFormat="1">
       <c r="A58" s="26">
         <f>estimate!A190</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58" s="58" t="str">
         <f>estimate!B190</f>
@@ -9739,14 +9741,14 @@
       </c>
       <c r="O58" s="178">
         <f>((1652.5+737.97+349.56)*G31)+((1912.03+921.59)*G43)</f>
-        <v>6853.5327529279948</v>
+        <v>6859.7667169279948</v>
       </c>
       <c r="P58" s="178">
         <f t="shared" si="37"/>
-        <v>890.95925788063937</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" s="1" customFormat="1" ht="15.6">
+        <v>891.76967320063932</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A59" s="26"/>
       <c r="B59" s="172" t="str">
         <f>estimate!B197</f>
@@ -9782,7 +9784,7 @@
         <v>30.296936367062887</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="60" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A60" s="26"/>
       <c r="B60" s="31"/>
       <c r="C60" s="12"/>
@@ -9806,10 +9808,10 @@
         <v>404.17481481481491</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="1" customFormat="1" ht="41.4">
+    <row r="61" spans="1:16" s="1" customFormat="1" ht="42.75">
       <c r="A61" s="26">
         <f>estimate!A199</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61" s="58" t="str">
         <f>estimate!B199</f>
@@ -9821,7 +9823,7 @@
       </c>
       <c r="D61" s="12">
         <f>estimate!G204</f>
-        <v>58.066000000000003</v>
+        <v>58.088000000000008</v>
       </c>
       <c r="E61" s="12">
         <f>estimate!I204</f>
@@ -9829,11 +9831,11 @@
       </c>
       <c r="F61" s="12">
         <f t="shared" ref="F61" si="45">D61*E61</f>
-        <v>534.20719999999994</v>
+        <v>534.40960000000007</v>
       </c>
       <c r="G61" s="12">
         <f>V!G204</f>
-        <v>58.066000000000003</v>
+        <v>58.088000000000008</v>
       </c>
       <c r="H61" s="12">
         <f>V!I204</f>
@@ -9841,7 +9843,7 @@
       </c>
       <c r="I61" s="12">
         <f t="shared" ref="I61" si="46">G61*H61</f>
-        <v>534.20719999999994</v>
+        <v>534.40960000000007</v>
       </c>
       <c r="J61" s="27">
         <f t="shared" si="40"/>
@@ -9860,7 +9862,7 @@
         <v>4.6191407407407423</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="62" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A62" s="26"/>
       <c r="B62" s="31"/>
       <c r="C62" s="12"/>
@@ -9884,10 +9886,10 @@
         <v>99.002056296000035</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="63" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A63" s="26">
         <f>estimate!A206</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63" s="31" t="str">
         <f>estimate!B206</f>
@@ -9965,7 +9967,7 @@
     <row r="65" spans="1:16" s="1" customFormat="1">
       <c r="A65" s="26">
         <f>estimate!A208</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" s="30" t="str">
         <f>estimate!B208</f>
@@ -10009,11 +10011,11 @@
       </c>
       <c r="O65" s="178">
         <f>(416.81*G43)</f>
-        <v>389.12547980000005</v>
+        <v>390.04246180000001</v>
       </c>
       <c r="P65" s="178">
         <f t="shared" si="37"/>
-        <v>50.586312374000009</v>
+        <v>50.705520034000003</v>
       </c>
     </row>
     <row r="66" spans="1:16" s="1" customFormat="1">
@@ -10033,11 +10035,11 @@
       </c>
       <c r="O66" s="178">
         <f>(14.77*G43)</f>
-        <v>13.788976600000002</v>
+        <v>13.8214706</v>
       </c>
       <c r="P66" s="178">
         <f t="shared" si="37"/>
-        <v>1.7925669580000003</v>
+        <v>1.7967911780000001</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -10050,17 +10052,17 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7">
         <f>SUM(F13:F65)</f>
-        <v>558794.47688196914</v>
+        <v>558876.5613253098</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7">
         <f>SUM(I13:I65)</f>
-        <v>559423.62912444922</v>
+        <v>559505.71356778976</v>
       </c>
       <c r="J67" s="13">
         <f>I67-F67</f>
-        <v>629.15224248007871</v>
+        <v>629.1522424799623</v>
       </c>
       <c r="K67" s="5"/>
       <c r="N67" s="174" t="s">
@@ -10176,7 +10178,7 @@
       </c>
       <c r="P75" s="177"/>
     </row>
-    <row r="76" spans="1:16" ht="28.8">
+    <row r="76" spans="1:16" ht="45">
       <c r="N76" s="175" t="s">
         <v>30</v>
       </c>
@@ -10186,25 +10188,25 @@
       <c r="P76" s="177"/>
     </row>
     <row r="78" spans="1:16">
-      <c r="N78" s="217" t="s">
+      <c r="N78" s="179" t="s">
         <v>16</v>
       </c>
       <c r="O78" s="7">
         <f>SUM(O47:O76)</f>
-        <v>517608.27682609612</v>
+        <v>517684.70598903671</v>
       </c>
       <c r="P78" s="7">
         <f>SUM(P47:P75)</f>
-        <v>41364.760896665895</v>
+        <v>41369.949337065897</v>
       </c>
     </row>
     <row r="79" spans="1:16">
-      <c r="N79" s="217" t="s">
+      <c r="N79" s="179" t="s">
         <v>202</v>
       </c>
       <c r="O79" s="7">
         <f>O78+P78-I67</f>
-        <v>-450.59140168724116</v>
+        <v>-451.05824168713298</v>
       </c>
       <c r="P79" s="7"/>
     </row>
@@ -10214,6 +10216,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -10227,13 +10236,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10255,21 +10257,21 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="61"/>
-    <col min="2" max="2" width="11.44140625" style="61" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="61" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="61"/>
-    <col min="6" max="6" width="10.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="61" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="61" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="61"/>
+    <col min="1" max="1" width="8.85546875" style="61"/>
+    <col min="2" max="2" width="11.42578125" style="61" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="61" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="61"/>
+    <col min="6" max="6" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="61" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="61" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="61"/>
     <col min="10" max="10" width="12" style="61" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="61"/>
+    <col min="11" max="16384" width="8.85546875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="20.25">
       <c r="A1" s="59" t="e">
         <f>+#REF!+1</f>
         <v>#REF!</v>
@@ -10294,33 +10296,33 @@
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999">
+    <row r="3" spans="1:10" ht="18">
       <c r="A3" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="202" t="s">
+      <c r="B3" s="211" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-    </row>
-    <row r="4" spans="1:10" ht="15">
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="65"/>
-      <c r="B4" s="203" t="s">
+      <c r="B4" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-    </row>
-    <row r="5" spans="1:10" ht="32.4">
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="212"/>
+      <c r="H4" s="212"/>
+    </row>
+    <row r="5" spans="1:10" ht="31.5">
       <c r="A5" s="65"/>
       <c r="B5" s="66" t="s">
         <v>50</v>
@@ -10344,9 +10346,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18">
+    <row r="6" spans="1:10" ht="17.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="213" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="66" t="s">
@@ -10367,9 +10369,9 @@
       </c>
       <c r="H6" s="71"/>
     </row>
-    <row r="7" spans="1:10" ht="18">
+    <row r="7" spans="1:10" ht="17.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="205"/>
+      <c r="B7" s="214"/>
       <c r="C7" s="68" t="s">
         <v>60</v>
       </c>
@@ -10391,9 +10393,9 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="43.8">
+    <row r="8" spans="1:10" ht="45">
       <c r="A8" s="65"/>
-      <c r="B8" s="204" t="s">
+      <c r="B8" s="213" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="72" t="s">
@@ -10414,9 +10416,9 @@
       </c>
       <c r="H8" s="71"/>
     </row>
-    <row r="9" spans="1:10" ht="18">
+    <row r="9" spans="1:10" ht="17.25">
       <c r="A9" s="65"/>
-      <c r="B9" s="204"/>
+      <c r="B9" s="213"/>
       <c r="C9" s="68" t="s">
         <v>64</v>
       </c>
@@ -10435,9 +10437,9 @@
       </c>
       <c r="H9" s="74"/>
     </row>
-    <row r="10" spans="1:10" ht="18">
+    <row r="10" spans="1:10" ht="17.25">
       <c r="A10" s="65"/>
-      <c r="B10" s="204"/>
+      <c r="B10" s="213"/>
       <c r="C10" s="68" t="s">
         <v>66</v>
       </c>
@@ -10460,9 +10462,9 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18">
+    <row r="11" spans="1:10" ht="17.25">
       <c r="A11" s="65"/>
-      <c r="B11" s="204"/>
+      <c r="B11" s="213"/>
       <c r="C11" s="68" t="s">
         <v>68</v>
       </c>
@@ -10482,9 +10484,9 @@
       </c>
       <c r="H11" s="74"/>
     </row>
-    <row r="12" spans="1:10" ht="18">
+    <row r="12" spans="1:10" ht="17.25">
       <c r="A12" s="65"/>
-      <c r="B12" s="204"/>
+      <c r="B12" s="213"/>
       <c r="C12" s="68" t="s">
         <v>69</v>
       </c>
@@ -10508,9 +10510,9 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18">
+    <row r="13" spans="1:10" ht="17.25">
       <c r="A13" s="65"/>
-      <c r="B13" s="204"/>
+      <c r="B13" s="213"/>
       <c r="C13" s="68" t="s">
         <v>71</v>
       </c>
@@ -10533,7 +10535,7 @@
         <v>2004.3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18">
+    <row r="14" spans="1:10" ht="17.25">
       <c r="A14" s="65"/>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -10548,7 +10550,7 @@
         <v>5069.3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18">
+    <row r="15" spans="1:10" ht="17.25">
       <c r="B15" s="80" t="s">
         <v>74</v>
       </c>
@@ -10566,7 +10568,7 @@
         <v>647.74333333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18">
+    <row r="16" spans="1:10" ht="17.25">
       <c r="A16" s="81" t="s">
         <v>76</v>
       </c>
@@ -10592,7 +10594,7 @@
         <v>563.25555555555559</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18">
+    <row r="17" spans="1:8" ht="17.25">
       <c r="A17" s="81"/>
       <c r="B17" s="82"/>
       <c r="C17" s="65"/>
@@ -10607,7 +10609,7 @@
         <v>647.74333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18">
+    <row r="18" spans="1:8" ht="17.25">
       <c r="A18" s="81"/>
       <c r="B18" s="82"/>
       <c r="C18" s="65"/>
@@ -10622,7 +10624,7 @@
         <v>563.25507246376822</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18">
+    <row r="19" spans="1:8" ht="17.25">
       <c r="A19" s="81"/>
       <c r="B19" s="83" t="s">
         <v>81</v>
@@ -10634,43 +10636,43 @@
       <c r="G19" s="78"/>
       <c r="H19" s="82"/>
     </row>
-    <row r="22" spans="1:8" s="91" customFormat="1" ht="21">
+    <row r="22" spans="1:8" s="91" customFormat="1" ht="20.25">
       <c r="A22" s="90">
         <f>+A9+1</f>
         <v>1</v>
       </c>
-      <c r="B22" s="206"/>
-      <c r="C22" s="206"/>
-      <c r="D22" s="206"/>
-      <c r="E22" s="206"/>
-      <c r="F22" s="206"/>
-      <c r="G22" s="206"/>
-      <c r="H22" s="206"/>
-    </row>
-    <row r="23" spans="1:8" s="91" customFormat="1" ht="19.8">
+      <c r="B22" s="203"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="203"/>
+      <c r="H22" s="203"/>
+    </row>
+    <row r="23" spans="1:8" s="91" customFormat="1" ht="19.5">
       <c r="A23" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="206" t="s">
+      <c r="B23" s="203" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="206"/>
-      <c r="D23" s="206"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="206"/>
-      <c r="G23" s="206"/>
-      <c r="H23" s="206"/>
+      <c r="C23" s="203"/>
+      <c r="D23" s="203"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="203"/>
+      <c r="H23" s="203"/>
     </row>
     <row r="24" spans="1:8" s="91" customFormat="1" ht="15">
-      <c r="B24" s="208" t="s">
+      <c r="B24" s="204" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="208"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="204"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="204"/>
+      <c r="H24" s="204"/>
     </row>
     <row r="25" spans="1:8" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="B25" s="93" t="s">
@@ -10696,7 +10698,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="91" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B26" s="209" t="s">
+      <c r="B26" s="205" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="94" t="s">
@@ -10717,8 +10719,8 @@
       </c>
       <c r="H26" s="99"/>
     </row>
-    <row r="27" spans="1:8" s="91" customFormat="1" ht="18">
-      <c r="B27" s="210"/>
+    <row r="27" spans="1:8" s="91" customFormat="1" ht="17.25">
+      <c r="B27" s="206"/>
       <c r="C27" s="100" t="s">
         <v>60</v>
       </c>
@@ -10740,8 +10742,8 @@
         <v>44714</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="91" customFormat="1" ht="18">
-      <c r="B28" s="211" t="s">
+    <row r="28" spans="1:8" s="91" customFormat="1" ht="17.25">
+      <c r="B28" s="207" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="96" t="s">
@@ -10762,8 +10764,8 @@
       </c>
       <c r="H28" s="99"/>
     </row>
-    <row r="29" spans="1:8" s="91" customFormat="1" ht="18">
-      <c r="B29" s="212"/>
+    <row r="29" spans="1:8" s="91" customFormat="1" ht="17.25">
+      <c r="B29" s="208"/>
       <c r="C29" s="100" t="s">
         <v>104</v>
       </c>
@@ -10783,8 +10785,8 @@
       </c>
       <c r="H29" s="104"/>
     </row>
-    <row r="30" spans="1:8" s="91" customFormat="1" ht="27.6">
-      <c r="B30" s="212"/>
+    <row r="30" spans="1:8" s="91" customFormat="1" ht="27.75">
+      <c r="B30" s="208"/>
       <c r="C30" s="107" t="s">
         <v>115</v>
       </c>
@@ -10804,8 +10806,8 @@
       </c>
       <c r="H30" s="104"/>
     </row>
-    <row r="31" spans="1:8" s="91" customFormat="1" ht="18">
-      <c r="B31" s="213"/>
+    <row r="31" spans="1:8" s="91" customFormat="1" ht="17.25">
+      <c r="B31" s="209"/>
       <c r="C31" s="102" t="s">
         <v>106</v>
       </c>
@@ -10828,7 +10830,7 @@
         <v>36690.270000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="91" customFormat="1" ht="18">
+    <row r="32" spans="1:8" s="91" customFormat="1" ht="17.25">
       <c r="F32" s="111" t="s">
         <v>73</v>
       </c>
@@ -10838,7 +10840,7 @@
         <v>81404.27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="91" customFormat="1" ht="18">
+    <row r="33" spans="1:8" s="91" customFormat="1" ht="17.25">
       <c r="B33" s="91" t="s">
         <v>108</v>
       </c>
@@ -10882,16 +10884,16 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="214" t="s">
+      <c r="A36" s="210" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="214"/>
-      <c r="C36" s="214"/>
-      <c r="D36" s="214"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="214"/>
-      <c r="G36" s="214"/>
-      <c r="H36" s="214"/>
+      <c r="B36" s="210"/>
+      <c r="C36" s="210"/>
+      <c r="D36" s="210"/>
+      <c r="E36" s="210"/>
+      <c r="F36" s="210"/>
+      <c r="G36" s="210"/>
+      <c r="H36" s="210"/>
     </row>
     <row r="37" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
       <c r="B37" s="116" t="s">
@@ -10899,16 +10901,16 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="207" t="s">
+      <c r="A38" s="202" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="207"/>
-      <c r="C38" s="207"/>
-      <c r="D38" s="207"/>
-      <c r="E38" s="207"/>
-      <c r="F38" s="207"/>
-      <c r="G38" s="207"/>
-      <c r="H38" s="207"/>
+      <c r="B38" s="202"/>
+      <c r="C38" s="202"/>
+      <c r="D38" s="202"/>
+      <c r="E38" s="202"/>
+      <c r="F38" s="202"/>
+      <c r="G38" s="202"/>
+      <c r="H38" s="202"/>
     </row>
     <row r="39" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
       <c r="B39" s="116" t="s">
@@ -10916,16 +10918,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="207" t="s">
+      <c r="A40" s="202" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="207"/>
-      <c r="C40" s="207"/>
-      <c r="D40" s="207"/>
-      <c r="E40" s="207"/>
-      <c r="F40" s="207"/>
-      <c r="G40" s="207"/>
-      <c r="H40" s="207"/>
+      <c r="B40" s="202"/>
+      <c r="C40" s="202"/>
+      <c r="D40" s="202"/>
+      <c r="E40" s="202"/>
+      <c r="F40" s="202"/>
+      <c r="G40" s="202"/>
+      <c r="H40" s="202"/>
     </row>
     <row r="41" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
       <c r="B41" s="116" t="s">
@@ -10937,6 +10939,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="B23:H23"/>
@@ -10944,11 +10951,6 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="A36:H36"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10959,132 +10961,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V274"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A209" sqref="A209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="184" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="184"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="185" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.399999999999999">
-      <c r="A5" s="186" t="s">
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="186"/>
+      <c r="I4" s="186"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="186"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75">
+      <c r="A5" s="187" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="186"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186"/>
-      <c r="J5" s="186"/>
-      <c r="K5" s="186"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6">
-      <c r="A6" s="187" t="s">
+      <c r="B5" s="187"/>
+      <c r="C5" s="187"/>
+      <c r="D5" s="187"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="187"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="187"/>
+      <c r="K5" s="187"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75">
+      <c r="A6" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="188" t="s">
+      <c r="H6" s="189" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6">
-      <c r="A7" s="180" t="s">
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75">
+      <c r="A7" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="180"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="182"/>
+      <c r="F7" s="182"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="181" t="s">
+      <c r="H7" s="183" t="s">
         <v>169</v>
       </c>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -11121,7 +11123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="27.6">
+    <row r="9" spans="1:14" ht="28.5">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -11233,7 +11235,8 @@
         <v>2</v>
       </c>
       <c r="D13" s="36">
-        <v>1.5</v>
+        <f>5/3.281</f>
+        <v>1.5239256324291375</v>
       </c>
       <c r="E13" s="36">
         <v>0.35</v>
@@ -11244,7 +11247,7 @@
       </c>
       <c r="G13" s="37">
         <f t="shared" si="0"/>
-        <v>0.3333053946967387</v>
+        <v>0.3386217562701806</v>
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
@@ -11260,18 +11263,19 @@
         <v>2</v>
       </c>
       <c r="D14" s="36">
-        <v>1.5</v>
+        <f>5/3.281</f>
+        <v>1.5239256324291375</v>
       </c>
       <c r="E14" s="36">
         <v>0.35</v>
       </c>
       <c r="F14" s="36">
-        <f>((1.25/3.281)+(1.42/3.281))/2</f>
-        <v>0.40688814385857969</v>
+        <f>((1.25/3.281)+(1.5/3.281))/2</f>
+        <v>0.4190795489180128</v>
       </c>
       <c r="G14" s="37">
         <f t="shared" si="0"/>
-        <v>0.42723255105150859</v>
+        <v>0.44705224663610016</v>
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="38"/>
@@ -11289,7 +11293,7 @@
       <c r="F15" s="36"/>
       <c r="G15" s="32">
         <f>SUM(G10:G14)</f>
-        <v>4.5641191709844557</v>
+        <v>4.5892552281424894</v>
       </c>
       <c r="H15" s="38" t="s">
         <v>83</v>
@@ -11299,7 +11303,7 @@
       </c>
       <c r="J15" s="40">
         <f>G15*I15</f>
-        <v>4450.9290155440412</v>
+        <v>4475.4416984845557</v>
       </c>
       <c r="K15" s="21"/>
     </row>
@@ -11316,7 +11320,7 @@
       <c r="J16" s="40"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:14" ht="27.6">
+    <row r="17" spans="1:14" ht="28.5">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -11913,7 +11917,7 @@
       <c r="J40" s="40"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" ht="55.2">
+    <row r="41" spans="1:14" s="1" customFormat="1" ht="57">
       <c r="A41" s="131">
         <v>3</v>
       </c>
@@ -12065,7 +12069,7 @@
       <c r="J47" s="40"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:14" ht="27.6">
+    <row r="48" spans="1:14" ht="28.5">
       <c r="A48" s="18">
         <v>4</v>
       </c>
@@ -12168,9 +12172,9 @@
       <c r="J52" s="40"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:19" ht="41.4">
+    <row r="53" spans="1:19" ht="42.75">
       <c r="A53" s="18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53" s="58" t="s">
         <v>85</v>
@@ -12307,9 +12311,9 @@
       <c r="J58" s="40"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:19" ht="30.6">
+    <row r="59" spans="1:19" ht="30.75">
       <c r="A59" s="130">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59" s="84" t="s">
         <v>87</v>
@@ -12498,9 +12502,9 @@
       <c r="J66" s="39"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" ht="15">
+    <row r="67" spans="1:11">
       <c r="A67" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" s="86" t="s">
         <v>89</v>
@@ -12582,12 +12586,12 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E70" s="139">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F70" s="138"/>
       <c r="G70" s="140">
         <f>PRODUCT(C70:F70)</f>
-        <v>1.9800000000000002</v>
+        <v>2.0020000000000002</v>
       </c>
       <c r="H70" s="22"/>
       <c r="I70" s="23"/>
@@ -12629,7 +12633,7 @@
       <c r="F72" s="21"/>
       <c r="G72" s="23">
         <f>SUM(G68:G71)</f>
-        <v>17.255438890582141</v>
+        <v>17.27743889058214</v>
       </c>
       <c r="H72" s="22" t="s">
         <v>41</v>
@@ -12639,7 +12643,7 @@
       </c>
       <c r="J72" s="39">
         <f>G72*I72</f>
-        <v>17513.752810774156</v>
+        <v>17536.082150774153</v>
       </c>
       <c r="K72" s="21"/>
     </row>
@@ -12657,7 +12661,7 @@
       <c r="I73" s="23"/>
       <c r="J73" s="39">
         <f>0.13*G72*8617.2/10</f>
-        <v>1933.0163841030176</v>
+        <v>1935.4809033030178</v>
       </c>
       <c r="K73" s="21"/>
     </row>
@@ -12676,7 +12680,7 @@
     </row>
     <row r="75" spans="1:11" ht="30">
       <c r="A75" s="18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B75" s="86" t="s">
         <v>90</v>
@@ -12906,7 +12910,7 @@
       </c>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:20" ht="15">
+    <row r="84" spans="1:20">
       <c r="A84" s="18"/>
       <c r="B84" s="86"/>
       <c r="C84" s="19"/>
@@ -12919,9 +12923,9 @@
       <c r="J84" s="39"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:20" ht="39">
+    <row r="85" spans="1:20" ht="39.75">
       <c r="A85" s="18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B85" s="58" t="s">
         <v>86</v>
@@ -12969,15 +12973,15 @@
       <c r="I86" s="38"/>
       <c r="J86" s="38"/>
       <c r="K86" s="171"/>
-      <c r="N86" s="215" t="s">
+      <c r="N86" s="216" t="s">
         <v>85</v>
       </c>
-      <c r="O86" s="215"/>
-      <c r="P86" s="215"/>
-      <c r="Q86" s="215"/>
-      <c r="R86" s="215"/>
-      <c r="S86" s="215"/>
-      <c r="T86" s="215"/>
+      <c r="O86" s="216"/>
+      <c r="P86" s="216"/>
+      <c r="Q86" s="216"/>
+      <c r="R86" s="216"/>
+      <c r="S86" s="216"/>
+      <c r="T86" s="216"/>
     </row>
     <row r="87" spans="1:20" ht="15" customHeight="1">
       <c r="A87" s="18"/>
@@ -13070,7 +13074,7 @@
     </row>
     <row r="91" spans="1:20" ht="30">
       <c r="A91" s="18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B91" s="86" t="s">
         <v>91</v>
@@ -13379,7 +13383,7 @@
     </row>
     <row r="103" spans="1:22" ht="30">
       <c r="A103" s="130">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B103" s="143" t="s">
         <v>98</v>
@@ -13723,7 +13727,7 @@
     </row>
     <row r="116" spans="1:22" ht="30">
       <c r="A116" s="18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B116" s="86" t="s">
         <v>117</v>
@@ -13907,14 +13911,14 @@
       </c>
       <c r="E121" s="36">
         <f>E70</f>
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F121" s="36">
         <v>0.1</v>
       </c>
       <c r="G121" s="37">
         <f t="shared" ref="G121" si="16">PRODUCT(C121:F121)</f>
-        <v>0.19800000000000004</v>
+        <v>0.20020000000000004</v>
       </c>
       <c r="H121" s="38"/>
       <c r="I121" s="38"/>
@@ -13932,7 +13936,7 @@
       <c r="F122" s="36"/>
       <c r="G122" s="32">
         <f>SUM(G117:G121)</f>
-        <v>0.93358000000000008</v>
+        <v>0.93578000000000006</v>
       </c>
       <c r="H122" s="38" t="s">
         <v>83</v>
@@ -13942,7 +13946,7 @@
       </c>
       <c r="J122" s="40">
         <f>G122*I122</f>
-        <v>12667.653662000001</v>
+        <v>12697.505242000001</v>
       </c>
       <c r="K122" s="21"/>
     </row>
@@ -13960,7 +13964,7 @@
       <c r="I123" s="38"/>
       <c r="J123" s="40">
         <f>0.13*G122*9524.2</f>
-        <v>1155.9083426800003</v>
+        <v>1158.6322638800002</v>
       </c>
       <c r="K123" s="21"/>
     </row>
@@ -13987,9 +13991,9 @@
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
     </row>
-    <row r="125" spans="1:22" ht="30.6">
+    <row r="125" spans="1:22" ht="30.75">
       <c r="A125" s="18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B125" s="117" t="s">
         <v>119</v>
@@ -14066,7 +14070,7 @@
       <c r="U126" s="1"/>
       <c r="V126" s="1"/>
     </row>
-    <row r="127" spans="1:22" s="1" customFormat="1" ht="27.6">
+    <row r="127" spans="1:22" s="1" customFormat="1" ht="30">
       <c r="A127" s="118"/>
       <c r="B127" s="123" t="s">
         <v>122</v>
@@ -14195,7 +14199,7 @@
       <c r="J131" s="121"/>
       <c r="K131" s="119"/>
     </row>
-    <row r="132" spans="1:22" s="1" customFormat="1" ht="41.4">
+    <row r="132" spans="1:22" s="1" customFormat="1" ht="45">
       <c r="A132" s="118"/>
       <c r="B132" s="123" t="s">
         <v>123</v>
@@ -14302,7 +14306,7 @@
       <c r="J135" s="121"/>
       <c r="K135" s="119"/>
     </row>
-    <row r="136" spans="1:22" s="1" customFormat="1" ht="27.6">
+    <row r="136" spans="1:22" s="1" customFormat="1" ht="30">
       <c r="A136" s="118"/>
       <c r="B136" s="123" t="s">
         <v>158</v>
@@ -14391,7 +14395,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="139" spans="1:22" s="1" customFormat="1" ht="27.6">
+    <row r="139" spans="1:22" s="1" customFormat="1" ht="30">
       <c r="A139" s="118"/>
       <c r="B139" s="123" t="s">
         <v>156</v>
@@ -14488,7 +14492,7 @@
     </row>
     <row r="143" spans="1:22" s="1" customFormat="1" ht="30">
       <c r="A143" s="18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B143" s="126" t="s">
         <v>124</v>
@@ -15257,7 +15261,7 @@
       </c>
       <c r="K174" s="171"/>
     </row>
-    <row r="175" spans="1:22" s="1" customFormat="1" ht="17.399999999999999">
+    <row r="175" spans="1:22" s="1" customFormat="1" ht="18">
       <c r="A175" s="18"/>
       <c r="B175" s="123" t="s">
         <v>126</v>
@@ -15274,19 +15278,19 @@
         <v>1922.4312945044503</v>
       </c>
       <c r="K175" s="21"/>
-      <c r="N175" s="216" t="s">
+      <c r="N175" s="215" t="s">
         <v>135</v>
       </c>
-      <c r="O175" s="216"/>
-      <c r="P175" s="216"/>
-      <c r="Q175" s="216"/>
-      <c r="R175" s="216"/>
-      <c r="S175" s="216"/>
-      <c r="T175" s="216"/>
+      <c r="O175" s="215"/>
+      <c r="P175" s="215"/>
+      <c r="Q175" s="215"/>
+      <c r="R175" s="215"/>
+      <c r="S175" s="215"/>
+      <c r="T175" s="215"/>
       <c r="U175"/>
       <c r="V175"/>
     </row>
-    <row r="176" spans="1:22" s="1" customFormat="1" ht="17.399999999999999">
+    <row r="176" spans="1:22" s="1" customFormat="1" ht="18">
       <c r="A176" s="18"/>
       <c r="B176" s="123"/>
       <c r="C176" s="19"/>
@@ -15298,21 +15302,21 @@
       <c r="I176" s="23"/>
       <c r="J176" s="121"/>
       <c r="K176" s="21"/>
-      <c r="N176" s="216" t="s">
+      <c r="N176" s="215" t="s">
         <v>136</v>
       </c>
-      <c r="O176" s="216"/>
-      <c r="P176" s="216"/>
-      <c r="Q176" s="216"/>
-      <c r="R176" s="216"/>
-      <c r="S176" s="216"/>
-      <c r="T176" s="216"/>
+      <c r="O176" s="215"/>
+      <c r="P176" s="215"/>
+      <c r="Q176" s="215"/>
+      <c r="R176" s="215"/>
+      <c r="S176" s="215"/>
+      <c r="T176" s="215"/>
       <c r="U176"/>
       <c r="V176"/>
     </row>
-    <row r="177" spans="1:22" ht="30.6">
+    <row r="177" spans="1:22" ht="30.75">
       <c r="A177" s="18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B177" s="117" t="s">
         <v>127</v>
@@ -15426,9 +15430,9 @@
       <c r="J182" s="39"/>
       <c r="K182" s="21"/>
     </row>
-    <row r="183" spans="1:22" s="1" customFormat="1" ht="46.2">
+    <row r="183" spans="1:22" s="1" customFormat="1" ht="48">
       <c r="A183" s="18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B183" s="127" t="s">
         <v>141</v>
@@ -15587,9 +15591,9 @@
       <c r="J189" s="39"/>
       <c r="K189" s="21"/>
     </row>
-    <row r="190" spans="1:22" s="159" customFormat="1" ht="15.6">
+    <row r="190" spans="1:22" s="159" customFormat="1" ht="15.75">
       <c r="A190" s="152">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B190" s="153" t="s">
         <v>132</v>
@@ -15796,9 +15800,9 @@
       <c r="J198" s="151"/>
       <c r="K198" s="147"/>
     </row>
-    <row r="199" spans="1:22" s="160" customFormat="1" ht="41.4">
+    <row r="199" spans="1:22" s="160" customFormat="1" ht="42.75">
       <c r="A199" s="130">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B199" s="166" t="s">
         <v>137</v>
@@ -15895,12 +15899,12 @@
       </c>
       <c r="E202" s="137">
         <f>E121</f>
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F202" s="137"/>
       <c r="G202" s="163">
         <f t="shared" si="32"/>
-        <v>1.9800000000000002</v>
+        <v>2.0020000000000002</v>
       </c>
       <c r="H202" s="155"/>
       <c r="I202" s="155"/>
@@ -15958,7 +15962,7 @@
       <c r="F204" s="155"/>
       <c r="G204" s="165">
         <f>SUM(G200:G203)</f>
-        <v>58.066000000000003</v>
+        <v>58.088000000000008</v>
       </c>
       <c r="H204" s="165" t="s">
         <v>134</v>
@@ -15968,7 +15972,7 @@
       </c>
       <c r="J204" s="157">
         <f>G204*I204</f>
-        <v>534.20719999999994</v>
+        <v>534.40960000000007</v>
       </c>
       <c r="K204" s="147"/>
       <c r="M204" s="167"/>
@@ -16005,9 +16009,9 @@
       <c r="U205" s="167"/>
       <c r="V205" s="167"/>
     </row>
-    <row r="206" spans="1:22">
+    <row r="206" spans="1:22" ht="30">
       <c r="A206" s="18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B206" s="128" t="s">
         <v>163</v>
@@ -16069,7 +16073,7 @@
     </row>
     <row r="208" spans="1:22" ht="15" customHeight="1">
       <c r="A208" s="18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B208" s="29" t="s">
         <v>30</v>
@@ -16143,7 +16147,7 @@
       <c r="I210" s="39"/>
       <c r="J210" s="39">
         <f>SUM(J10:J208)</f>
-        <v>559423.62912444922</v>
+        <v>559505.71356778976</v>
       </c>
       <c r="K210" s="34"/>
       <c r="M210" s="33"/>
@@ -16185,11 +16189,11 @@
       <c r="B212" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="C212" s="182">
+      <c r="C212" s="181">
         <f>J210</f>
-        <v>559423.62912444922</v>
-      </c>
-      <c r="D212" s="182"/>
+        <v>559505.71356778976</v>
+      </c>
+      <c r="D212" s="181"/>
       <c r="E212" s="37">
         <v>100</v>
       </c>
@@ -16215,10 +16219,10 @@
       <c r="B213" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C213" s="189">
+      <c r="C213" s="180">
         <v>500000</v>
       </c>
-      <c r="D213" s="189"/>
+      <c r="D213" s="180"/>
       <c r="E213" s="37"/>
       <c r="F213" s="44"/>
       <c r="G213" s="43"/>
@@ -16242,14 +16246,14 @@
       <c r="B214" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C214" s="189">
+      <c r="C214" s="180">
         <f>C213-C216-C217</f>
         <v>475000</v>
       </c>
-      <c r="D214" s="189"/>
+      <c r="D214" s="180"/>
       <c r="E214" s="37">
         <f>C214/C212*100</f>
-        <v>84.908819590516728</v>
+        <v>84.896362714703358</v>
       </c>
       <c r="F214" s="44"/>
       <c r="G214" s="43"/>
@@ -16273,14 +16277,14 @@
       <c r="B215" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C215" s="182">
+      <c r="C215" s="181">
         <f>C212-C214</f>
-        <v>84423.629124449217</v>
-      </c>
-      <c r="D215" s="182"/>
+        <v>84505.71356778976</v>
+      </c>
+      <c r="D215" s="181"/>
       <c r="E215" s="37">
         <f>100-E214</f>
-        <v>15.091180409483272</v>
+        <v>15.103637285296642</v>
       </c>
       <c r="F215" s="44"/>
       <c r="G215" s="43"/>
@@ -16304,11 +16308,11 @@
       <c r="B216" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C216" s="182">
+      <c r="C216" s="181">
         <f>C213*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D216" s="182"/>
+      <c r="D216" s="181"/>
       <c r="E216" s="37">
         <v>3</v>
       </c>
@@ -16334,11 +16338,11 @@
       <c r="B217" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C217" s="182">
+      <c r="C217" s="181">
         <f>C213*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D217" s="182"/>
+      <c r="D217" s="181"/>
       <c r="E217" s="37">
         <v>2</v>
       </c>
@@ -16617,13 +16621,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="N176:T176"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="N86:T86"/>
@@ -16635,6 +16632,13 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="N176:T176"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B143" r:id="rId1"/>

--- a/ofc/estimates/परोपकार भवन मर्मत/changed estimate.xlsx
+++ b/ofc/estimates/परोपकार भवन मर्मत/changed estimate.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\परोपकार भवन मर्मत\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\परोपकार भवन मर्मत\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="estimate" sheetId="24" r:id="rId1"/>
@@ -116,7 +116,7 @@
     <definedName name="Ttile">'[1]update Rate'!$N$43</definedName>
     <definedName name="unskilled">'[2]Material rate'!$D$154</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="202">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -888,9 +888,6 @@
     <t>-for open spaces</t>
   </si>
   <si>
-    <t>m2</t>
-  </si>
-  <si>
     <t>;km]{;nfO{ 8«]l;Ë ug]{ sfo{ vfN6f] k'g]{, p7]sf] df6f] sf6\g], ;tx ldnfpg]</t>
   </si>
   <si>
@@ -1130,11 +1127,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -1524,7 +1521,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="219">
@@ -1535,7 +1532,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1555,14 +1552,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1571,7 +1568,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1595,7 +1592,7 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1630,7 +1627,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1645,7 +1642,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1661,7 +1658,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1697,7 +1694,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1735,7 +1732,7 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1822,7 +1819,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1861,7 +1858,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1910,7 +1907,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="40" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1945,7 +1942,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1960,15 +1957,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1987,6 +1987,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2009,26 +2027,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2051,29 +2066,11 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3068,117 +3065,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J174" sqref="J174"/>
+    <sheetView topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H205" sqref="H205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="22.5">
-      <c r="A2" s="185" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="22.8">
+      <c r="A2" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="186"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75">
-      <c r="A5" s="187" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="187"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.399999999999999">
+      <c r="A5" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="188" t="s">
+      <c r="B5" s="188"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="188"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6">
+      <c r="A6" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="189" t="s">
+      <c r="H6" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="189"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75">
+      <c r="I6" s="190"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="190"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.6">
       <c r="A7" s="182" t="s">
         <v>28</v>
       </c>
@@ -3189,7 +3186,7 @@
       <c r="F7" s="182"/>
       <c r="G7" s="3"/>
       <c r="H7" s="183" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I7" s="183"/>
       <c r="J7" s="183"/>
@@ -3230,12 +3227,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.5">
+    <row r="9" spans="1:11" ht="27.6">
       <c r="A9" s="18">
         <v>1</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="16"/>
@@ -3250,7 +3247,7 @@
     <row r="10" spans="1:11" ht="15" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="34">
         <v>1</v>
@@ -3278,7 +3275,7 @@
     <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="18"/>
       <c r="B11" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="34">
         <v>1</v>
@@ -3305,7 +3302,7 @@
     <row r="12" spans="1:11" ht="15" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="34">
         <v>1</v>
@@ -3332,7 +3329,7 @@
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="34">
         <v>2</v>
@@ -3360,7 +3357,7 @@
     <row r="14" spans="1:11" ht="15" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="34">
         <v>2</v>
@@ -3423,12 +3420,12 @@
       <c r="J16" s="40"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" ht="28.5">
+    <row r="17" spans="1:11" ht="27.6">
       <c r="A17" s="18">
         <v>2</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="36"/>
@@ -3809,7 +3806,7 @@
     <row r="32" spans="1:11" ht="15" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" s="34">
         <v>1</v>
@@ -4016,7 +4013,7 @@
       <c r="J40" s="40"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="57">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="55.2">
       <c r="A41" s="131">
         <v>3</v>
       </c>
@@ -4163,7 +4160,7 @@
       <c r="J47" s="40"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" ht="28.5">
+    <row r="48" spans="1:11" ht="27.6">
       <c r="A48" s="18">
         <v>4</v>
       </c>
@@ -4262,7 +4259,7 @@
       <c r="J52" s="40"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:14" ht="42.75">
+    <row r="53" spans="1:14" ht="41.4">
       <c r="A53" s="18">
         <v>5</v>
       </c>
@@ -4401,7 +4398,7 @@
       <c r="J58" s="40"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:14" ht="30.75">
+    <row r="59" spans="1:14" ht="30.6">
       <c r="A59" s="130">
         <v>6</v>
       </c>
@@ -4448,7 +4445,7 @@
     <row r="61" spans="1:14" ht="15" customHeight="1">
       <c r="A61" s="18"/>
       <c r="B61" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C61" s="19">
         <v>1</v>
@@ -4523,7 +4520,7 @@
     <row r="64" spans="1:14" ht="15" customHeight="1">
       <c r="A64" s="18"/>
       <c r="B64" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C64" s="19">
         <v>1</v>
@@ -4585,7 +4582,7 @@
       <c r="J66" s="39"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" ht="15">
       <c r="A67" s="18">
         <v>7</v>
       </c>
@@ -4632,7 +4629,7 @@
     <row r="69" spans="1:11" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="18"/>
       <c r="B69" s="138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" s="19">
         <v>1</v>
@@ -4684,7 +4681,7 @@
     <row r="71" spans="1:11" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="18"/>
       <c r="B71" s="138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C71" s="19">
         <v>1</v>
@@ -4897,7 +4894,7 @@
     <row r="80" spans="1:11" ht="15" customHeight="1">
       <c r="A80" s="18"/>
       <c r="B80" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C80" s="19">
         <v>4</v>
@@ -4993,7 +4990,7 @@
       </c>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" ht="15">
       <c r="A84" s="18"/>
       <c r="B84" s="86"/>
       <c r="C84" s="19"/>
@@ -5006,7 +5003,7 @@
       <c r="J84" s="39"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" ht="39.75">
+    <row r="85" spans="1:11" ht="39">
       <c r="A85" s="18">
         <v>9</v>
       </c>
@@ -5395,7 +5392,7 @@
       <c r="H100" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="I100" s="218">
+      <c r="I100" s="181">
         <v>131940</v>
       </c>
       <c r="J100" s="39">
@@ -5641,7 +5638,7 @@
     <row r="112" spans="1:11" ht="15" customHeight="1">
       <c r="A112" s="130"/>
       <c r="B112" s="132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C112" s="147">
         <v>2</v>
@@ -5841,7 +5838,7 @@
     <row r="121" spans="1:11" ht="15" customHeight="1">
       <c r="A121" s="18"/>
       <c r="B121" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C121" s="34">
         <v>1</v>
@@ -5922,7 +5919,7 @@
       <c r="J124" s="40"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" ht="30.75">
+    <row r="125" spans="1:11" ht="30.6">
       <c r="A125" s="18">
         <v>13</v>
       </c>
@@ -5978,7 +5975,7 @@
       <c r="J126" s="121"/>
       <c r="K126" s="119"/>
     </row>
-    <row r="127" spans="1:11" s="1" customFormat="1" ht="30">
+    <row r="127" spans="1:11" s="1" customFormat="1" ht="27.6">
       <c r="A127" s="118"/>
       <c r="B127" s="123" t="s">
         <v>122</v>
@@ -6058,7 +6055,7 @@
     <row r="130" spans="1:11" s="1" customFormat="1">
       <c r="A130" s="118"/>
       <c r="B130" s="170" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C130" s="120">
         <v>4</v>
@@ -6107,7 +6104,7 @@
       <c r="J131" s="121"/>
       <c r="K131" s="119"/>
     </row>
-    <row r="132" spans="1:11" s="1" customFormat="1" ht="45">
+    <row r="132" spans="1:11" s="1" customFormat="1" ht="41.4">
       <c r="A132" s="118"/>
       <c r="B132" s="123" t="s">
         <v>123</v>
@@ -6214,10 +6211,10 @@
       <c r="J135" s="121"/>
       <c r="K135" s="119"/>
     </row>
-    <row r="136" spans="1:11" s="1" customFormat="1" ht="30">
+    <row r="136" spans="1:11" s="1" customFormat="1" ht="27.6">
       <c r="A136" s="118"/>
       <c r="B136" s="123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C136" s="120">
         <f>1*2</f>
@@ -6274,7 +6271,7 @@
     <row r="138" spans="1:11" s="1" customFormat="1">
       <c r="A138" s="118"/>
       <c r="B138" s="123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C138" s="120">
         <v>274</v>
@@ -6299,10 +6296,10 @@
       <c r="J138" s="121"/>
       <c r="K138" s="119"/>
     </row>
-    <row r="139" spans="1:11" s="1" customFormat="1" ht="30">
+    <row r="139" spans="1:11" s="1" customFormat="1" ht="27.6">
       <c r="A139" s="118"/>
       <c r="B139" s="123" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C139" s="120">
         <f>1</f>
@@ -6717,7 +6714,7 @@
     <row r="157" spans="1:11" ht="15" customHeight="1">
       <c r="A157" s="18"/>
       <c r="B157" s="123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C157" s="34">
         <v>2</v>
@@ -6743,7 +6740,7 @@
     <row r="158" spans="1:11" ht="15" customHeight="1">
       <c r="A158" s="18"/>
       <c r="B158" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C158" s="34">
         <v>2</v>
@@ -7095,7 +7092,7 @@
     <row r="173" spans="1:11" ht="15" customHeight="1">
       <c r="A173" s="18"/>
       <c r="B173" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C173" s="34">
         <v>-1</v>
@@ -7172,7 +7169,7 @@
       <c r="J176" s="121"/>
       <c r="K176" s="21"/>
     </row>
-    <row r="177" spans="1:13" ht="30.75">
+    <row r="177" spans="1:13" ht="30.6">
       <c r="A177" s="18">
         <v>15</v>
       </c>
@@ -7192,7 +7189,7 @@
     <row r="178" spans="1:13" ht="15" customHeight="1">
       <c r="A178" s="18"/>
       <c r="B178" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C178" s="19">
         <v>1</v>
@@ -7288,12 +7285,12 @@
       <c r="J182" s="39"/>
       <c r="K182" s="21"/>
     </row>
-    <row r="183" spans="1:13" s="1" customFormat="1" ht="48">
+    <row r="183" spans="1:13" s="1" customFormat="1" ht="46.2">
       <c r="A183" s="18">
         <v>16</v>
       </c>
       <c r="B183" s="127" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C183" s="127"/>
       <c r="D183" s="20"/>
@@ -7333,7 +7330,7 @@
     <row r="185" spans="1:13" ht="15" customHeight="1">
       <c r="A185" s="18"/>
       <c r="B185" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C185" s="19">
         <v>1</v>
@@ -7439,7 +7436,7 @@
       <c r="J189" s="39"/>
       <c r="K189" s="21"/>
     </row>
-    <row r="190" spans="1:13" s="159" customFormat="1" ht="15.75">
+    <row r="190" spans="1:13" s="159" customFormat="1" ht="15.6">
       <c r="A190" s="152">
         <v>17</v>
       </c>
@@ -7585,7 +7582,7 @@
         <v>14.925000000000001</v>
       </c>
       <c r="H196" s="165" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="I196" s="165">
         <f>35*10.7639</f>
@@ -7628,12 +7625,12 @@
       <c r="J198" s="151"/>
       <c r="K198" s="147"/>
     </row>
-    <row r="199" spans="1:11" s="160" customFormat="1" ht="42.75">
+    <row r="199" spans="1:11" s="160" customFormat="1" ht="41.4">
       <c r="A199" s="130">
         <v>18</v>
       </c>
       <c r="B199" s="166" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C199" s="147"/>
       <c r="D199" s="148"/>
@@ -7648,7 +7645,7 @@
     <row r="200" spans="1:11" s="160" customFormat="1" ht="15" customHeight="1">
       <c r="A200" s="149"/>
       <c r="B200" s="132" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C200" s="133">
         <v>1</v>
@@ -7722,7 +7719,7 @@
     <row r="203" spans="1:11" s="160" customFormat="1" ht="15" customHeight="1">
       <c r="A203" s="149"/>
       <c r="B203" s="132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C203" s="133">
         <v>1</v>
@@ -7753,7 +7750,7 @@
         <v>58.088000000000008</v>
       </c>
       <c r="H204" s="165" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="I204" s="165">
         <v>9.1999999999999993</v>
@@ -7777,12 +7774,12 @@
       <c r="J205" s="32"/>
       <c r="K205" s="21"/>
     </row>
-    <row r="206" spans="1:11" ht="30">
+    <row r="206" spans="1:11">
       <c r="A206" s="18">
         <v>19</v>
       </c>
       <c r="B206" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C206" s="19">
         <v>1</v>
@@ -7897,11 +7894,11 @@
       <c r="B212" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C212" s="181">
+      <c r="C212" s="184">
         <f>J210</f>
         <v>558876.5613253098</v>
       </c>
-      <c r="D212" s="181"/>
+      <c r="D212" s="184"/>
       <c r="E212" s="37">
         <v>100</v>
       </c>
@@ -7917,10 +7914,10 @@
       <c r="B213" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C213" s="180">
+      <c r="C213" s="191">
         <v>500000</v>
       </c>
-      <c r="D213" s="180"/>
+      <c r="D213" s="191"/>
       <c r="E213" s="37"/>
       <c r="F213" s="44"/>
       <c r="G213" s="43"/>
@@ -7934,11 +7931,11 @@
       <c r="B214" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C214" s="180">
+      <c r="C214" s="191">
         <f>C213-C216-C217</f>
         <v>475000</v>
       </c>
-      <c r="D214" s="180"/>
+      <c r="D214" s="191"/>
       <c r="E214" s="37">
         <f>C214/C212*100</f>
         <v>84.991934332259987</v>
@@ -7955,11 +7952,11 @@
       <c r="B215" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C215" s="181">
+      <c r="C215" s="184">
         <f>C212-C214</f>
         <v>83876.561325309798</v>
       </c>
-      <c r="D215" s="181"/>
+      <c r="D215" s="184"/>
       <c r="E215" s="37">
         <f>100-E214</f>
         <v>15.008065667740013</v>
@@ -7976,11 +7973,11 @@
       <c r="B216" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C216" s="181">
+      <c r="C216" s="184">
         <f>C213*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D216" s="181"/>
+      <c r="D216" s="184"/>
       <c r="E216" s="37">
         <v>3</v>
       </c>
@@ -7996,11 +7993,11 @@
       <c r="B217" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C217" s="181">
+      <c r="C217" s="184">
         <f>C213*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D217" s="181"/>
+      <c r="D217" s="184"/>
       <c r="E217" s="37">
         <v>2</v>
       </c>
@@ -8082,6 +8079,11 @@
     <row r="274" s="33" customFormat="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C217:D217"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="C212:D212"/>
@@ -8092,11 +8094,6 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C217:D217"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B143" r:id="rId1"/>
@@ -8121,112 +8118,112 @@
       <selection activeCell="I9" sqref="I9:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" style="174" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" style="174" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5546875" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-    </row>
-    <row r="2" spans="1:14" ht="25.5">
-      <c r="A2" s="200" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+    </row>
+    <row r="2" spans="1:14" ht="24.6">
+      <c r="A2" s="195" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
       <c r="N3" s="176"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="186"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="187"/>
       <c r="N4" s="176"/>
     </row>
-    <row r="5" spans="1:14" ht="18.75">
-      <c r="A5" s="201" t="s">
+    <row r="5" spans="1:14" ht="18">
+      <c r="A5" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="201"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-      <c r="K5" s="201"/>
-    </row>
-    <row r="6" spans="1:14" ht="18.75">
+      <c r="B5" s="196"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="196"/>
+    </row>
+    <row r="6" spans="1:14" ht="18">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="197">
+      <c r="C6" s="192">
         <f>F67</f>
         <v>558876.5613253098</v>
       </c>
-      <c r="D6" s="198"/>
+      <c r="D6" s="193"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -8234,11 +8231,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="197">
+      <c r="J6" s="192">
         <f>I67</f>
         <v>559505.71356778976</v>
       </c>
-      <c r="K6" s="198"/>
+      <c r="K6" s="193"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="25" t="s">
@@ -8247,77 +8244,77 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="I7" s="193" t="s">
+      <c r="F7" s="199"/>
+      <c r="G7" s="199"/>
+      <c r="I7" s="200" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="193"/>
-      <c r="K7" s="193"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75">
-      <c r="A8" s="188" t="str">
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.6">
+      <c r="A8" s="189" t="str">
         <f>estimate!A6</f>
         <v>Project:- परोपकार भवन मर्मत</v>
       </c>
-      <c r="B8" s="188"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="I8" s="194" t="s">
-        <v>171</v>
-      </c>
-      <c r="J8" s="194"/>
-      <c r="K8" s="194"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+      <c r="I8" s="201" t="s">
+        <v>170</v>
+      </c>
+      <c r="J8" s="201"/>
+      <c r="K8" s="201"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="195" t="str">
+      <c r="A9" s="202" t="str">
         <f>estimate!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="195"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="195"/>
-      <c r="I9" s="194" t="s">
-        <v>170</v>
-      </c>
-      <c r="J9" s="194"/>
-      <c r="K9" s="194"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="202"/>
+      <c r="F9" s="202"/>
+      <c r="I9" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="J9" s="201"/>
+      <c r="K9" s="201"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="190" t="s">
+      <c r="A11" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="190" t="s">
+      <c r="B11" s="197" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="190" t="s">
+      <c r="C11" s="197" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="196" t="s">
+      <c r="D11" s="203" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196" t="s">
+      <c r="E11" s="203"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="203" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="190" t="s">
+      <c r="H11" s="203"/>
+      <c r="I11" s="203"/>
+      <c r="J11" s="197" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="191" t="s">
+      <c r="K11" s="198" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="190"/>
-      <c r="B12" s="190"/>
-      <c r="C12" s="190"/>
+      <c r="A12" s="197"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="197"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -8336,10 +8333,10 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="190"/>
-      <c r="K12" s="191"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="28.5">
+      <c r="J12" s="197"/>
+      <c r="K12" s="198"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="27.6">
       <c r="A13" s="26">
         <f>estimate!A9</f>
         <v>1</v>
@@ -8382,7 +8379,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="15.75">
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="15.6">
       <c r="A14" s="26"/>
       <c r="B14" s="31"/>
       <c r="C14" s="12"/>
@@ -8395,7 +8392,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="28.5">
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="27.6">
       <c r="A15" s="26">
         <f>estimate!A17</f>
         <v>2</v>
@@ -8438,7 +8435,7 @@
       </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="15.75">
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="15.6">
       <c r="A16" s="26"/>
       <c r="B16" s="172" t="str">
         <f>estimate!B39</f>
@@ -8463,7 +8460,7 @@
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="15.75">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="15.6">
       <c r="A17" s="26"/>
       <c r="B17" s="31"/>
       <c r="C17" s="12"/>
@@ -8476,7 +8473,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="57">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="41.4">
       <c r="A18" s="26">
         <f>estimate!A41</f>
         <v>3</v>
@@ -8523,7 +8520,7 @@
         <v>54238.494209999997</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="15.75">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="15.6">
       <c r="A19" s="26"/>
       <c r="B19" s="172" t="str">
         <f>estimate!B46</f>
@@ -8548,7 +8545,7 @@
       </c>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="15.75">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="15.6">
       <c r="A20" s="26"/>
       <c r="B20" s="31"/>
       <c r="C20" s="12"/>
@@ -8561,7 +8558,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="28.5">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="27.6">
       <c r="A21" s="26">
         <f>estimate!A48</f>
         <v>4</v>
@@ -8604,7 +8601,7 @@
       </c>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="15.75">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="15.6">
       <c r="A22" s="26"/>
       <c r="B22" s="172" t="str">
         <f>estimate!B51</f>
@@ -8629,7 +8626,7 @@
       </c>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="15.75">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="15.6">
       <c r="A23" s="26"/>
       <c r="B23" s="31"/>
       <c r="C23" s="12"/>
@@ -8642,7 +8639,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="42.75">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="27.6">
       <c r="A24" s="26">
         <f>estimate!A53</f>
         <v>5</v>
@@ -8689,7 +8686,7 @@
         <v>9997.5447192928987</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="15.75">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="15.6">
       <c r="A25" s="26"/>
       <c r="B25" s="31"/>
       <c r="C25" s="12"/>
@@ -8702,7 +8699,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="28.5">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="27.6">
       <c r="A26" s="26">
         <f>estimate!A59</f>
         <v>6</v>
@@ -8745,7 +8742,7 @@
       </c>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="15.75">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="15.6">
       <c r="A27" s="26"/>
       <c r="B27" s="31"/>
       <c r="C27" s="12"/>
@@ -8801,7 +8798,7 @@
       </c>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="15.75">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="15.6">
       <c r="A29" s="26"/>
       <c r="B29" s="172" t="str">
         <f>estimate!B73</f>
@@ -8826,7 +8823,7 @@
       </c>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="15.75">
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="15.6">
       <c r="A30" s="26"/>
       <c r="B30" s="31"/>
       <c r="C30" s="12"/>
@@ -8839,7 +8836,7 @@
       <c r="J30" s="27"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="28.5">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="27.6">
       <c r="A31" s="26">
         <f>estimate!A75</f>
         <v>8</v>
@@ -8882,7 +8879,7 @@
       </c>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="15.75">
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="15.6">
       <c r="A32" s="26"/>
       <c r="B32" s="172" t="str">
         <f>estimate!B83</f>
@@ -8907,7 +8904,7 @@
       </c>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A33" s="26"/>
       <c r="B33" s="31"/>
       <c r="C33" s="12"/>
@@ -8920,12 +8917,12 @@
       <c r="J33" s="27"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" ht="28.5">
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="25.2">
       <c r="A34" s="26">
         <f>estimate!A85</f>
         <v>9</v>
       </c>
-      <c r="B34" s="217" t="s">
+      <c r="B34" s="180" t="s">
         <v>86</v>
       </c>
       <c r="C34" s="12" t="str">
@@ -8966,7 +8963,7 @@
         <v>9821.2799999999988</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="35" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A35" s="26"/>
       <c r="B35" s="172" t="str">
         <f>estimate!B89</f>
@@ -8991,7 +8988,7 @@
       </c>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="36" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A36" s="26"/>
       <c r="B36" s="31"/>
       <c r="C36" s="12"/>
@@ -9004,7 +9001,7 @@
       <c r="J36" s="27"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:16" s="1" customFormat="1" ht="28.5">
+    <row r="37" spans="1:16" s="1" customFormat="1" ht="27.6">
       <c r="A37" s="26">
         <f>estimate!A91</f>
         <v>10</v>
@@ -9047,7 +9044,7 @@
       </c>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="38" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A38" s="26"/>
       <c r="B38" s="172" t="str">
         <f>estimate!B101</f>
@@ -9072,7 +9069,7 @@
       </c>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="39" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A39" s="26"/>
       <c r="B39" s="31"/>
       <c r="C39" s="12"/>
@@ -9085,7 +9082,7 @@
       <c r="J39" s="27"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:16" s="1" customFormat="1" ht="28.5">
+    <row r="40" spans="1:16" s="1" customFormat="1">
       <c r="A40" s="26">
         <f>estimate!A103</f>
         <v>11</v>
@@ -9128,7 +9125,7 @@
       </c>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="41" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A41" s="26"/>
       <c r="B41" s="172" t="str">
         <f>estimate!B114</f>
@@ -9153,7 +9150,7 @@
       </c>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="42" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A42" s="26"/>
       <c r="B42" s="31"/>
       <c r="C42" s="12"/>
@@ -9166,7 +9163,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:16" s="1" customFormat="1" ht="28.5">
+    <row r="43" spans="1:16" s="1" customFormat="1" ht="27.6">
       <c r="A43" s="26">
         <f>estimate!A116</f>
         <v>12</v>
@@ -9209,7 +9206,7 @@
       </c>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="44" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A44" s="26"/>
       <c r="B44" s="172" t="str">
         <f>estimate!B123</f>
@@ -9234,7 +9231,7 @@
       </c>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="45" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A45" s="26"/>
       <c r="B45" s="31"/>
       <c r="C45" s="12"/>
@@ -9247,7 +9244,7 @@
       <c r="J45" s="27"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:16" s="1" customFormat="1" ht="28.5">
+    <row r="46" spans="1:16" s="1" customFormat="1" ht="27.6">
       <c r="A46" s="26">
         <f>estimate!A125</f>
         <v>13</v>
@@ -9293,13 +9290,13 @@
         <v>22</v>
       </c>
       <c r="O46" s="175" t="s">
+        <v>171</v>
+      </c>
+      <c r="P46" s="174" t="s">
         <v>172</v>
       </c>
-      <c r="P46" s="174" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="1" customFormat="1" ht="15.75">
+    </row>
+    <row r="47" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A47" s="26"/>
       <c r="B47" s="172" t="str">
         <f>estimate!B141</f>
@@ -9324,7 +9321,7 @@
       </c>
       <c r="K47" s="14"/>
       <c r="N47" s="174" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O47" s="177">
         <f>(1837.5*G15)+(1347.5/10*G21)+(612.5/10*G28)+(1225*G31)+(1125/9*G34)+(14700*G37)+(21070/100*G40)+(612.5*G43)+(841.57/18.94*G46)+(14700/100*G49)+(7105/100*G52)+(1347.5/10*G55)</f>
@@ -9332,7 +9329,7 @@
       </c>
       <c r="P47" s="177"/>
     </row>
-    <row r="48" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="48" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A48" s="26"/>
       <c r="B48" s="31"/>
       <c r="C48" s="12"/>
@@ -9345,7 +9342,7 @@
       <c r="J48" s="27"/>
       <c r="K48" s="14"/>
       <c r="N48" s="174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O48" s="177">
         <f>(975.2*G13)+((2024+184)*G15)+(1150/10*G21)+(1950.4*G24)+(644*G26)+(920/10*G28)+(3680*G31)+(1840/9*G34)+(11040*G37)+(23644/100*G40)+(3220*G43)+(718.52/18.94*G46)+(14720/100*G49)+(5336/100*G52)+(1150/10*G55)+(9.2*G61)</f>
@@ -9396,7 +9393,7 @@
       </c>
       <c r="K49" s="14"/>
       <c r="N49" s="176" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O49" s="178">
         <f>(8481.2*G15)+(6360.9/10*G28)</f>
@@ -9407,7 +9404,7 @@
         <v>6264.4036048355647</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="50" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A50" s="26"/>
       <c r="B50" s="172" t="str">
         <f>estimate!B175</f>
@@ -9432,7 +9429,7 @@
       </c>
       <c r="K50" s="14"/>
       <c r="N50" s="176" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O50" s="178">
         <f>(953.37*G15)+(2256.3/10*G28)+(1414.16*G31)+(544.85/9*G34)+(1350.6*G43)+(4639.73/100*G49)</f>
@@ -9443,7 +9440,7 @@
         <v>2383.989285751421</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="51" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A51" s="26"/>
       <c r="B51" s="31"/>
       <c r="C51" s="12"/>
@@ -9456,7 +9453,7 @@
       <c r="J51" s="27"/>
       <c r="K51" s="14"/>
       <c r="N51" s="176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O51" s="178">
         <f>(849.17*G15)+(3881.92*G31)+(1247.06/9*G34)+(4852.4*G43)+(6526.47/100*G49)</f>
@@ -9467,7 +9464,7 @@
         <v>3174.9774450967147</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="1" customFormat="1" ht="28.5">
+    <row r="52" spans="1:16" s="1" customFormat="1" ht="27.6">
       <c r="A52" s="26">
         <f>estimate!A177</f>
         <v>15</v>
@@ -9510,7 +9507,7 @@
       </c>
       <c r="K52" s="14"/>
       <c r="N52" s="176" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O52" s="178">
         <f>(28*G15)+(42*G31)+(25.2/9*G34)+(56*G43)</f>
@@ -9521,7 +9518,7 @@
         <v>35.241249667796403</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="53" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A53" s="26"/>
       <c r="B53" s="172" t="str">
         <f>estimate!B181</f>
@@ -9546,7 +9543,7 @@
       </c>
       <c r="K53" s="14"/>
       <c r="N53" s="176" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O53" s="178">
         <f>(817.76*G18)</f>
@@ -9557,7 +9554,7 @@
         <v>5713.1837443200002</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="54" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A54" s="26"/>
       <c r="B54" s="31"/>
       <c r="C54" s="12"/>
@@ -9570,7 +9567,7 @@
       <c r="J54" s="27"/>
       <c r="K54" s="14"/>
       <c r="N54" s="176" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O54" s="178">
         <f>(6674.66/10*G21)</f>
@@ -9581,13 +9578,13 @@
         <v>677.07897130328649</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="1" customFormat="1" ht="54">
+    <row r="55" spans="1:16" s="1" customFormat="1" ht="52.2">
       <c r="A55" s="26">
         <f>estimate!A183</f>
         <v>16</v>
       </c>
       <c r="B55" s="127" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="12" t="str">
         <f>estimate!H187</f>
@@ -9623,7 +9620,7 @@
       </c>
       <c r="K55" s="14"/>
       <c r="N55" s="176" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O55" s="178">
         <f>(1023.75/10*G21)</f>
@@ -9634,7 +9631,7 @@
         <v>103.84942407129945</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="56" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A56" s="26"/>
       <c r="B56" s="172" t="str">
         <f>estimate!B188</f>
@@ -9659,7 +9656,7 @@
       </c>
       <c r="K56" s="14"/>
       <c r="N56" s="176" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O56" s="178">
         <f>(348.21/10*G21)</f>
@@ -9670,7 +9667,7 @@
         <v>35.322498613789676</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="57" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A57" s="26"/>
       <c r="B57" s="31"/>
       <c r="C57" s="12"/>
@@ -9683,7 +9680,7 @@
       <c r="J57" s="27"/>
       <c r="K57" s="14"/>
       <c r="N57" s="176" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O57" s="178">
         <f>(165/10*G21)</f>
@@ -9705,7 +9702,7 @@
       </c>
       <c r="C58" s="12" t="str">
         <f>estimate!H196</f>
-        <v>m2</v>
+        <v>sqm</v>
       </c>
       <c r="D58" s="12">
         <f>estimate!G196</f>
@@ -9737,7 +9734,7 @@
       </c>
       <c r="K58" s="14"/>
       <c r="N58" s="176" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O58" s="178">
         <f>((1652.5+737.97+349.56)*G31)+((1912.03+921.59)*G43)</f>
@@ -9748,7 +9745,7 @@
         <v>891.76967320063932</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="59" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A59" s="26"/>
       <c r="B59" s="172" t="str">
         <f>estimate!B197</f>
@@ -9773,7 +9770,7 @@
       </c>
       <c r="K59" s="14"/>
       <c r="N59" s="176" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O59" s="178">
         <f>(187.19/9*G34)</f>
@@ -9784,7 +9781,7 @@
         <v>30.296936367062887</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="60" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A60" s="26"/>
       <c r="B60" s="31"/>
       <c r="C60" s="12"/>
@@ -9797,7 +9794,7 @@
       <c r="J60" s="27"/>
       <c r="K60" s="14"/>
       <c r="N60" s="176" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O60" s="178">
         <f>(105000*G37)</f>
@@ -9808,7 +9805,7 @@
         <v>404.17481481481491</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="1" customFormat="1" ht="42.75">
+    <row r="61" spans="1:16" s="1" customFormat="1" ht="41.4">
       <c r="A61" s="26">
         <f>estimate!A199</f>
         <v>18</v>
@@ -9819,7 +9816,7 @@
       </c>
       <c r="C61" s="12" t="str">
         <f>estimate!H204</f>
-        <v>m2</v>
+        <v>sqm</v>
       </c>
       <c r="D61" s="12">
         <f>estimate!G204</f>
@@ -9851,7 +9848,7 @@
       </c>
       <c r="K61" s="14"/>
       <c r="N61" s="176" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="178">
         <f>(1200*G37)</f>
@@ -9862,7 +9859,7 @@
         <v>4.6191407407407423</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="62" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A62" s="26"/>
       <c r="B62" s="31"/>
       <c r="C62" s="12"/>
@@ -9875,7 +9872,7 @@
       <c r="J62" s="27"/>
       <c r="K62" s="14"/>
       <c r="N62" s="176" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="178">
         <f>(20062.02/100*G40)</f>
@@ -9886,7 +9883,7 @@
         <v>99.002056296000035</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="1" customFormat="1" ht="15.75">
+    <row r="63" spans="1:16" s="1" customFormat="1" ht="15.6">
       <c r="A63" s="26">
         <f>estimate!A206</f>
         <v>19</v>
@@ -9929,7 +9926,7 @@
       </c>
       <c r="K63" s="14"/>
       <c r="N63" s="176" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="178">
         <f>(13328.25/100*G40)</f>
@@ -9953,7 +9950,7 @@
       <c r="J64" s="27"/>
       <c r="K64" s="14"/>
       <c r="N64" s="176" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O64" s="178">
         <f>(3300/100*G40)</f>
@@ -10007,7 +10004,7 @@
       </c>
       <c r="K65" s="14"/>
       <c r="N65" s="176" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O65" s="178">
         <f>(416.81*G43)</f>
@@ -10031,7 +10028,7 @@
       <c r="J66" s="27"/>
       <c r="K66" s="14"/>
       <c r="N66" s="176" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O66" s="178">
         <f>(14.77*G43)</f>
@@ -10066,7 +10063,7 @@
       </c>
       <c r="K67" s="5"/>
       <c r="N67" s="174" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="177">
         <f>(1761.42/18.94*G46)</f>
@@ -10079,7 +10076,7 @@
     </row>
     <row r="68" spans="1:16">
       <c r="N68" s="174" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O68" s="177">
         <f>(110/18.94*G46)</f>
@@ -10092,7 +10089,7 @@
     </row>
     <row r="69" spans="1:16">
       <c r="N69" s="174" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O69" s="177">
         <f>(2304/100*G52)</f>
@@ -10105,7 +10102,7 @@
     </row>
     <row r="70" spans="1:16">
       <c r="N70" s="174" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O70" s="177">
         <f>(10432/100*G52)</f>
@@ -10118,7 +10115,7 @@
     </row>
     <row r="71" spans="1:16">
       <c r="N71" s="174" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O71" s="177">
         <f>(18972/10*G55)</f>
@@ -10131,7 +10128,7 @@
     </row>
     <row r="72" spans="1:16">
       <c r="N72" s="174" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O72" s="177">
         <f>(868/10*G55)</f>
@@ -10144,7 +10141,7 @@
     </row>
     <row r="73" spans="1:16">
       <c r="N73" s="174" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O73" s="177">
         <f>(378/10*G55)</f>
@@ -10170,7 +10167,7 @@
     </row>
     <row r="75" spans="1:16">
       <c r="N75" s="174" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O75" s="177">
         <f>H63</f>
@@ -10178,7 +10175,7 @@
       </c>
       <c r="P75" s="177"/>
     </row>
-    <row r="76" spans="1:16" ht="45">
+    <row r="76" spans="1:16" ht="28.8">
       <c r="N76" s="175" t="s">
         <v>30</v>
       </c>
@@ -10202,7 +10199,7 @@
     </row>
     <row r="79" spans="1:16">
       <c r="N79" s="179" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O79" s="7">
         <f>O78+P78-I67</f>
@@ -10216,13 +10213,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -10236,6 +10226,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10253,25 +10250,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="61"/>
-    <col min="2" max="2" width="11.42578125" style="61" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="61" customWidth="1"/>
-    <col min="4" max="5" width="8.85546875" style="61"/>
-    <col min="6" max="6" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="61" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="61" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="61"/>
+    <col min="1" max="1" width="8.88671875" style="61"/>
+    <col min="2" max="2" width="11.44140625" style="61" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="61" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="61"/>
+    <col min="6" max="6" width="10.44140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" style="61" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" style="61" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="61"/>
     <col min="10" max="10" width="12" style="61" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="61"/>
+    <col min="11" max="16384" width="8.88671875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25">
+    <row r="1" spans="1:10" ht="21">
       <c r="A1" s="59" t="e">
         <f>+#REF!+1</f>
         <v>#REF!</v>
@@ -10296,33 +10293,33 @@
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
     </row>
-    <row r="3" spans="1:10" ht="18">
+    <row r="3" spans="1:10" ht="17.399999999999999">
       <c r="A3" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="211" t="s">
+      <c r="B3" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75">
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+    </row>
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" s="65"/>
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="205" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="212"/>
-      <c r="F4" s="212"/>
-      <c r="G4" s="212"/>
-      <c r="H4" s="212"/>
-    </row>
-    <row r="5" spans="1:10" ht="31.5">
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+    </row>
+    <row r="5" spans="1:10" ht="32.4">
       <c r="A5" s="65"/>
       <c r="B5" s="66" t="s">
         <v>50</v>
@@ -10346,9 +10343,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.25">
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" s="65"/>
-      <c r="B6" s="213" t="s">
+      <c r="B6" s="206" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="66" t="s">
@@ -10369,9 +10366,9 @@
       </c>
       <c r="H6" s="71"/>
     </row>
-    <row r="7" spans="1:10" ht="17.25">
+    <row r="7" spans="1:10" ht="18">
       <c r="A7" s="65"/>
-      <c r="B7" s="214"/>
+      <c r="B7" s="207"/>
       <c r="C7" s="68" t="s">
         <v>60</v>
       </c>
@@ -10393,9 +10390,9 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="45">
+    <row r="8" spans="1:10" ht="43.8">
       <c r="A8" s="65"/>
-      <c r="B8" s="213" t="s">
+      <c r="B8" s="206" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="72" t="s">
@@ -10416,9 +10413,9 @@
       </c>
       <c r="H8" s="71"/>
     </row>
-    <row r="9" spans="1:10" ht="17.25">
+    <row r="9" spans="1:10" ht="18">
       <c r="A9" s="65"/>
-      <c r="B9" s="213"/>
+      <c r="B9" s="206"/>
       <c r="C9" s="68" t="s">
         <v>64</v>
       </c>
@@ -10437,9 +10434,9 @@
       </c>
       <c r="H9" s="74"/>
     </row>
-    <row r="10" spans="1:10" ht="17.25">
+    <row r="10" spans="1:10" ht="18">
       <c r="A10" s="65"/>
-      <c r="B10" s="213"/>
+      <c r="B10" s="206"/>
       <c r="C10" s="68" t="s">
         <v>66</v>
       </c>
@@ -10462,9 +10459,9 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.25">
+    <row r="11" spans="1:10" ht="18">
       <c r="A11" s="65"/>
-      <c r="B11" s="213"/>
+      <c r="B11" s="206"/>
       <c r="C11" s="68" t="s">
         <v>68</v>
       </c>
@@ -10484,9 +10481,9 @@
       </c>
       <c r="H11" s="74"/>
     </row>
-    <row r="12" spans="1:10" ht="17.25">
+    <row r="12" spans="1:10" ht="18">
       <c r="A12" s="65"/>
-      <c r="B12" s="213"/>
+      <c r="B12" s="206"/>
       <c r="C12" s="68" t="s">
         <v>69</v>
       </c>
@@ -10510,9 +10507,9 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.25">
+    <row r="13" spans="1:10" ht="18">
       <c r="A13" s="65"/>
-      <c r="B13" s="213"/>
+      <c r="B13" s="206"/>
       <c r="C13" s="68" t="s">
         <v>71</v>
       </c>
@@ -10535,7 +10532,7 @@
         <v>2004.3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17.25">
+    <row r="14" spans="1:10" ht="18">
       <c r="A14" s="65"/>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -10550,7 +10547,7 @@
         <v>5069.3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17.25">
+    <row r="15" spans="1:10" ht="18">
       <c r="B15" s="80" t="s">
         <v>74</v>
       </c>
@@ -10568,7 +10565,7 @@
         <v>647.74333333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17.25">
+    <row r="16" spans="1:10" ht="18">
       <c r="A16" s="81" t="s">
         <v>76</v>
       </c>
@@ -10594,7 +10591,7 @@
         <v>563.25555555555559</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25">
+    <row r="17" spans="1:8" ht="18">
       <c r="A17" s="81"/>
       <c r="B17" s="82"/>
       <c r="C17" s="65"/>
@@ -10609,7 +10606,7 @@
         <v>647.74333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.25">
+    <row r="18" spans="1:8" ht="18">
       <c r="A18" s="81"/>
       <c r="B18" s="82"/>
       <c r="C18" s="65"/>
@@ -10624,7 +10621,7 @@
         <v>563.25507246376822</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.25">
+    <row r="19" spans="1:8" ht="18">
       <c r="A19" s="81"/>
       <c r="B19" s="83" t="s">
         <v>81</v>
@@ -10636,43 +10633,43 @@
       <c r="G19" s="78"/>
       <c r="H19" s="82"/>
     </row>
-    <row r="22" spans="1:8" s="91" customFormat="1" ht="20.25">
+    <row r="22" spans="1:8" s="91" customFormat="1" ht="21">
       <c r="A22" s="90">
         <f>+A9+1</f>
         <v>1</v>
       </c>
-      <c r="B22" s="203"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
-      <c r="H22" s="203"/>
-    </row>
-    <row r="23" spans="1:8" s="91" customFormat="1" ht="19.5">
+      <c r="B22" s="208"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="208"/>
+    </row>
+    <row r="23" spans="1:8" s="91" customFormat="1" ht="19.8">
       <c r="A23" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="203" t="s">
+      <c r="B23" s="208" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="203"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="208"/>
+      <c r="G23" s="208"/>
+      <c r="H23" s="208"/>
     </row>
     <row r="24" spans="1:8" s="91" customFormat="1" ht="15">
-      <c r="B24" s="204" t="s">
+      <c r="B24" s="210" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="204"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="204"/>
-      <c r="H24" s="204"/>
+      <c r="C24" s="210"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="210"/>
+      <c r="F24" s="210"/>
+      <c r="G24" s="210"/>
+      <c r="H24" s="210"/>
     </row>
     <row r="25" spans="1:8" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="B25" s="93" t="s">
@@ -10698,7 +10695,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="91" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B26" s="205" t="s">
+      <c r="B26" s="211" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="94" t="s">
@@ -10719,8 +10716,8 @@
       </c>
       <c r="H26" s="99"/>
     </row>
-    <row r="27" spans="1:8" s="91" customFormat="1" ht="17.25">
-      <c r="B27" s="206"/>
+    <row r="27" spans="1:8" s="91" customFormat="1" ht="18">
+      <c r="B27" s="212"/>
       <c r="C27" s="100" t="s">
         <v>60</v>
       </c>
@@ -10742,8 +10739,8 @@
         <v>44714</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="91" customFormat="1" ht="17.25">
-      <c r="B28" s="207" t="s">
+    <row r="28" spans="1:8" s="91" customFormat="1" ht="18">
+      <c r="B28" s="213" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="96" t="s">
@@ -10764,8 +10761,8 @@
       </c>
       <c r="H28" s="99"/>
     </row>
-    <row r="29" spans="1:8" s="91" customFormat="1" ht="17.25">
-      <c r="B29" s="208"/>
+    <row r="29" spans="1:8" s="91" customFormat="1" ht="18">
+      <c r="B29" s="214"/>
       <c r="C29" s="100" t="s">
         <v>104</v>
       </c>
@@ -10785,8 +10782,8 @@
       </c>
       <c r="H29" s="104"/>
     </row>
-    <row r="30" spans="1:8" s="91" customFormat="1" ht="27.75">
-      <c r="B30" s="208"/>
+    <row r="30" spans="1:8" s="91" customFormat="1" ht="27.6">
+      <c r="B30" s="214"/>
       <c r="C30" s="107" t="s">
         <v>115</v>
       </c>
@@ -10806,8 +10803,8 @@
       </c>
       <c r="H30" s="104"/>
     </row>
-    <row r="31" spans="1:8" s="91" customFormat="1" ht="17.25">
-      <c r="B31" s="209"/>
+    <row r="31" spans="1:8" s="91" customFormat="1" ht="18">
+      <c r="B31" s="215"/>
       <c r="C31" s="102" t="s">
         <v>106</v>
       </c>
@@ -10830,7 +10827,7 @@
         <v>36690.270000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="91" customFormat="1" ht="17.25">
+    <row r="32" spans="1:8" s="91" customFormat="1" ht="18">
       <c r="F32" s="111" t="s">
         <v>73</v>
       </c>
@@ -10840,7 +10837,7 @@
         <v>81404.27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="91" customFormat="1" ht="17.25">
+    <row r="33" spans="1:8" s="91" customFormat="1" ht="18">
       <c r="B33" s="91" t="s">
         <v>108</v>
       </c>
@@ -10884,16 +10881,16 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="210" t="s">
+      <c r="A36" s="216" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="210"/>
-      <c r="C36" s="210"/>
-      <c r="D36" s="210"/>
-      <c r="E36" s="210"/>
-      <c r="F36" s="210"/>
-      <c r="G36" s="210"/>
-      <c r="H36" s="210"/>
+      <c r="B36" s="216"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="216"/>
+      <c r="E36" s="216"/>
+      <c r="F36" s="216"/>
+      <c r="G36" s="216"/>
+      <c r="H36" s="216"/>
     </row>
     <row r="37" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
       <c r="B37" s="116" t="s">
@@ -10901,16 +10898,16 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="202" t="s">
+      <c r="A38" s="209" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="202"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="202"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="202"/>
-      <c r="G38" s="202"/>
-      <c r="H38" s="202"/>
+      <c r="B38" s="209"/>
+      <c r="C38" s="209"/>
+      <c r="D38" s="209"/>
+      <c r="E38" s="209"/>
+      <c r="F38" s="209"/>
+      <c r="G38" s="209"/>
+      <c r="H38" s="209"/>
     </row>
     <row r="39" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
       <c r="B39" s="116" t="s">
@@ -10918,16 +10915,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="202" t="s">
+      <c r="A40" s="209" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="202"/>
-      <c r="C40" s="202"/>
-      <c r="D40" s="202"/>
-      <c r="E40" s="202"/>
-      <c r="F40" s="202"/>
-      <c r="G40" s="202"/>
-      <c r="H40" s="202"/>
+      <c r="B40" s="209"/>
+      <c r="C40" s="209"/>
+      <c r="D40" s="209"/>
+      <c r="E40" s="209"/>
+      <c r="F40" s="209"/>
+      <c r="G40" s="209"/>
+      <c r="H40" s="209"/>
     </row>
     <row r="41" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
       <c r="B41" s="116" t="s">
@@ -10939,11 +10936,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="B22:H22"/>
     <mergeCell ref="A38:H38"/>
     <mergeCell ref="A40:H40"/>
     <mergeCell ref="B23:H23"/>
@@ -10951,6 +10943,11 @@
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="A36:H36"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="B22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10961,117 +10958,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A209" sqref="A209"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I199" sqref="I199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5">
-      <c r="A2" s="185" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8">
+      <c r="A2" s="186" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
-      <c r="I3" s="186"/>
-      <c r="J3" s="186"/>
-      <c r="K3" s="186"/>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="186"/>
-    </row>
-    <row r="5" spans="1:14" ht="18.75">
-      <c r="A5" s="187" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75">
-      <c r="A6" s="188" t="s">
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="187"/>
+      <c r="H4" s="187"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="187"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.399999999999999">
+      <c r="A5" s="188" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="188"/>
+      <c r="C5" s="188"/>
+      <c r="D5" s="188"/>
+      <c r="E5" s="188"/>
+      <c r="F5" s="188"/>
+      <c r="G5" s="188"/>
+      <c r="H5" s="188"/>
+      <c r="I5" s="188"/>
+      <c r="J5" s="188"/>
+      <c r="K5" s="188"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6">
+      <c r="A6" s="189" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
+      <c r="B6" s="189"/>
+      <c r="C6" s="189"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="189" t="s">
+      <c r="H6" s="190" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="189"/>
-      <c r="J6" s="189"/>
-      <c r="K6" s="189"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75">
+      <c r="I6" s="190"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="190"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.6">
       <c r="A7" s="182" t="s">
         <v>28</v>
       </c>
@@ -11082,7 +11079,7 @@
       <c r="F7" s="182"/>
       <c r="G7" s="3"/>
       <c r="H7" s="183" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I7" s="183"/>
       <c r="J7" s="183"/>
@@ -11123,12 +11120,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.5">
+    <row r="9" spans="1:14" ht="27.6">
       <c r="A9" s="18">
         <v>1</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="16"/>
@@ -11143,7 +11140,7 @@
     <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="34">
         <v>1</v>
@@ -11175,7 +11172,7 @@
     <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="18"/>
       <c r="B11" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="34">
         <v>1</v>
@@ -11202,7 +11199,7 @@
     <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="35" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="34">
         <v>1</v>
@@ -11229,7 +11226,7 @@
     <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="34">
         <v>2</v>
@@ -11257,7 +11254,7 @@
     <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C14" s="34">
         <v>2</v>
@@ -11320,12 +11317,12 @@
       <c r="J16" s="40"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:14" ht="28.5">
+    <row r="17" spans="1:14" ht="27.6">
       <c r="A17" s="18">
         <v>2</v>
       </c>
       <c r="B17" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="34"/>
       <c r="D17" s="36"/>
@@ -11710,7 +11707,7 @@
     <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C32" s="34">
         <v>1</v>
@@ -11917,7 +11914,7 @@
       <c r="J40" s="40"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" ht="57">
+    <row r="41" spans="1:14" s="1" customFormat="1" ht="55.2">
       <c r="A41" s="131">
         <v>3</v>
       </c>
@@ -12069,7 +12066,7 @@
       <c r="J47" s="40"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:14" ht="28.5">
+    <row r="48" spans="1:14" ht="27.6">
       <c r="A48" s="18">
         <v>4</v>
       </c>
@@ -12172,7 +12169,7 @@
       <c r="J52" s="40"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:19" ht="42.75">
+    <row r="53" spans="1:19" ht="41.4">
       <c r="A53" s="18">
         <v>5</v>
       </c>
@@ -12311,7 +12308,7 @@
       <c r="J58" s="40"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:19" ht="30.75">
+    <row r="59" spans="1:19" ht="30.6">
       <c r="A59" s="130">
         <v>6</v>
       </c>
@@ -12365,7 +12362,7 @@
     <row r="61" spans="1:19" ht="15" customHeight="1">
       <c r="A61" s="18"/>
       <c r="B61" s="35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C61" s="19">
         <v>1</v>
@@ -12440,7 +12437,7 @@
     <row r="64" spans="1:19" ht="15" customHeight="1">
       <c r="A64" s="18"/>
       <c r="B64" s="35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C64" s="19">
         <v>1</v>
@@ -12502,7 +12499,7 @@
       <c r="J66" s="39"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" ht="15">
       <c r="A67" s="18">
         <v>7</v>
       </c>
@@ -12549,7 +12546,7 @@
     <row r="69" spans="1:11" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="18"/>
       <c r="B69" s="138" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" s="19">
         <v>1</v>
@@ -12601,7 +12598,7 @@
     <row r="71" spans="1:11" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="18"/>
       <c r="B71" s="138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C71" s="19">
         <v>1</v>
@@ -12814,7 +12811,7 @@
     <row r="80" spans="1:11" ht="15" customHeight="1">
       <c r="A80" s="18"/>
       <c r="B80" s="35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C80" s="19">
         <v>4</v>
@@ -12910,7 +12907,7 @@
       </c>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" ht="15">
       <c r="A84" s="18"/>
       <c r="B84" s="86"/>
       <c r="C84" s="19"/>
@@ -12923,7 +12920,7 @@
       <c r="J84" s="39"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:20" ht="39.75">
+    <row r="85" spans="1:20" ht="39">
       <c r="A85" s="18">
         <v>9</v>
       </c>
@@ -12973,15 +12970,15 @@
       <c r="I86" s="38"/>
       <c r="J86" s="38"/>
       <c r="K86" s="171"/>
-      <c r="N86" s="216" t="s">
+      <c r="N86" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="O86" s="216"/>
-      <c r="P86" s="216"/>
-      <c r="Q86" s="216"/>
-      <c r="R86" s="216"/>
-      <c r="S86" s="216"/>
-      <c r="T86" s="216"/>
+      <c r="O86" s="217"/>
+      <c r="P86" s="217"/>
+      <c r="Q86" s="217"/>
+      <c r="R86" s="217"/>
+      <c r="S86" s="217"/>
+      <c r="T86" s="217"/>
     </row>
     <row r="87" spans="1:20" ht="15" customHeight="1">
       <c r="A87" s="18"/>
@@ -13607,7 +13604,7 @@
     <row r="112" spans="1:22" ht="15" customHeight="1">
       <c r="A112" s="130"/>
       <c r="B112" s="132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C112" s="147">
         <v>2</v>
@@ -13900,7 +13897,7 @@
     <row r="121" spans="1:22" ht="15" customHeight="1">
       <c r="A121" s="18"/>
       <c r="B121" s="35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C121" s="34">
         <v>1</v>
@@ -13991,7 +13988,7 @@
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
     </row>
-    <row r="125" spans="1:22" ht="30.75">
+    <row r="125" spans="1:22" ht="30.6">
       <c r="A125" s="18">
         <v>13</v>
       </c>
@@ -14070,7 +14067,7 @@
       <c r="U126" s="1"/>
       <c r="V126" s="1"/>
     </row>
-    <row r="127" spans="1:22" s="1" customFormat="1" ht="30">
+    <row r="127" spans="1:22" s="1" customFormat="1" ht="27.6">
       <c r="A127" s="118"/>
       <c r="B127" s="123" t="s">
         <v>122</v>
@@ -14150,7 +14147,7 @@
     <row r="130" spans="1:22" s="1" customFormat="1">
       <c r="A130" s="118"/>
       <c r="B130" s="170" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C130" s="120">
         <v>4</v>
@@ -14199,7 +14196,7 @@
       <c r="J131" s="121"/>
       <c r="K131" s="119"/>
     </row>
-    <row r="132" spans="1:22" s="1" customFormat="1" ht="45">
+    <row r="132" spans="1:22" s="1" customFormat="1" ht="41.4">
       <c r="A132" s="118"/>
       <c r="B132" s="123" t="s">
         <v>123</v>
@@ -14306,10 +14303,10 @@
       <c r="J135" s="121"/>
       <c r="K135" s="119"/>
     </row>
-    <row r="136" spans="1:22" s="1" customFormat="1" ht="30">
+    <row r="136" spans="1:22" s="1" customFormat="1" ht="27.6">
       <c r="A136" s="118"/>
       <c r="B136" s="123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C136" s="120">
         <f>1*2</f>
@@ -14366,7 +14363,7 @@
     <row r="138" spans="1:22" s="1" customFormat="1">
       <c r="A138" s="118"/>
       <c r="B138" s="123" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C138" s="120">
         <v>274</v>
@@ -14395,10 +14392,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="139" spans="1:22" s="1" customFormat="1" ht="30">
+    <row r="139" spans="1:22" s="1" customFormat="1" ht="27.6">
       <c r="A139" s="118"/>
       <c r="B139" s="123" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C139" s="120">
         <f>1</f>
@@ -14837,7 +14834,7 @@
     <row r="157" spans="1:11" ht="15" customHeight="1">
       <c r="A157" s="18"/>
       <c r="B157" s="123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C157" s="34">
         <v>2</v>
@@ -14863,7 +14860,7 @@
     <row r="158" spans="1:11" ht="15" customHeight="1">
       <c r="A158" s="18"/>
       <c r="B158" s="35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C158" s="34">
         <v>2</v>
@@ -15215,7 +15212,7 @@
     <row r="173" spans="1:22" ht="15" customHeight="1">
       <c r="A173" s="18"/>
       <c r="B173" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C173" s="34">
         <v>-1</v>
@@ -15261,7 +15258,7 @@
       </c>
       <c r="K174" s="171"/>
     </row>
-    <row r="175" spans="1:22" s="1" customFormat="1" ht="18">
+    <row r="175" spans="1:22" s="1" customFormat="1" ht="17.399999999999999">
       <c r="A175" s="18"/>
       <c r="B175" s="123" t="s">
         <v>126</v>
@@ -15278,19 +15275,19 @@
         <v>1922.4312945044503</v>
       </c>
       <c r="K175" s="21"/>
-      <c r="N175" s="215" t="s">
-        <v>135</v>
-      </c>
-      <c r="O175" s="215"/>
-      <c r="P175" s="215"/>
-      <c r="Q175" s="215"/>
-      <c r="R175" s="215"/>
-      <c r="S175" s="215"/>
-      <c r="T175" s="215"/>
+      <c r="N175" s="218" t="s">
+        <v>134</v>
+      </c>
+      <c r="O175" s="218"/>
+      <c r="P175" s="218"/>
+      <c r="Q175" s="218"/>
+      <c r="R175" s="218"/>
+      <c r="S175" s="218"/>
+      <c r="T175" s="218"/>
       <c r="U175"/>
       <c r="V175"/>
     </row>
-    <row r="176" spans="1:22" s="1" customFormat="1" ht="18">
+    <row r="176" spans="1:22" s="1" customFormat="1" ht="17.399999999999999">
       <c r="A176" s="18"/>
       <c r="B176" s="123"/>
       <c r="C176" s="19"/>
@@ -15302,19 +15299,19 @@
       <c r="I176" s="23"/>
       <c r="J176" s="121"/>
       <c r="K176" s="21"/>
-      <c r="N176" s="215" t="s">
-        <v>136</v>
-      </c>
-      <c r="O176" s="215"/>
-      <c r="P176" s="215"/>
-      <c r="Q176" s="215"/>
-      <c r="R176" s="215"/>
-      <c r="S176" s="215"/>
-      <c r="T176" s="215"/>
+      <c r="N176" s="218" t="s">
+        <v>135</v>
+      </c>
+      <c r="O176" s="218"/>
+      <c r="P176" s="218"/>
+      <c r="Q176" s="218"/>
+      <c r="R176" s="218"/>
+      <c r="S176" s="218"/>
+      <c r="T176" s="218"/>
       <c r="U176"/>
       <c r="V176"/>
     </row>
-    <row r="177" spans="1:22" ht="30.75">
+    <row r="177" spans="1:22" ht="30.6">
       <c r="A177" s="18">
         <v>15</v>
       </c>
@@ -15334,7 +15331,7 @@
     <row r="178" spans="1:22" ht="15" customHeight="1">
       <c r="A178" s="18"/>
       <c r="B178" s="35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C178" s="19">
         <v>1</v>
@@ -15430,12 +15427,12 @@
       <c r="J182" s="39"/>
       <c r="K182" s="21"/>
     </row>
-    <row r="183" spans="1:22" s="1" customFormat="1" ht="48">
+    <row r="183" spans="1:22" s="1" customFormat="1" ht="46.2">
       <c r="A183" s="18">
         <v>16</v>
       </c>
       <c r="B183" s="127" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C183" s="127"/>
       <c r="D183" s="20"/>
@@ -15485,7 +15482,7 @@
     <row r="185" spans="1:22" ht="15" customHeight="1">
       <c r="A185" s="18"/>
       <c r="B185" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C185" s="19">
         <v>1</v>
@@ -15591,7 +15588,7 @@
       <c r="J189" s="39"/>
       <c r="K189" s="21"/>
     </row>
-    <row r="190" spans="1:22" s="159" customFormat="1" ht="15.75">
+    <row r="190" spans="1:22" s="159" customFormat="1" ht="15.6">
       <c r="A190" s="152">
         <v>17</v>
       </c>
@@ -15757,7 +15754,7 @@
         <v>14.925000000000001</v>
       </c>
       <c r="H196" s="165" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="I196" s="165">
         <f>35*10.7639</f>
@@ -15800,12 +15797,12 @@
       <c r="J198" s="151"/>
       <c r="K198" s="147"/>
     </row>
-    <row r="199" spans="1:22" s="160" customFormat="1" ht="42.75">
+    <row r="199" spans="1:22" s="160" customFormat="1" ht="41.4">
       <c r="A199" s="130">
         <v>18</v>
       </c>
       <c r="B199" s="166" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C199" s="147"/>
       <c r="D199" s="148"/>
@@ -15830,7 +15827,7 @@
     <row r="200" spans="1:22" s="160" customFormat="1" ht="15" customHeight="1">
       <c r="A200" s="149"/>
       <c r="B200" s="132" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C200" s="133">
         <v>1</v>
@@ -15924,7 +15921,7 @@
     <row r="203" spans="1:22" s="160" customFormat="1" ht="15" customHeight="1">
       <c r="A203" s="149"/>
       <c r="B203" s="132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C203" s="133">
         <v>1</v>
@@ -15965,7 +15962,7 @@
         <v>58.088000000000008</v>
       </c>
       <c r="H204" s="165" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="I204" s="165">
         <v>9.1999999999999993</v>
@@ -16009,12 +16006,12 @@
       <c r="U205" s="167"/>
       <c r="V205" s="167"/>
     </row>
-    <row r="206" spans="1:22" ht="30">
+    <row r="206" spans="1:22">
       <c r="A206" s="18">
         <v>19</v>
       </c>
       <c r="B206" s="128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C206" s="19">
         <v>1</v>
@@ -16187,13 +16184,13 @@
     <row r="212" spans="1:22" s="1" customFormat="1">
       <c r="A212" s="45"/>
       <c r="B212" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="C212" s="181">
+        <v>153</v>
+      </c>
+      <c r="C212" s="184">
         <f>J210</f>
         <v>559505.71356778976</v>
       </c>
-      <c r="D212" s="181"/>
+      <c r="D212" s="184"/>
       <c r="E212" s="37">
         <v>100</v>
       </c>
@@ -16219,10 +16216,10 @@
       <c r="B213" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C213" s="180">
+      <c r="C213" s="191">
         <v>500000</v>
       </c>
-      <c r="D213" s="180"/>
+      <c r="D213" s="191"/>
       <c r="E213" s="37"/>
       <c r="F213" s="44"/>
       <c r="G213" s="43"/>
@@ -16246,11 +16243,11 @@
       <c r="B214" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C214" s="180">
+      <c r="C214" s="191">
         <f>C213-C216-C217</f>
         <v>475000</v>
       </c>
-      <c r="D214" s="180"/>
+      <c r="D214" s="191"/>
       <c r="E214" s="37">
         <f>C214/C212*100</f>
         <v>84.896362714703358</v>
@@ -16277,11 +16274,11 @@
       <c r="B215" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C215" s="181">
+      <c r="C215" s="184">
         <f>C212-C214</f>
         <v>84505.71356778976</v>
       </c>
-      <c r="D215" s="181"/>
+      <c r="D215" s="184"/>
       <c r="E215" s="37">
         <f>100-E214</f>
         <v>15.103637285296642</v>
@@ -16308,11 +16305,11 @@
       <c r="B216" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C216" s="181">
+      <c r="C216" s="184">
         <f>C213*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D216" s="181"/>
+      <c r="D216" s="184"/>
       <c r="E216" s="37">
         <v>3</v>
       </c>
@@ -16338,11 +16335,11 @@
       <c r="B217" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C217" s="181">
+      <c r="C217" s="184">
         <f>C213*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D217" s="181"/>
+      <c r="D217" s="184"/>
       <c r="E217" s="37">
         <v>2</v>
       </c>
@@ -16621,6 +16618,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="N176:T176"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="N86:T86"/>
@@ -16632,13 +16636,6 @@
     <mergeCell ref="A5:K5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="N176:T176"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B143" r:id="rId1"/>

--- a/ofc/estimates/परोपकार भवन मर्मत/changed estimate.xlsx
+++ b/ofc/estimates/परोपकार भवन मर्मत/changed estimate.xlsx
@@ -2,29 +2,30 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\परोपकार भवन मर्मत\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\परोपकार भवन मर्मत\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="estimate" sheetId="24" r:id="rId1"/>
     <sheet name="WCR" sheetId="6" r:id="rId2"/>
     <sheet name="rate analysis" sheetId="18" r:id="rId3"/>
     <sheet name="V" sheetId="23" r:id="rId4"/>
+    <sheet name="measurement" sheetId="25" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="_cgi24">'[1]update Rate'!$N$95</definedName>
@@ -32,6 +33,7 @@
     <definedName name="adopted_rate_diesel">'[2]Material rate'!$L$33</definedName>
     <definedName name="awood">'[1]update Rate'!$N$53</definedName>
     <definedName name="bmarble" localSheetId="0">'[1]update Rate'!#REF!</definedName>
+    <definedName name="bmarble" localSheetId="4">'[1]update Rate'!#REF!</definedName>
     <definedName name="bmarble" localSheetId="2">'[1]update Rate'!#REF!</definedName>
     <definedName name="bmarble" localSheetId="3">'[1]update Rate'!#REF!</definedName>
     <definedName name="bmarble">'[1]update Rate'!#REF!</definedName>
@@ -40,6 +42,7 @@
     <definedName name="cheskini300">'[1]update Rate'!$N$66</definedName>
     <definedName name="description_103">[3]Abstract!$B$16</definedName>
     <definedName name="description_124" localSheetId="0">#REF!</definedName>
+    <definedName name="description_124" localSheetId="4">#REF!</definedName>
     <definedName name="description_124" localSheetId="3">#REF!</definedName>
     <definedName name="description_124">#REF!</definedName>
     <definedName name="description_247">[3]Abstract!$B$22</definedName>
@@ -67,6 +70,7 @@
     <definedName name="Jwarling">'[1]update Rate'!$N$94</definedName>
     <definedName name="Jwood">'[1]update Rate'!$N$55</definedName>
     <definedName name="jyami" localSheetId="0">'[1]update Rate'!#REF!,'[1]update Rate'!#REF!,'[1]update Rate'!#REF!,'[1]update Rate'!#REF!,'[1]update Rate'!#REF!</definedName>
+    <definedName name="jyami" localSheetId="4">'[1]update Rate'!#REF!,'[1]update Rate'!#REF!,'[1]update Rate'!#REF!,'[1]update Rate'!#REF!,'[1]update Rate'!#REF!</definedName>
     <definedName name="jyami" localSheetId="2">'[1]update Rate'!#REF!,'[1]update Rate'!#REF!,'[1]update Rate'!#REF!,'[1]update Rate'!#REF!,'[1]update Rate'!#REF!</definedName>
     <definedName name="jyami" localSheetId="3">'[1]update Rate'!#REF!,'[1]update Rate'!#REF!,'[1]update Rate'!#REF!,'[1]update Rate'!#REF!,'[1]update Rate'!#REF!</definedName>
     <definedName name="jyami">'[1]update Rate'!#REF!,'[1]update Rate'!#REF!,'[1]update Rate'!#REF!,'[1]update Rate'!#REF!,'[1]update Rate'!#REF!</definedName>
@@ -74,6 +78,7 @@
     <definedName name="kabja75">'[1]update Rate'!$N$63</definedName>
     <definedName name="kila">'[1]update Rate'!$N$58</definedName>
     <definedName name="Labour" localSheetId="0">'[1]Update Descrip'!$F$7,'[1]Update Descrip'!#REF!,'[1]Update Descrip'!$F$28,'[1]Update Descrip'!$F$40,'[1]Update Descrip'!$F$49,'[1]Update Descrip'!$F$61,'[1]Update Descrip'!#REF!,'[1]Update Descrip'!$F$117,'[1]Update Descrip'!$F$129,'[1]Update Descrip'!$F$141</definedName>
+    <definedName name="Labour" localSheetId="4">'[1]Update Descrip'!$F$7,'[1]Update Descrip'!#REF!,'[1]Update Descrip'!$F$28,'[1]Update Descrip'!$F$40,'[1]Update Descrip'!$F$49,'[1]Update Descrip'!$F$61,'[1]Update Descrip'!#REF!,'[1]Update Descrip'!$F$117,'[1]Update Descrip'!$F$129,'[1]Update Descrip'!$F$141</definedName>
     <definedName name="Labour" localSheetId="2">'[1]Update Descrip'!$F$7,'[1]Update Descrip'!#REF!,'[1]Update Descrip'!$F$28,'[1]Update Descrip'!$F$40,'[1]Update Descrip'!$F$49,'[1]Update Descrip'!$F$61,'[1]Update Descrip'!#REF!,'[1]Update Descrip'!$F$117,'[1]Update Descrip'!$F$129,'[1]Update Descrip'!$F$141</definedName>
     <definedName name="Labour" localSheetId="3">'[1]Update Descrip'!$F$7,'[1]Update Descrip'!#REF!,'[1]Update Descrip'!$F$28,'[1]Update Descrip'!$F$40,'[1]Update Descrip'!$F$49,'[1]Update Descrip'!$F$61,'[1]Update Descrip'!#REF!,'[1]Update Descrip'!$F$117,'[1]Update Descrip'!$F$129,'[1]Update Descrip'!$F$141</definedName>
     <definedName name="Labour">'[1]Update Descrip'!$F$7,'[1]Update Descrip'!#REF!,'[1]Update Descrip'!$F$28,'[1]Update Descrip'!$F$40,'[1]Update Descrip'!$F$49,'[1]Update Descrip'!$F$61,'[1]Update Descrip'!#REF!,'[1]Update Descrip'!$F$117,'[1]Update Descrip'!$F$129,'[1]Update Descrip'!$F$141</definedName>
@@ -82,23 +87,29 @@
     <definedName name="mason">'[1]update Rate'!$N$6</definedName>
     <definedName name="moluck">'[1]update Rate'!$N$68</definedName>
     <definedName name="nutbolt" localSheetId="0">'[1]update Rate'!#REF!</definedName>
+    <definedName name="nutbolt" localSheetId="4">'[1]update Rate'!#REF!</definedName>
     <definedName name="nutbolt" localSheetId="2">'[1]update Rate'!#REF!</definedName>
     <definedName name="nutbolt" localSheetId="3">'[1]update Rate'!#REF!</definedName>
     <definedName name="nutbolt">'[1]update Rate'!#REF!</definedName>
     <definedName name="nutbolt8" localSheetId="0">'[1]update Rate'!#REF!</definedName>
+    <definedName name="nutbolt8" localSheetId="4">'[1]update Rate'!#REF!</definedName>
     <definedName name="nutbolt8" localSheetId="2">'[1]update Rate'!#REF!</definedName>
     <definedName name="nutbolt8" localSheetId="3">'[1]update Rate'!#REF!</definedName>
     <definedName name="nutbolt8">'[1]update Rate'!#REF!</definedName>
     <definedName name="pkila">'[1]update Rate'!$N$60</definedName>
     <definedName name="Planst" localSheetId="0">'[1]update Rate'!#REF!</definedName>
+    <definedName name="Planst" localSheetId="4">'[1]update Rate'!#REF!</definedName>
     <definedName name="Planst" localSheetId="2">'[1]update Rate'!#REF!</definedName>
     <definedName name="Planst" localSheetId="3">'[1]update Rate'!#REF!</definedName>
     <definedName name="Planst">'[1]update Rate'!#REF!</definedName>
     <definedName name="plywood4">'[1]update Rate'!$N$69</definedName>
     <definedName name="plywood6">'[1]update Rate'!$N$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">estimate!$A$1:$K$217</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">measurement!$A$1:$K$217</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">V!$A$1:$K$217</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">WCR!$A$1:$K$67</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">estimate!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">measurement!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">V!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
     <definedName name="shandle">'[1]update Rate'!$N$92</definedName>
@@ -106,17 +117,19 @@
     <definedName name="Swood">'[1]update Rate'!$N$56</definedName>
     <definedName name="Tikply4">'[1]update Rate'!$N$83</definedName>
     <definedName name="tikwood4" localSheetId="0">'[1]update Rate'!#REF!</definedName>
+    <definedName name="tikwood4" localSheetId="4">'[1]update Rate'!#REF!</definedName>
     <definedName name="tikwood4" localSheetId="2">'[1]update Rate'!#REF!</definedName>
     <definedName name="tikwood4" localSheetId="3">'[1]update Rate'!#REF!</definedName>
     <definedName name="tikwood4">'[1]update Rate'!#REF!</definedName>
     <definedName name="torsteel" localSheetId="0">'[1]update Rate'!#REF!</definedName>
+    <definedName name="torsteel" localSheetId="4">'[1]update Rate'!#REF!</definedName>
     <definedName name="torsteel" localSheetId="2">'[1]update Rate'!#REF!</definedName>
     <definedName name="torsteel" localSheetId="3">'[1]update Rate'!#REF!</definedName>
     <definedName name="torsteel">'[1]update Rate'!#REF!</definedName>
     <definedName name="Ttile">'[1]update Rate'!$N$43</definedName>
     <definedName name="unskilled">'[2]Material rate'!$D$154</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -379,8 +392,131 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Windows User</author>
+    <author>DELL</author>
+  </authors>
+  <commentList>
+    <comment ref="B136" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+by measurement in field by weight balance</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E138" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+weight by measurement in field</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B159" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 section</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G186" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+Quantity=sqrt(s(s-a)(s-b)(s-c))</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D201" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">
+at roof</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="203">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -1123,15 +1259,18 @@
   <si>
     <t>difference</t>
   </si>
+  <si>
+    <t>Detail Quantity Measurement Sheet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -1521,10 +1660,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1532,7 +1671,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1552,14 +1691,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1568,7 +1707,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1592,7 +1731,7 @@
     <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1627,7 +1766,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1642,7 +1781,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1658,7 +1797,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1694,7 +1833,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -1732,7 +1871,7 @@
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1819,7 +1958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1858,7 +1997,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="41" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1907,7 +2046,7 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="40" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1942,7 +2081,7 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1960,9 +2099,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1991,7 +2141,7 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3065,132 +3215,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H205" sqref="H205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="191" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-    </row>
-    <row r="5" spans="1:11" ht="17.399999999999999">
-      <c r="A5" s="188" t="s">
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75">
+      <c r="A5" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="188"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
-      <c r="K5" s="188"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6">
-      <c r="A6" s="189" t="s">
+      <c r="B5" s="193"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
+      <c r="K5" s="193"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="190" t="s">
+      <c r="H6" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
-      <c r="K6" s="190"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6">
-      <c r="A7" s="182" t="s">
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="A7" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="183" t="s">
+      <c r="H7" s="188" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="188"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -3227,7 +3377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="27.6">
+    <row r="9" spans="1:11" ht="28.5">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -3420,7 +3570,7 @@
       <c r="J16" s="40"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" ht="27.6">
+    <row r="17" spans="1:11" ht="28.5">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -4013,7 +4163,7 @@
       <c r="J40" s="40"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" s="1" customFormat="1" ht="55.2">
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="57">
       <c r="A41" s="131">
         <v>3</v>
       </c>
@@ -4160,7 +4310,7 @@
       <c r="J47" s="40"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:11" ht="27.6">
+    <row r="48" spans="1:11" ht="28.5">
       <c r="A48" s="18">
         <v>4</v>
       </c>
@@ -4259,7 +4409,7 @@
       <c r="J52" s="40"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:14" ht="41.4">
+    <row r="53" spans="1:14" ht="42.75">
       <c r="A53" s="18">
         <v>5</v>
       </c>
@@ -4398,7 +4548,7 @@
       <c r="J58" s="40"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:14" ht="30.6">
+    <row r="59" spans="1:14" ht="30.75">
       <c r="A59" s="130">
         <v>6</v>
       </c>
@@ -4582,7 +4732,7 @@
       <c r="J66" s="39"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" ht="15">
+    <row r="67" spans="1:11">
       <c r="A67" s="18">
         <v>7</v>
       </c>
@@ -4990,7 +5140,7 @@
       </c>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" ht="15">
+    <row r="84" spans="1:11">
       <c r="A84" s="18"/>
       <c r="B84" s="86"/>
       <c r="C84" s="19"/>
@@ -5003,7 +5153,7 @@
       <c r="J84" s="39"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" ht="39">
+    <row r="85" spans="1:11" ht="39.75">
       <c r="A85" s="18">
         <v>9</v>
       </c>
@@ -5919,7 +6069,7 @@
       <c r="J124" s="40"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" ht="30.6">
+    <row r="125" spans="1:11" ht="30.75">
       <c r="A125" s="18">
         <v>13</v>
       </c>
@@ -5975,7 +6125,7 @@
       <c r="J126" s="121"/>
       <c r="K126" s="119"/>
     </row>
-    <row r="127" spans="1:11" s="1" customFormat="1" ht="27.6">
+    <row r="127" spans="1:11" s="1" customFormat="1" ht="30">
       <c r="A127" s="118"/>
       <c r="B127" s="123" t="s">
         <v>122</v>
@@ -6104,7 +6254,7 @@
       <c r="J131" s="121"/>
       <c r="K131" s="119"/>
     </row>
-    <row r="132" spans="1:11" s="1" customFormat="1" ht="41.4">
+    <row r="132" spans="1:11" s="1" customFormat="1" ht="45">
       <c r="A132" s="118"/>
       <c r="B132" s="123" t="s">
         <v>123</v>
@@ -6211,7 +6361,7 @@
       <c r="J135" s="121"/>
       <c r="K135" s="119"/>
     </row>
-    <row r="136" spans="1:11" s="1" customFormat="1" ht="27.6">
+    <row r="136" spans="1:11" s="1" customFormat="1" ht="30">
       <c r="A136" s="118"/>
       <c r="B136" s="123" t="s">
         <v>157</v>
@@ -6296,7 +6446,7 @@
       <c r="J138" s="121"/>
       <c r="K138" s="119"/>
     </row>
-    <row r="139" spans="1:11" s="1" customFormat="1" ht="27.6">
+    <row r="139" spans="1:11" s="1" customFormat="1" ht="30">
       <c r="A139" s="118"/>
       <c r="B139" s="123" t="s">
         <v>155</v>
@@ -7169,7 +7319,7 @@
       <c r="J176" s="121"/>
       <c r="K176" s="21"/>
     </row>
-    <row r="177" spans="1:13" ht="30.6">
+    <row r="177" spans="1:13" ht="30.75">
       <c r="A177" s="18">
         <v>15</v>
       </c>
@@ -7285,7 +7435,7 @@
       <c r="J182" s="39"/>
       <c r="K182" s="21"/>
     </row>
-    <row r="183" spans="1:13" s="1" customFormat="1" ht="46.2">
+    <row r="183" spans="1:13" s="1" customFormat="1" ht="48">
       <c r="A183" s="18">
         <v>16</v>
       </c>
@@ -7436,7 +7586,7 @@
       <c r="J189" s="39"/>
       <c r="K189" s="21"/>
     </row>
-    <row r="190" spans="1:13" s="159" customFormat="1" ht="15.6">
+    <row r="190" spans="1:13" s="159" customFormat="1" ht="15.75">
       <c r="A190" s="152">
         <v>17</v>
       </c>
@@ -7625,7 +7775,7 @@
       <c r="J198" s="151"/>
       <c r="K198" s="147"/>
     </row>
-    <row r="199" spans="1:11" s="160" customFormat="1" ht="41.4">
+    <row r="199" spans="1:11" s="160" customFormat="1" ht="42.75">
       <c r="A199" s="130">
         <v>18</v>
       </c>
@@ -7774,7 +7924,7 @@
       <c r="J205" s="32"/>
       <c r="K205" s="21"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" ht="30">
       <c r="A206" s="18">
         <v>19</v>
       </c>
@@ -7894,11 +8044,11 @@
       <c r="B212" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C212" s="184">
+      <c r="C212" s="189">
         <f>J210</f>
         <v>558876.5613253098</v>
       </c>
-      <c r="D212" s="184"/>
+      <c r="D212" s="189"/>
       <c r="E212" s="37">
         <v>100</v>
       </c>
@@ -7914,10 +8064,10 @@
       <c r="B213" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C213" s="191">
+      <c r="C213" s="196">
         <v>500000</v>
       </c>
-      <c r="D213" s="191"/>
+      <c r="D213" s="196"/>
       <c r="E213" s="37"/>
       <c r="F213" s="44"/>
       <c r="G213" s="43"/>
@@ -7931,11 +8081,11 @@
       <c r="B214" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C214" s="191">
+      <c r="C214" s="196">
         <f>C213-C216-C217</f>
         <v>475000</v>
       </c>
-      <c r="D214" s="191"/>
+      <c r="D214" s="196"/>
       <c r="E214" s="37">
         <f>C214/C212*100</f>
         <v>84.991934332259987</v>
@@ -7952,11 +8102,11 @@
       <c r="B215" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C215" s="184">
+      <c r="C215" s="189">
         <f>C212-C214</f>
         <v>83876.561325309798</v>
       </c>
-      <c r="D215" s="184"/>
+      <c r="D215" s="189"/>
       <c r="E215" s="37">
         <f>100-E214</f>
         <v>15.008065667740013</v>
@@ -7973,11 +8123,11 @@
       <c r="B216" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C216" s="184">
+      <c r="C216" s="189">
         <f>C213*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D216" s="184"/>
+      <c r="D216" s="189"/>
       <c r="E216" s="37">
         <v>3</v>
       </c>
@@ -7993,11 +8143,11 @@
       <c r="B217" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C217" s="184">
+      <c r="C217" s="189">
         <f>C213*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D217" s="184"/>
+      <c r="D217" s="189"/>
       <c r="E217" s="37">
         <v>2</v>
       </c>
@@ -8114,116 +8264,116 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:K9"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" style="174" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.5546875" customWidth="1"/>
-    <col min="16" max="16" width="9.5546875" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" style="174" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="194" t="s">
+      <c r="A1" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-    </row>
-    <row r="2" spans="1:14" ht="24.6">
-      <c r="A2" s="195" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+    </row>
+    <row r="2" spans="1:14" ht="25.5">
+      <c r="A2" s="200" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
       <c r="N3" s="176"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
       <c r="N4" s="176"/>
     </row>
-    <row r="5" spans="1:14" ht="18">
-      <c r="A5" s="196" t="s">
+    <row r="5" spans="1:14" ht="18.75">
+      <c r="A5" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="196"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="196"/>
-      <c r="H5" s="196"/>
-      <c r="I5" s="196"/>
-      <c r="J5" s="196"/>
-      <c r="K5" s="196"/>
-    </row>
-    <row r="6" spans="1:14" ht="18">
+      <c r="B5" s="201"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="201"/>
+      <c r="K5" s="201"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.75">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="192">
+      <c r="C6" s="197">
         <f>F67</f>
         <v>558876.5613253098</v>
       </c>
-      <c r="D6" s="193"/>
+      <c r="D6" s="198"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -8231,11 +8381,11 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="192">
+      <c r="J6" s="197">
         <f>I67</f>
         <v>559505.71356778976</v>
       </c>
-      <c r="K6" s="193"/>
+      <c r="K6" s="198"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="25" t="s">
@@ -8244,77 +8394,77 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="199"/>
-      <c r="I7" s="200" t="s">
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="I7" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="200"/>
-      <c r="K7" s="200"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.6">
-      <c r="A8" s="189" t="str">
+      <c r="J7" s="205"/>
+      <c r="K7" s="205"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75">
+      <c r="A8" s="194" t="str">
         <f>estimate!A6</f>
         <v>Project:- परोपकार भवन मर्मत</v>
       </c>
-      <c r="B8" s="189"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="I8" s="201" t="s">
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="I8" s="206" t="s">
         <v>170</v>
       </c>
-      <c r="J8" s="201"/>
-      <c r="K8" s="201"/>
+      <c r="J8" s="206"/>
+      <c r="K8" s="206"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="202" t="str">
+      <c r="A9" s="207" t="str">
         <f>estimate!A7</f>
         <v>Location:- Shankharapur Municipality 9</v>
       </c>
-      <c r="B9" s="202"/>
-      <c r="C9" s="202"/>
-      <c r="D9" s="202"/>
-      <c r="E9" s="202"/>
-      <c r="F9" s="202"/>
-      <c r="I9" s="201" t="s">
+      <c r="B9" s="207"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="I9" s="206" t="s">
         <v>169</v>
       </c>
-      <c r="J9" s="201"/>
-      <c r="K9" s="201"/>
+      <c r="J9" s="206"/>
+      <c r="K9" s="206"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="197" t="s">
+      <c r="B11" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="197" t="s">
+      <c r="C11" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="203" t="s">
+      <c r="D11" s="208" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="203"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203" t="s">
+      <c r="E11" s="208"/>
+      <c r="F11" s="208"/>
+      <c r="G11" s="208" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="203"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="197" t="s">
+      <c r="H11" s="208"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="202" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="198" t="s">
+      <c r="K11" s="203" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="197"/>
-      <c r="B12" s="197"/>
-      <c r="C12" s="197"/>
+      <c r="A12" s="202"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="202"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -8333,10 +8483,10 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="197"/>
-      <c r="K12" s="198"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="27.6">
+      <c r="J12" s="202"/>
+      <c r="K12" s="203"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="28.5">
       <c r="A13" s="26">
         <f>estimate!A9</f>
         <v>1</v>
@@ -8379,7 +8529,7 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="15.6">
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="15.75">
       <c r="A14" s="26"/>
       <c r="B14" s="31"/>
       <c r="C14" s="12"/>
@@ -8392,7 +8542,7 @@
       <c r="J14" s="27"/>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="27.6">
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="28.5">
       <c r="A15" s="26">
         <f>estimate!A17</f>
         <v>2</v>
@@ -8435,7 +8585,7 @@
       </c>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="15.6">
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="15.75">
       <c r="A16" s="26"/>
       <c r="B16" s="172" t="str">
         <f>estimate!B39</f>
@@ -8460,7 +8610,7 @@
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A17" s="26"/>
       <c r="B17" s="31"/>
       <c r="C17" s="12"/>
@@ -8473,7 +8623,7 @@
       <c r="J17" s="27"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="41.4">
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="57">
       <c r="A18" s="26">
         <f>estimate!A41</f>
         <v>3</v>
@@ -8520,7 +8670,7 @@
         <v>54238.494209999997</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A19" s="26"/>
       <c r="B19" s="172" t="str">
         <f>estimate!B46</f>
@@ -8545,7 +8695,7 @@
       </c>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A20" s="26"/>
       <c r="B20" s="31"/>
       <c r="C20" s="12"/>
@@ -8558,7 +8708,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="27.6">
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="28.5">
       <c r="A21" s="26">
         <f>estimate!A48</f>
         <v>4</v>
@@ -8601,7 +8751,7 @@
       </c>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A22" s="26"/>
       <c r="B22" s="172" t="str">
         <f>estimate!B51</f>
@@ -8626,7 +8776,7 @@
       </c>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A23" s="26"/>
       <c r="B23" s="31"/>
       <c r="C23" s="12"/>
@@ -8639,7 +8789,7 @@
       <c r="J23" s="27"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="27.6">
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="42.75">
       <c r="A24" s="26">
         <f>estimate!A53</f>
         <v>5</v>
@@ -8686,7 +8836,7 @@
         <v>9997.5447192928987</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="25" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A25" s="26"/>
       <c r="B25" s="31"/>
       <c r="C25" s="12"/>
@@ -8699,7 +8849,7 @@
       <c r="J25" s="27"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="27.6">
+    <row r="26" spans="1:13" s="1" customFormat="1" ht="28.5">
       <c r="A26" s="26">
         <f>estimate!A59</f>
         <v>6</v>
@@ -8742,7 +8892,7 @@
       </c>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="27" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A27" s="26"/>
       <c r="B27" s="31"/>
       <c r="C27" s="12"/>
@@ -8798,7 +8948,7 @@
       </c>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="29" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A29" s="26"/>
       <c r="B29" s="172" t="str">
         <f>estimate!B73</f>
@@ -8823,7 +8973,7 @@
       </c>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="30" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A30" s="26"/>
       <c r="B30" s="31"/>
       <c r="C30" s="12"/>
@@ -8836,7 +8986,7 @@
       <c r="J30" s="27"/>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="27.6">
+    <row r="31" spans="1:13" s="1" customFormat="1" ht="28.5">
       <c r="A31" s="26">
         <f>estimate!A75</f>
         <v>8</v>
@@ -8879,7 +9029,7 @@
       </c>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="15.6">
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A32" s="26"/>
       <c r="B32" s="172" t="str">
         <f>estimate!B83</f>
@@ -8904,7 +9054,7 @@
       </c>
       <c r="K32" s="14"/>
     </row>
-    <row r="33" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A33" s="26"/>
       <c r="B33" s="31"/>
       <c r="C33" s="12"/>
@@ -8917,7 +9067,7 @@
       <c r="J33" s="27"/>
       <c r="K33" s="14"/>
     </row>
-    <row r="34" spans="1:16" s="1" customFormat="1" ht="25.2">
+    <row r="34" spans="1:16" s="1" customFormat="1" ht="28.5">
       <c r="A34" s="26">
         <f>estimate!A85</f>
         <v>9</v>
@@ -8963,7 +9113,7 @@
         <v>9821.2799999999988</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="35" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A35" s="26"/>
       <c r="B35" s="172" t="str">
         <f>estimate!B89</f>
@@ -8988,7 +9138,7 @@
       </c>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="36" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A36" s="26"/>
       <c r="B36" s="31"/>
       <c r="C36" s="12"/>
@@ -9001,7 +9151,7 @@
       <c r="J36" s="27"/>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:16" s="1" customFormat="1" ht="27.6">
+    <row r="37" spans="1:16" s="1" customFormat="1" ht="28.5">
       <c r="A37" s="26">
         <f>estimate!A91</f>
         <v>10</v>
@@ -9044,7 +9194,7 @@
       </c>
       <c r="K37" s="14"/>
     </row>
-    <row r="38" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="38" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A38" s="26"/>
       <c r="B38" s="172" t="str">
         <f>estimate!B101</f>
@@ -9069,7 +9219,7 @@
       </c>
       <c r="K38" s="14"/>
     </row>
-    <row r="39" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="39" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A39" s="26"/>
       <c r="B39" s="31"/>
       <c r="C39" s="12"/>
@@ -9082,7 +9232,7 @@
       <c r="J39" s="27"/>
       <c r="K39" s="14"/>
     </row>
-    <row r="40" spans="1:16" s="1" customFormat="1">
+    <row r="40" spans="1:16" s="1" customFormat="1" ht="28.5">
       <c r="A40" s="26">
         <f>estimate!A103</f>
         <v>11</v>
@@ -9125,7 +9275,7 @@
       </c>
       <c r="K40" s="14"/>
     </row>
-    <row r="41" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="41" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A41" s="26"/>
       <c r="B41" s="172" t="str">
         <f>estimate!B114</f>
@@ -9150,7 +9300,7 @@
       </c>
       <c r="K41" s="14"/>
     </row>
-    <row r="42" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="42" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A42" s="26"/>
       <c r="B42" s="31"/>
       <c r="C42" s="12"/>
@@ -9163,7 +9313,7 @@
       <c r="J42" s="27"/>
       <c r="K42" s="14"/>
     </row>
-    <row r="43" spans="1:16" s="1" customFormat="1" ht="27.6">
+    <row r="43" spans="1:16" s="1" customFormat="1" ht="28.5">
       <c r="A43" s="26">
         <f>estimate!A116</f>
         <v>12</v>
@@ -9206,7 +9356,7 @@
       </c>
       <c r="K43" s="14"/>
     </row>
-    <row r="44" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="44" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A44" s="26"/>
       <c r="B44" s="172" t="str">
         <f>estimate!B123</f>
@@ -9231,7 +9381,7 @@
       </c>
       <c r="K44" s="14"/>
     </row>
-    <row r="45" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="45" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A45" s="26"/>
       <c r="B45" s="31"/>
       <c r="C45" s="12"/>
@@ -9244,7 +9394,7 @@
       <c r="J45" s="27"/>
       <c r="K45" s="14"/>
     </row>
-    <row r="46" spans="1:16" s="1" customFormat="1" ht="27.6">
+    <row r="46" spans="1:16" s="1" customFormat="1" ht="28.5">
       <c r="A46" s="26">
         <f>estimate!A125</f>
         <v>13</v>
@@ -9296,7 +9446,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="47" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A47" s="26"/>
       <c r="B47" s="172" t="str">
         <f>estimate!B141</f>
@@ -9329,7 +9479,7 @@
       </c>
       <c r="P47" s="177"/>
     </row>
-    <row r="48" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="48" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A48" s="26"/>
       <c r="B48" s="31"/>
       <c r="C48" s="12"/>
@@ -9404,7 +9554,7 @@
         <v>6264.4036048355647</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="50" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A50" s="26"/>
       <c r="B50" s="172" t="str">
         <f>estimate!B175</f>
@@ -9440,7 +9590,7 @@
         <v>2383.989285751421</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="51" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A51" s="26"/>
       <c r="B51" s="31"/>
       <c r="C51" s="12"/>
@@ -9464,7 +9614,7 @@
         <v>3174.9774450967147</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="1" customFormat="1" ht="27.6">
+    <row r="52" spans="1:16" s="1" customFormat="1" ht="28.5">
       <c r="A52" s="26">
         <f>estimate!A177</f>
         <v>15</v>
@@ -9518,7 +9668,7 @@
         <v>35.241249667796403</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="53" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A53" s="26"/>
       <c r="B53" s="172" t="str">
         <f>estimate!B181</f>
@@ -9554,7 +9704,7 @@
         <v>5713.1837443200002</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="54" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A54" s="26"/>
       <c r="B54" s="31"/>
       <c r="C54" s="12"/>
@@ -9578,7 +9728,7 @@
         <v>677.07897130328649</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="1" customFormat="1" ht="52.2">
+    <row r="55" spans="1:16" s="1" customFormat="1" ht="54">
       <c r="A55" s="26">
         <f>estimate!A183</f>
         <v>16</v>
@@ -9631,7 +9781,7 @@
         <v>103.84942407129945</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="56" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A56" s="26"/>
       <c r="B56" s="172" t="str">
         <f>estimate!B188</f>
@@ -9667,7 +9817,7 @@
         <v>35.322498613789676</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="57" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A57" s="26"/>
       <c r="B57" s="31"/>
       <c r="C57" s="12"/>
@@ -9745,7 +9895,7 @@
         <v>891.76967320063932</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="59" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A59" s="26"/>
       <c r="B59" s="172" t="str">
         <f>estimate!B197</f>
@@ -9781,7 +9931,7 @@
         <v>30.296936367062887</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="60" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A60" s="26"/>
       <c r="B60" s="31"/>
       <c r="C60" s="12"/>
@@ -9805,7 +9955,7 @@
         <v>404.17481481481491</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="1" customFormat="1" ht="41.4">
+    <row r="61" spans="1:16" s="1" customFormat="1" ht="42.75">
       <c r="A61" s="26">
         <f>estimate!A199</f>
         <v>18</v>
@@ -9859,7 +10009,7 @@
         <v>4.6191407407407423</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="62" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A62" s="26"/>
       <c r="B62" s="31"/>
       <c r="C62" s="12"/>
@@ -9883,7 +10033,7 @@
         <v>99.002056296000035</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="1" customFormat="1" ht="15.6">
+    <row r="63" spans="1:16" s="1" customFormat="1" ht="15.75">
       <c r="A63" s="26">
         <f>estimate!A206</f>
         <v>19</v>
@@ -10175,7 +10325,7 @@
       </c>
       <c r="P75" s="177"/>
     </row>
-    <row r="76" spans="1:16" ht="28.8">
+    <row r="76" spans="1:16" ht="45">
       <c r="N76" s="175" t="s">
         <v>30</v>
       </c>
@@ -10250,25 +10400,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="61"/>
-    <col min="2" max="2" width="11.44140625" style="61" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="61" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="61"/>
-    <col min="6" max="6" width="10.44140625" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="61" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" style="61" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="61"/>
+    <col min="1" max="1" width="8.85546875" style="61"/>
+    <col min="2" max="2" width="11.42578125" style="61" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="61" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" style="61"/>
+    <col min="6" max="6" width="10.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="61" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="61" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="61"/>
     <col min="10" max="10" width="12" style="61" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="61"/>
+    <col min="11" max="16384" width="8.85546875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21">
+    <row r="1" spans="1:10" ht="20.25">
       <c r="A1" s="59" t="e">
         <f>+#REF!+1</f>
         <v>#REF!</v>
@@ -10293,33 +10443,33 @@
       <c r="G2" s="63"/>
       <c r="H2" s="63"/>
     </row>
-    <row r="3" spans="1:10" ht="17.399999999999999">
+    <row r="3" spans="1:10" ht="18">
       <c r="A3" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="204"/>
-      <c r="D3" s="204"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-    </row>
-    <row r="4" spans="1:10" ht="15">
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="65"/>
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="210" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-    </row>
-    <row r="5" spans="1:10" ht="32.4">
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="210"/>
+    </row>
+    <row r="5" spans="1:10" ht="31.5">
       <c r="A5" s="65"/>
       <c r="B5" s="66" t="s">
         <v>50</v>
@@ -10343,9 +10493,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18">
+    <row r="6" spans="1:10" ht="17.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="206" t="s">
+      <c r="B6" s="211" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="66" t="s">
@@ -10366,9 +10516,9 @@
       </c>
       <c r="H6" s="71"/>
     </row>
-    <row r="7" spans="1:10" ht="18">
+    <row r="7" spans="1:10" ht="17.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="207"/>
+      <c r="B7" s="212"/>
       <c r="C7" s="68" t="s">
         <v>60</v>
       </c>
@@ -10390,9 +10540,9 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="43.8">
+    <row r="8" spans="1:10" ht="45">
       <c r="A8" s="65"/>
-      <c r="B8" s="206" t="s">
+      <c r="B8" s="211" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="72" t="s">
@@ -10413,9 +10563,9 @@
       </c>
       <c r="H8" s="71"/>
     </row>
-    <row r="9" spans="1:10" ht="18">
+    <row r="9" spans="1:10" ht="17.25">
       <c r="A9" s="65"/>
-      <c r="B9" s="206"/>
+      <c r="B9" s="211"/>
       <c r="C9" s="68" t="s">
         <v>64</v>
       </c>
@@ -10434,9 +10584,9 @@
       </c>
       <c r="H9" s="74"/>
     </row>
-    <row r="10" spans="1:10" ht="18">
+    <row r="10" spans="1:10" ht="17.25">
       <c r="A10" s="65"/>
-      <c r="B10" s="206"/>
+      <c r="B10" s="211"/>
       <c r="C10" s="68" t="s">
         <v>66</v>
       </c>
@@ -10459,9 +10609,9 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18">
+    <row r="11" spans="1:10" ht="17.25">
       <c r="A11" s="65"/>
-      <c r="B11" s="206"/>
+      <c r="B11" s="211"/>
       <c r="C11" s="68" t="s">
         <v>68</v>
       </c>
@@ -10481,9 +10631,9 @@
       </c>
       <c r="H11" s="74"/>
     </row>
-    <row r="12" spans="1:10" ht="18">
+    <row r="12" spans="1:10" ht="17.25">
       <c r="A12" s="65"/>
-      <c r="B12" s="206"/>
+      <c r="B12" s="211"/>
       <c r="C12" s="68" t="s">
         <v>69</v>
       </c>
@@ -10507,9 +10657,9 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18">
+    <row r="13" spans="1:10" ht="17.25">
       <c r="A13" s="65"/>
-      <c r="B13" s="206"/>
+      <c r="B13" s="211"/>
       <c r="C13" s="68" t="s">
         <v>71</v>
       </c>
@@ -10532,7 +10682,7 @@
         <v>2004.3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18">
+    <row r="14" spans="1:10" ht="17.25">
       <c r="A14" s="65"/>
       <c r="B14" s="65"/>
       <c r="C14" s="65"/>
@@ -10547,7 +10697,7 @@
         <v>5069.3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18">
+    <row r="15" spans="1:10" ht="17.25">
       <c r="B15" s="80" t="s">
         <v>74</v>
       </c>
@@ -10565,7 +10715,7 @@
         <v>647.74333333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18">
+    <row r="16" spans="1:10" ht="17.25">
       <c r="A16" s="81" t="s">
         <v>76</v>
       </c>
@@ -10591,7 +10741,7 @@
         <v>563.25555555555559</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18">
+    <row r="17" spans="1:8" ht="17.25">
       <c r="A17" s="81"/>
       <c r="B17" s="82"/>
       <c r="C17" s="65"/>
@@ -10606,7 +10756,7 @@
         <v>647.74333333333334</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18">
+    <row r="18" spans="1:8" ht="17.25">
       <c r="A18" s="81"/>
       <c r="B18" s="82"/>
       <c r="C18" s="65"/>
@@ -10621,7 +10771,7 @@
         <v>563.25507246376822</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="18">
+    <row r="19" spans="1:8" ht="17.25">
       <c r="A19" s="81"/>
       <c r="B19" s="83" t="s">
         <v>81</v>
@@ -10633,43 +10783,43 @@
       <c r="G19" s="78"/>
       <c r="H19" s="82"/>
     </row>
-    <row r="22" spans="1:8" s="91" customFormat="1" ht="21">
+    <row r="22" spans="1:8" s="91" customFormat="1" ht="20.25">
       <c r="A22" s="90">
         <f>+A9+1</f>
         <v>1</v>
       </c>
-      <c r="B22" s="208"/>
-      <c r="C22" s="208"/>
-      <c r="D22" s="208"/>
-      <c r="E22" s="208"/>
-      <c r="F22" s="208"/>
-      <c r="G22" s="208"/>
-      <c r="H22" s="208"/>
-    </row>
-    <row r="23" spans="1:8" s="91" customFormat="1" ht="19.8">
+      <c r="B22" s="213"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="213"/>
+      <c r="G22" s="213"/>
+      <c r="H22" s="213"/>
+    </row>
+    <row r="23" spans="1:8" s="91" customFormat="1" ht="19.5">
       <c r="A23" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="208" t="s">
+      <c r="B23" s="213" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="208"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="208"/>
-      <c r="G23" s="208"/>
-      <c r="H23" s="208"/>
+      <c r="C23" s="213"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="213"/>
+      <c r="G23" s="213"/>
+      <c r="H23" s="213"/>
     </row>
     <row r="24" spans="1:8" s="91" customFormat="1" ht="15">
-      <c r="B24" s="210" t="s">
+      <c r="B24" s="215" t="s">
         <v>101</v>
       </c>
-      <c r="C24" s="210"/>
-      <c r="D24" s="210"/>
-      <c r="E24" s="210"/>
-      <c r="F24" s="210"/>
-      <c r="G24" s="210"/>
-      <c r="H24" s="210"/>
+      <c r="C24" s="215"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="215"/>
+      <c r="G24" s="215"/>
+      <c r="H24" s="215"/>
     </row>
     <row r="25" spans="1:8" s="91" customFormat="1" ht="30" customHeight="1">
       <c r="B25" s="93" t="s">
@@ -10695,7 +10845,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" s="91" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B26" s="211" t="s">
+      <c r="B26" s="216" t="s">
         <v>57</v>
       </c>
       <c r="C26" s="94" t="s">
@@ -10716,8 +10866,8 @@
       </c>
       <c r="H26" s="99"/>
     </row>
-    <row r="27" spans="1:8" s="91" customFormat="1" ht="18">
-      <c r="B27" s="212"/>
+    <row r="27" spans="1:8" s="91" customFormat="1" ht="17.25">
+      <c r="B27" s="217"/>
       <c r="C27" s="100" t="s">
         <v>60</v>
       </c>
@@ -10739,8 +10889,8 @@
         <v>44714</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="91" customFormat="1" ht="18">
-      <c r="B28" s="213" t="s">
+    <row r="28" spans="1:8" s="91" customFormat="1" ht="17.25">
+      <c r="B28" s="218" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="96" t="s">
@@ -10761,8 +10911,8 @@
       </c>
       <c r="H28" s="99"/>
     </row>
-    <row r="29" spans="1:8" s="91" customFormat="1" ht="18">
-      <c r="B29" s="214"/>
+    <row r="29" spans="1:8" s="91" customFormat="1" ht="17.25">
+      <c r="B29" s="219"/>
       <c r="C29" s="100" t="s">
         <v>104</v>
       </c>
@@ -10782,8 +10932,8 @@
       </c>
       <c r="H29" s="104"/>
     </row>
-    <row r="30" spans="1:8" s="91" customFormat="1" ht="27.6">
-      <c r="B30" s="214"/>
+    <row r="30" spans="1:8" s="91" customFormat="1" ht="27.75">
+      <c r="B30" s="219"/>
       <c r="C30" s="107" t="s">
         <v>115</v>
       </c>
@@ -10803,8 +10953,8 @@
       </c>
       <c r="H30" s="104"/>
     </row>
-    <row r="31" spans="1:8" s="91" customFormat="1" ht="18">
-      <c r="B31" s="215"/>
+    <row r="31" spans="1:8" s="91" customFormat="1" ht="17.25">
+      <c r="B31" s="220"/>
       <c r="C31" s="102" t="s">
         <v>106</v>
       </c>
@@ -10827,7 +10977,7 @@
         <v>36690.270000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="91" customFormat="1" ht="18">
+    <row r="32" spans="1:8" s="91" customFormat="1" ht="17.25">
       <c r="F32" s="111" t="s">
         <v>73</v>
       </c>
@@ -10837,7 +10987,7 @@
         <v>81404.27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="91" customFormat="1" ht="18">
+    <row r="33" spans="1:8" s="91" customFormat="1" ht="17.25">
       <c r="B33" s="91" t="s">
         <v>108</v>
       </c>
@@ -10881,16 +11031,16 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A36" s="216" t="s">
+      <c r="A36" s="221" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="216"/>
-      <c r="C36" s="216"/>
-      <c r="D36" s="216"/>
-      <c r="E36" s="216"/>
-      <c r="F36" s="216"/>
-      <c r="G36" s="216"/>
-      <c r="H36" s="216"/>
+      <c r="B36" s="221"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="221"/>
+      <c r="G36" s="221"/>
+      <c r="H36" s="221"/>
     </row>
     <row r="37" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
       <c r="B37" s="116" t="s">
@@ -10898,16 +11048,16 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A38" s="209" t="s">
+      <c r="A38" s="214" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="209"/>
-      <c r="C38" s="209"/>
-      <c r="D38" s="209"/>
-      <c r="E38" s="209"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="209"/>
-      <c r="H38" s="209"/>
+      <c r="B38" s="214"/>
+      <c r="C38" s="214"/>
+      <c r="D38" s="214"/>
+      <c r="E38" s="214"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
     </row>
     <row r="39" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
       <c r="B39" s="116" t="s">
@@ -10915,16 +11065,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
-      <c r="A40" s="209" t="s">
+      <c r="A40" s="214" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="209"/>
-      <c r="C40" s="209"/>
-      <c r="D40" s="209"/>
-      <c r="E40" s="209"/>
-      <c r="F40" s="209"/>
-      <c r="G40" s="209"/>
-      <c r="H40" s="209"/>
+      <c r="B40" s="214"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="214"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="214"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="214"/>
     </row>
     <row r="41" spans="1:8" s="91" customFormat="1" ht="12" customHeight="1">
       <c r="B41" s="116" t="s">
@@ -10958,132 +11108,133 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I199" sqref="I199"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="190" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.8">
-      <c r="A2" s="186" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="186"/>
-      <c r="J2" s="186"/>
-      <c r="K2" s="186"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="191" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1">
-      <c r="A4" s="187" t="s">
+      <c r="A4" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="187"/>
-      <c r="C4" s="187"/>
-      <c r="D4" s="187"/>
-      <c r="E4" s="187"/>
-      <c r="F4" s="187"/>
-      <c r="G4" s="187"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="187"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.399999999999999">
-      <c r="A5" s="188" t="s">
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75">
+      <c r="A5" s="193" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="188"/>
-      <c r="C5" s="188"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
-      <c r="K5" s="188"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6">
-      <c r="A6" s="189" t="s">
+      <c r="B5" s="193"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
+      <c r="K5" s="193"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75">
+      <c r="A6" s="194" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="189"/>
-      <c r="C6" s="189"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="190" t="s">
+      <c r="H6" s="195" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
-      <c r="K6" s="190"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6">
-      <c r="A7" s="182" t="s">
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75">
+      <c r="A7" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="182"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="183" t="s">
+      <c r="H7" s="188" t="s">
         <v>168</v>
       </c>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="188"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -11120,7 +11271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="27.6">
+    <row r="9" spans="1:14" ht="28.5">
       <c r="A9" s="18">
         <v>1</v>
       </c>
@@ -11317,7 +11468,7 @@
       <c r="J16" s="40"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:14" ht="27.6">
+    <row r="17" spans="1:14" ht="28.5">
       <c r="A17" s="18">
         <v>2</v>
       </c>
@@ -11914,7 +12065,7 @@
       <c r="J40" s="40"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" ht="55.2">
+    <row r="41" spans="1:14" s="1" customFormat="1" ht="57">
       <c r="A41" s="131">
         <v>3</v>
       </c>
@@ -11939,11 +12090,11 @@
       <c r="C42" s="34">
         <v>1</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="5">
         <f>4.5+3.12</f>
         <v>7.62</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="5">
         <v>3.5</v>
       </c>
       <c r="F42" s="36"/>
@@ -11966,11 +12117,11 @@
       <c r="C43" s="34">
         <v>1</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="5">
         <f>4.7+1.05</f>
         <v>5.75</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="5">
         <v>2.38</v>
       </c>
       <c r="F43" s="36"/>
@@ -11993,11 +12144,11 @@
       <c r="C44" s="34">
         <v>1</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="5">
         <f>4+1.77</f>
         <v>5.77</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="5">
         <v>2.3199999999999998</v>
       </c>
       <c r="F44" s="36"/>
@@ -12066,7 +12217,7 @@
       <c r="J47" s="40"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:14" ht="27.6">
+    <row r="48" spans="1:14" ht="28.5">
       <c r="A48" s="18">
         <v>4</v>
       </c>
@@ -12169,7 +12320,7 @@
       <c r="J52" s="40"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:19" ht="41.4">
+    <row r="53" spans="1:19" ht="42.75">
       <c r="A53" s="18">
         <v>5</v>
       </c>
@@ -12308,7 +12459,7 @@
       <c r="J58" s="40"/>
       <c r="K58" s="21"/>
     </row>
-    <row r="59" spans="1:19" ht="30.6">
+    <row r="59" spans="1:19" ht="30.75">
       <c r="A59" s="130">
         <v>6</v>
       </c>
@@ -12499,7 +12650,7 @@
       <c r="J66" s="39"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" ht="15">
+    <row r="67" spans="1:11">
       <c r="A67" s="18">
         <v>7</v>
       </c>
@@ -12907,7 +13058,7 @@
       </c>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:20" ht="15">
+    <row r="84" spans="1:20">
       <c r="A84" s="18"/>
       <c r="B84" s="86"/>
       <c r="C84" s="19"/>
@@ -12920,7 +13071,7 @@
       <c r="J84" s="39"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:20" ht="39">
+    <row r="85" spans="1:20" ht="39.75">
       <c r="A85" s="18">
         <v>9</v>
       </c>
@@ -12970,15 +13121,15 @@
       <c r="I86" s="38"/>
       <c r="J86" s="38"/>
       <c r="K86" s="171"/>
-      <c r="N86" s="217" t="s">
+      <c r="N86" s="222" t="s">
         <v>85</v>
       </c>
-      <c r="O86" s="217"/>
-      <c r="P86" s="217"/>
-      <c r="Q86" s="217"/>
-      <c r="R86" s="217"/>
-      <c r="S86" s="217"/>
-      <c r="T86" s="217"/>
+      <c r="O86" s="222"/>
+      <c r="P86" s="222"/>
+      <c r="Q86" s="222"/>
+      <c r="R86" s="222"/>
+      <c r="S86" s="222"/>
+      <c r="T86" s="222"/>
     </row>
     <row r="87" spans="1:20" ht="15" customHeight="1">
       <c r="A87" s="18"/>
@@ -13988,7 +14139,7 @@
       <c r="U124" s="1"/>
       <c r="V124" s="1"/>
     </row>
-    <row r="125" spans="1:22" ht="30.6">
+    <row r="125" spans="1:22" ht="30.75">
       <c r="A125" s="18">
         <v>13</v>
       </c>
@@ -14067,7 +14218,7 @@
       <c r="U126" s="1"/>
       <c r="V126" s="1"/>
     </row>
-    <row r="127" spans="1:22" s="1" customFormat="1" ht="27.6">
+    <row r="127" spans="1:22" s="1" customFormat="1" ht="30">
       <c r="A127" s="118"/>
       <c r="B127" s="123" t="s">
         <v>122</v>
@@ -14196,7 +14347,7 @@
       <c r="J131" s="121"/>
       <c r="K131" s="119"/>
     </row>
-    <row r="132" spans="1:22" s="1" customFormat="1" ht="41.4">
+    <row r="132" spans="1:22" s="1" customFormat="1" ht="45">
       <c r="A132" s="118"/>
       <c r="B132" s="123" t="s">
         <v>123</v>
@@ -14303,7 +14454,7 @@
       <c r="J135" s="121"/>
       <c r="K135" s="119"/>
     </row>
-    <row r="136" spans="1:22" s="1" customFormat="1" ht="27.6">
+    <row r="136" spans="1:22" s="1" customFormat="1" ht="30">
       <c r="A136" s="118"/>
       <c r="B136" s="123" t="s">
         <v>157</v>
@@ -14392,7 +14543,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="139" spans="1:22" s="1" customFormat="1" ht="27.6">
+    <row r="139" spans="1:22" s="1" customFormat="1" ht="30">
       <c r="A139" s="118"/>
       <c r="B139" s="123" t="s">
         <v>155</v>
@@ -15258,7 +15409,7 @@
       </c>
       <c r="K174" s="171"/>
     </row>
-    <row r="175" spans="1:22" s="1" customFormat="1" ht="17.399999999999999">
+    <row r="175" spans="1:22" s="1" customFormat="1" ht="18">
       <c r="A175" s="18"/>
       <c r="B175" s="123" t="s">
         <v>126</v>
@@ -15275,19 +15426,19 @@
         <v>1922.4312945044503</v>
       </c>
       <c r="K175" s="21"/>
-      <c r="N175" s="218" t="s">
+      <c r="N175" s="223" t="s">
         <v>134</v>
       </c>
-      <c r="O175" s="218"/>
-      <c r="P175" s="218"/>
-      <c r="Q175" s="218"/>
-      <c r="R175" s="218"/>
-      <c r="S175" s="218"/>
-      <c r="T175" s="218"/>
+      <c r="O175" s="223"/>
+      <c r="P175" s="223"/>
+      <c r="Q175" s="223"/>
+      <c r="R175" s="223"/>
+      <c r="S175" s="223"/>
+      <c r="T175" s="223"/>
       <c r="U175"/>
       <c r="V175"/>
     </row>
-    <row r="176" spans="1:22" s="1" customFormat="1" ht="17.399999999999999">
+    <row r="176" spans="1:22" s="1" customFormat="1" ht="18">
       <c r="A176" s="18"/>
       <c r="B176" s="123"/>
       <c r="C176" s="19"/>
@@ -15299,19 +15450,19 @@
       <c r="I176" s="23"/>
       <c r="J176" s="121"/>
       <c r="K176" s="21"/>
-      <c r="N176" s="218" t="s">
+      <c r="N176" s="223" t="s">
         <v>135</v>
       </c>
-      <c r="O176" s="218"/>
-      <c r="P176" s="218"/>
-      <c r="Q176" s="218"/>
-      <c r="R176" s="218"/>
-      <c r="S176" s="218"/>
-      <c r="T176" s="218"/>
+      <c r="O176" s="223"/>
+      <c r="P176" s="223"/>
+      <c r="Q176" s="223"/>
+      <c r="R176" s="223"/>
+      <c r="S176" s="223"/>
+      <c r="T176" s="223"/>
       <c r="U176"/>
       <c r="V176"/>
     </row>
-    <row r="177" spans="1:22" ht="30.6">
+    <row r="177" spans="1:22" ht="30.75">
       <c r="A177" s="18">
         <v>15</v>
       </c>
@@ -15427,7 +15578,7 @@
       <c r="J182" s="39"/>
       <c r="K182" s="21"/>
     </row>
-    <row r="183" spans="1:22" s="1" customFormat="1" ht="46.2">
+    <row r="183" spans="1:22" s="1" customFormat="1" ht="48">
       <c r="A183" s="18">
         <v>16</v>
       </c>
@@ -15588,7 +15739,7 @@
       <c r="J189" s="39"/>
       <c r="K189" s="21"/>
     </row>
-    <row r="190" spans="1:22" s="159" customFormat="1" ht="15.6">
+    <row r="190" spans="1:22" s="159" customFormat="1" ht="15.75">
       <c r="A190" s="152">
         <v>17</v>
       </c>
@@ -15797,7 +15948,7 @@
       <c r="J198" s="151"/>
       <c r="K198" s="147"/>
     </row>
-    <row r="199" spans="1:22" s="160" customFormat="1" ht="41.4">
+    <row r="199" spans="1:22" s="160" customFormat="1" ht="42.75">
       <c r="A199" s="130">
         <v>18</v>
       </c>
@@ -16006,7 +16157,7 @@
       <c r="U205" s="167"/>
       <c r="V205" s="167"/>
     </row>
-    <row r="206" spans="1:22">
+    <row r="206" spans="1:22" ht="30">
       <c r="A206" s="18">
         <v>19</v>
       </c>
@@ -16186,11 +16337,11 @@
       <c r="B212" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="C212" s="184">
+      <c r="C212" s="189">
         <f>J210</f>
         <v>559505.71356778976</v>
       </c>
-      <c r="D212" s="184"/>
+      <c r="D212" s="189"/>
       <c r="E212" s="37">
         <v>100</v>
       </c>
@@ -16216,10 +16367,10 @@
       <c r="B213" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C213" s="191">
+      <c r="C213" s="196">
         <v>500000</v>
       </c>
-      <c r="D213" s="191"/>
+      <c r="D213" s="196"/>
       <c r="E213" s="37"/>
       <c r="F213" s="44"/>
       <c r="G213" s="43"/>
@@ -16243,11 +16394,11 @@
       <c r="B214" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C214" s="191">
+      <c r="C214" s="196">
         <f>C213-C216-C217</f>
         <v>475000</v>
       </c>
-      <c r="D214" s="191"/>
+      <c r="D214" s="196"/>
       <c r="E214" s="37">
         <f>C214/C212*100</f>
         <v>84.896362714703358</v>
@@ -16274,11 +16425,11 @@
       <c r="B215" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C215" s="184">
+      <c r="C215" s="189">
         <f>C212-C214</f>
         <v>84505.71356778976</v>
       </c>
-      <c r="D215" s="184"/>
+      <c r="D215" s="189"/>
       <c r="E215" s="37">
         <f>100-E214</f>
         <v>15.103637285296642</v>
@@ -16305,11 +16456,11 @@
       <c r="B216" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C216" s="184">
+      <c r="C216" s="189">
         <f>C213*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D216" s="184"/>
+      <c r="D216" s="189"/>
       <c r="E216" s="37">
         <v>3</v>
       </c>
@@ -16335,11 +16486,11 @@
       <c r="B217" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C217" s="184">
+      <c r="C217" s="189">
         <f>C213*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D217" s="184"/>
+      <c r="D217" s="189"/>
       <c r="E217" s="37">
         <v>2</v>
       </c>
@@ -16641,7 +16792,5698 @@
     <hyperlink ref="B143" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V274"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A182" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1">
+      <c r="A1" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="22.5">
+      <c r="A2" s="191" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1">
+      <c r="A3" s="192" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="192"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1">
+      <c r="A4" s="192" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="192"/>
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+    </row>
+    <row r="5" spans="1:14" ht="18.75">
+      <c r="A5" s="193" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="193"/>
+      <c r="C5" s="193"/>
+      <c r="D5" s="193"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
+      <c r="K5" s="193"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75">
+      <c r="A6" s="194" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="2"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="185"/>
+      <c r="K6" s="183" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75">
+      <c r="A7" s="187" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="187"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="186"/>
+      <c r="K7" s="182" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28.5">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
+      <c r="A10" s="18"/>
+      <c r="B10" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="34">
+        <v>1</v>
+      </c>
+      <c r="D10" s="36">
+        <f>3.1+3.1+2.3+2.3+5.6+1.6</f>
+        <v>18</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F10" s="36">
+        <f>2.333/3.281</f>
+        <v>0.7110637000914356</v>
+      </c>
+      <c r="G10" s="37">
+        <f t="shared" ref="G10:G14" si="0">PRODUCT(C10:F10)</f>
+        <v>2.9438037183785437</v>
+      </c>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="171"/>
+      <c r="N10">
+        <f>5.84+1.76</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="34">
+        <v>1</v>
+      </c>
+      <c r="D11" s="36">
+        <v>2.8</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0.35</v>
+      </c>
+      <c r="F11" s="36">
+        <f>((1.17/3.281)+(1.5/3.281))/2</f>
+        <v>0.40688814385857969</v>
+      </c>
+      <c r="G11" s="37">
+        <f t="shared" si="0"/>
+        <v>0.39875038098140803</v>
+      </c>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="171"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="34">
+        <v>1</v>
+      </c>
+      <c r="D12" s="36">
+        <v>2.8</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0.35</v>
+      </c>
+      <c r="F12" s="36">
+        <f>((1.17/3.281)+(1.917/3.281))/2</f>
+        <v>0.47043584273087469</v>
+      </c>
+      <c r="G12" s="37">
+        <f t="shared" si="0"/>
+        <v>0.46102712587625716</v>
+      </c>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="171"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="34">
+        <v>2</v>
+      </c>
+      <c r="D13" s="36">
+        <f>5/3.281</f>
+        <v>1.5239256324291375</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0.35</v>
+      </c>
+      <c r="F13" s="36">
+        <f>((1.25/3.281)+(0.833/3.281))/2</f>
+        <v>0.31743370923498931</v>
+      </c>
+      <c r="G13" s="37">
+        <f t="shared" si="0"/>
+        <v>0.3386217562701806</v>
+      </c>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="171"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="34">
+        <v>2</v>
+      </c>
+      <c r="D14" s="36">
+        <f>5/3.281</f>
+        <v>1.5239256324291375</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0.35</v>
+      </c>
+      <c r="F14" s="36">
+        <f>((1.25/3.281)+(1.5/3.281))/2</f>
+        <v>0.4190795489180128</v>
+      </c>
+      <c r="G14" s="37">
+        <f t="shared" si="0"/>
+        <v>0.44705224663610016</v>
+      </c>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="171"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="32">
+        <f>SUM(G10:G14)</f>
+        <v>4.5892552281424894</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="38">
+        <v>975.2</v>
+      </c>
+      <c r="J15" s="40">
+        <f>G15*I15</f>
+        <v>4475.4416984845557</v>
+      </c>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:14" ht="28.5">
+      <c r="A17" s="18">
+        <v>2</v>
+      </c>
+      <c r="B17" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="34">
+        <v>1</v>
+      </c>
+      <c r="D18" s="36">
+        <f>7.667/3.281</f>
+        <v>2.3367875647668392</v>
+      </c>
+      <c r="E18" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F18" s="36">
+        <f>1.04-0.05</f>
+        <v>0.99</v>
+      </c>
+      <c r="G18" s="37">
+        <f>PRODUCT(C18:F18)</f>
+        <v>0.53208652849740923</v>
+      </c>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="171"/>
+      <c r="N18">
+        <f>5.84+1.76</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1">
+      <c r="A19" s="18"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="34">
+        <v>1</v>
+      </c>
+      <c r="D19" s="36">
+        <f>(10.5-0.75)/3.281</f>
+        <v>2.9716549832368178</v>
+      </c>
+      <c r="E19" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F19" s="36">
+        <f>((0.85+0.59)/2)-0.05</f>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="G19" s="37">
+        <f t="shared" ref="G19:G31" si="1">PRODUCT(C19:F19)</f>
+        <v>0.45793203291679357</v>
+      </c>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="171"/>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="34">
+        <v>1</v>
+      </c>
+      <c r="D20" s="36">
+        <f>1.4-0.3-0.23</f>
+        <v>0.86999999999999988</v>
+      </c>
+      <c r="E20" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F20" s="36">
+        <f>0.18-0.05</f>
+        <v>0.13</v>
+      </c>
+      <c r="G20" s="37">
+        <f t="shared" si="1"/>
+        <v>2.6012999999999998E-2</v>
+      </c>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="171"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="34">
+        <v>1</v>
+      </c>
+      <c r="D21" s="36">
+        <f>13.833/3.281</f>
+        <v>4.2160926546784516</v>
+      </c>
+      <c r="E21" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F21" s="36">
+        <f>(0.5+0.85)/2-0.05</f>
+        <v>0.625</v>
+      </c>
+      <c r="G21" s="37">
+        <f t="shared" si="1"/>
+        <v>0.60606331911002742</v>
+      </c>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="171"/>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="34">
+        <v>1</v>
+      </c>
+      <c r="D22" s="36">
+        <f>9.42/3.281</f>
+        <v>2.8710758914964947</v>
+      </c>
+      <c r="E22" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F22" s="36">
+        <f>(((0.5-0.08)+0.39)/2)-0.05</f>
+        <v>0.35500000000000004</v>
+      </c>
+      <c r="G22" s="37">
+        <f t="shared" si="1"/>
+        <v>0.23442334654068883</v>
+      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="171"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="34">
+        <v>1</v>
+      </c>
+      <c r="D23" s="36">
+        <f>1.35-0.31</f>
+        <v>1.04</v>
+      </c>
+      <c r="E23" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F23" s="36">
+        <f>((0.08+0.1)/2)-0.05</f>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="G23" s="37">
+        <f t="shared" si="1"/>
+        <v>9.5680000000000001E-3</v>
+      </c>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="171"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="34">
+        <v>1</v>
+      </c>
+      <c r="D24" s="36">
+        <f>9.42/3.281</f>
+        <v>2.8710758914964947</v>
+      </c>
+      <c r="E24" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F24" s="36">
+        <f>((0.4+0.39)/2)-0.05</f>
+        <v>0.34500000000000003</v>
+      </c>
+      <c r="G24" s="37">
+        <f t="shared" si="1"/>
+        <v>0.22781987199024686</v>
+      </c>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="171"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="34">
+        <v>1</v>
+      </c>
+      <c r="D25" s="36">
+        <f>1.39-0.3</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="E25" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F25" s="36">
+        <f>((0.12+0.1)/2)-0.05</f>
+        <v>0.06</v>
+      </c>
+      <c r="G25" s="37">
+        <f t="shared" si="1"/>
+        <v>1.5041999999999998E-2</v>
+      </c>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="171"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="34">
+        <v>1</v>
+      </c>
+      <c r="D26" s="36">
+        <f>7.333/3.281</f>
+        <v>2.234989332520573</v>
+      </c>
+      <c r="E26" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F26" s="36">
+        <f>((1.02+1.08)/2)-0.05</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="37">
+        <f t="shared" si="1"/>
+        <v>0.51404754647973183</v>
+      </c>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="171"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
+      <c r="A27" s="18"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="34">
+        <v>1</v>
+      </c>
+      <c r="D27" s="36">
+        <f>4.27-0.3</f>
+        <v>3.9699999999999998</v>
+      </c>
+      <c r="E27" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F27" s="36">
+        <f>((0.5+0.85)/2)-0.05</f>
+        <v>0.625</v>
+      </c>
+      <c r="G27" s="37">
+        <f t="shared" si="1"/>
+        <v>0.57068750000000001</v>
+      </c>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="171"/>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
+      <c r="A28" s="18"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="34">
+        <v>1</v>
+      </c>
+      <c r="D28" s="36">
+        <f>9.5/3.281</f>
+        <v>2.895458701615361</v>
+      </c>
+      <c r="E28" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F28" s="36">
+        <f>((0.32+0.38)/2)-0.05</f>
+        <v>0.3</v>
+      </c>
+      <c r="G28" s="37">
+        <f t="shared" si="1"/>
+        <v>0.1997866504114599</v>
+      </c>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="171"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
+      <c r="A29" s="18"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="34">
+        <v>1</v>
+      </c>
+      <c r="D29" s="36">
+        <f>5.333/3.281</f>
+        <v>1.6254190795489181</v>
+      </c>
+      <c r="E29" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F29" s="36">
+        <f>((0.12+0.1)/2)-0.05</f>
+        <v>0.06</v>
+      </c>
+      <c r="G29" s="37">
+        <f t="shared" si="1"/>
+        <v>2.2430783297775068E-2</v>
+      </c>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="171"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
+      <c r="A30" s="18"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="34">
+        <v>1</v>
+      </c>
+      <c r="D30" s="36">
+        <f>25.17/3.281</f>
+        <v>7.6714416336482785</v>
+      </c>
+      <c r="E30" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F30" s="36">
+        <f>(0.23)</f>
+        <v>0.23</v>
+      </c>
+      <c r="G30" s="37">
+        <f t="shared" si="1"/>
+        <v>0.40581926241999394</v>
+      </c>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="171"/>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
+      <c r="A31" s="18"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="34">
+        <v>1</v>
+      </c>
+      <c r="D31" s="36">
+        <f>25.17/3.281</f>
+        <v>7.6714416336482785</v>
+      </c>
+      <c r="E31" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="36">
+        <f>(0.5-0.23)-0.05</f>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="G31" s="37">
+        <f t="shared" si="1"/>
+        <v>0.16877171594026216</v>
+      </c>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="171"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="34">
+        <v>1</v>
+      </c>
+      <c r="D32" s="36">
+        <f>23.333/3.281</f>
+        <v>7.1115513562938117</v>
+      </c>
+      <c r="E32" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F32" s="36">
+        <f>0.2-0.05</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G32" s="37">
+        <f>PRODUCT(C32:F32)</f>
+        <v>0.24534852179213654</v>
+      </c>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="171"/>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
+      <c r="A33" s="18"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="34">
+        <v>1</v>
+      </c>
+      <c r="D33" s="36">
+        <f>0.5+0.75</f>
+        <v>1.25</v>
+      </c>
+      <c r="E33" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F33" s="36">
+        <f>0.3-0.05</f>
+        <v>0.25</v>
+      </c>
+      <c r="G33" s="37">
+        <f t="shared" ref="G33:G37" si="2">PRODUCT(C33:F33)</f>
+        <v>7.1875000000000008E-2</v>
+      </c>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="171"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
+      <c r="A34" s="18"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="36">
+        <f>0.333/3.281</f>
+        <v>0.10149344711978056</v>
+      </c>
+      <c r="E34" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F34" s="36">
+        <f>0.6-0.05</f>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="G34" s="37">
+        <f t="shared" si="2"/>
+        <v>1.283892106065224E-2</v>
+      </c>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="171"/>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="34">
+        <v>1</v>
+      </c>
+      <c r="D35" s="36">
+        <f>0.333/3.281</f>
+        <v>0.10149344711978056</v>
+      </c>
+      <c r="E35" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F35" s="36">
+        <f>0.4-0.05</f>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="G35" s="37">
+        <f t="shared" si="2"/>
+        <v>8.1702224931423355E-3</v>
+      </c>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="171"/>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
+      <c r="A36" s="18"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="34">
+        <v>1</v>
+      </c>
+      <c r="D36" s="36">
+        <v>0.32</v>
+      </c>
+      <c r="E36" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F36" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="G36" s="37">
+        <f t="shared" si="2"/>
+        <v>1.6928000000000002E-2</v>
+      </c>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="171"/>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1">
+      <c r="A37" s="18"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="34">
+        <v>1</v>
+      </c>
+      <c r="D37" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F37" s="36">
+        <v>0.35</v>
+      </c>
+      <c r="G37" s="37">
+        <f t="shared" si="2"/>
+        <v>4.0250000000000001E-2</v>
+      </c>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="171"/>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1">
+      <c r="A38" s="18"/>
+      <c r="B38" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="34"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="32">
+        <f>SUM(G18:G37)</f>
+        <v>4.3859022229503202</v>
+      </c>
+      <c r="H38" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="38">
+        <v>14362.76</v>
+      </c>
+      <c r="J38" s="40">
+        <f>G38*I38</f>
+        <v>62993.661011701945</v>
+      </c>
+      <c r="K38" s="21"/>
+    </row>
+    <row r="39" spans="1:14" ht="15" hidden="1" customHeight="1">
+      <c r="A39" s="18"/>
+      <c r="B39" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="34"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="40">
+        <f>0.13*G38*10311.74</f>
+        <v>5879.4168405031451</v>
+      </c>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
+      <c r="A40" s="18"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="21"/>
+    </row>
+    <row r="41" spans="1:14" s="1" customFormat="1" ht="57">
+      <c r="A41" s="131">
+        <v>3</v>
+      </c>
+      <c r="B41" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="58"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="28"/>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
+      <c r="A42" s="18"/>
+      <c r="B42" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="34">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5">
+        <f>4.5+3.12</f>
+        <v>7.62</v>
+      </c>
+      <c r="E42" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F42" s="36"/>
+      <c r="G42" s="37">
+        <f t="shared" ref="G42:G44" si="3">PRODUCT(C42:F42)</f>
+        <v>26.67</v>
+      </c>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="171"/>
+      <c r="N42">
+        <f>5.84+1.76</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1">
+      <c r="A43" s="18"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="34">
+        <v>1</v>
+      </c>
+      <c r="D43" s="5">
+        <f>4.7+1.05</f>
+        <v>5.75</v>
+      </c>
+      <c r="E43" s="5">
+        <v>2.38</v>
+      </c>
+      <c r="F43" s="36"/>
+      <c r="G43" s="37">
+        <f t="shared" si="3"/>
+        <v>13.684999999999999</v>
+      </c>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="171"/>
+      <c r="N43">
+        <f>3.87+1.86</f>
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1">
+      <c r="A44" s="18"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="34">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5">
+        <f>4+1.77</f>
+        <v>5.77</v>
+      </c>
+      <c r="E44" s="5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F44" s="36"/>
+      <c r="G44" s="37">
+        <f t="shared" si="3"/>
+        <v>13.386399999999998</v>
+      </c>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="171"/>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1">
+      <c r="A45" s="18"/>
+      <c r="B45" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="32">
+        <f>SUM(G42:G44)</f>
+        <v>53.741399999999999</v>
+      </c>
+      <c r="H45" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="38">
+        <v>817.76</v>
+      </c>
+      <c r="J45" s="40">
+        <f>G45*I45</f>
+        <v>43947.567263999998</v>
+      </c>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="1:14" ht="15" hidden="1" customHeight="1">
+      <c r="A46" s="18"/>
+      <c r="B46" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="34"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="40">
+        <f>0.13*J45</f>
+        <v>5713.1837443200002</v>
+      </c>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
+      <c r="A47" s="18"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="1:14" ht="28.5">
+      <c r="A48" s="18">
+        <v>4</v>
+      </c>
+      <c r="B48" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="34"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="1:19" ht="15" customHeight="1">
+      <c r="A49" s="18"/>
+      <c r="B49" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="34">
+        <v>2</v>
+      </c>
+      <c r="D49" s="36">
+        <f>12/3.281</f>
+        <v>3.6574215178299299</v>
+      </c>
+      <c r="E49" s="36">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="F49" s="36"/>
+      <c r="G49" s="37">
+        <f>PRODUCT(C49:F49)</f>
+        <v>7.8030937594664751</v>
+      </c>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="171"/>
+      <c r="N49">
+        <f>5.84+1.76</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="15" customHeight="1">
+      <c r="A50" s="18"/>
+      <c r="B50" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="34"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="32">
+        <f>SUM(G49:G49)</f>
+        <v>7.8030937594664751</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="38">
+        <v>1070.9000000000001</v>
+      </c>
+      <c r="J50" s="40">
+        <f>G50*I50</f>
+        <v>8356.3331070126496</v>
+      </c>
+      <c r="K50" s="21"/>
+    </row>
+    <row r="51" spans="1:19" ht="15" hidden="1" customHeight="1">
+      <c r="A51" s="18"/>
+      <c r="B51" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="40">
+        <f>0.13*G50*8211.62/10</f>
+        <v>832.98853010243124</v>
+      </c>
+      <c r="K51" s="21"/>
+    </row>
+    <row r="52" spans="1:19" ht="15" customHeight="1">
+      <c r="A52" s="18"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="21"/>
+    </row>
+    <row r="53" spans="1:19" ht="42.75">
+      <c r="A53" s="18">
+        <v>5</v>
+      </c>
+      <c r="B53" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="34"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="1:19" ht="15" customHeight="1">
+      <c r="A54" s="18"/>
+      <c r="B54" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" s="42">
+        <v>2</v>
+      </c>
+      <c r="D54" s="36">
+        <f>D60</f>
+        <v>10.515086863761049</v>
+      </c>
+      <c r="E54" s="36">
+        <v>0.15</v>
+      </c>
+      <c r="F54" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="G54" s="37">
+        <f>PRODUCT(C54:F54)</f>
+        <v>1.8927156354769885</v>
+      </c>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="171"/>
+      <c r="N54">
+        <f>5.84+1.76</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="15" customHeight="1">
+      <c r="A55" s="18"/>
+      <c r="B55" s="35" t="str">
+        <f>B71</f>
+        <v>-at backyard</v>
+      </c>
+      <c r="C55" s="42">
+        <v>1</v>
+      </c>
+      <c r="D55" s="36">
+        <f>12</f>
+        <v>12</v>
+      </c>
+      <c r="E55" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F55" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="G55" s="37">
+        <f>PRODUCT(C55:F55)</f>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="171"/>
+    </row>
+    <row r="56" spans="1:19" ht="15" customHeight="1">
+      <c r="A56" s="18"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="42">
+        <v>1</v>
+      </c>
+      <c r="D56" s="36">
+        <f>D55</f>
+        <v>12</v>
+      </c>
+      <c r="E56" s="36">
+        <v>0.23</v>
+      </c>
+      <c r="F56" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="37">
+        <f>PRODUCT(C56:F56)</f>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="H56" s="38"/>
+      <c r="I56" s="38"/>
+      <c r="J56" s="38"/>
+      <c r="K56" s="171"/>
+    </row>
+    <row r="57" spans="1:19" ht="15" customHeight="1">
+      <c r="A57" s="18"/>
+      <c r="B57" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="34"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="32">
+        <f>SUM(G54:G56)</f>
+        <v>4.1007156354769885</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I57" s="38">
+        <v>1950.4</v>
+      </c>
+      <c r="J57" s="40">
+        <f>G57*I57</f>
+        <v>7998.0357754343186</v>
+      </c>
+      <c r="K57" s="21"/>
+    </row>
+    <row r="58" spans="1:19" ht="15" customHeight="1">
+      <c r="A58" s="18"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="38"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="1:19" ht="30.75">
+      <c r="A59" s="130">
+        <v>6</v>
+      </c>
+      <c r="B59" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="19"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="21"/>
+      <c r="M59" s="85"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="85"/>
+      <c r="S59" s="85"/>
+    </row>
+    <row r="60" spans="1:19" ht="15" customHeight="1">
+      <c r="A60" s="18"/>
+      <c r="B60" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="19">
+        <v>1</v>
+      </c>
+      <c r="D60" s="20">
+        <f>((21+15.5)-2)/3.281</f>
+        <v>10.515086863761049</v>
+      </c>
+      <c r="E60" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="F60" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="G60" s="37">
+        <f>PRODUCT(C60:F60)</f>
+        <v>0.7886315147820786</v>
+      </c>
+      <c r="H60" s="22"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="21"/>
+    </row>
+    <row r="61" spans="1:19" ht="15" customHeight="1">
+      <c r="A61" s="18"/>
+      <c r="B61" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" s="19">
+        <v>1</v>
+      </c>
+      <c r="D61" s="20">
+        <f>3.35+2.8+3.05+2.5+1.83</f>
+        <v>13.53</v>
+      </c>
+      <c r="E61" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="F61" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="G61" s="37">
+        <f>PRODUCT(C61:F61)</f>
+        <v>2.4354</v>
+      </c>
+      <c r="H61" s="22"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:19" ht="15" customHeight="1">
+      <c r="A62" s="18"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="19">
+        <v>1</v>
+      </c>
+      <c r="D62" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="E62" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F62" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="G62" s="37">
+        <f>PRODUCT(C62:F62)</f>
+        <v>0.9</v>
+      </c>
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="21"/>
+    </row>
+    <row r="63" spans="1:19" ht="15" customHeight="1">
+      <c r="A63" s="18"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D63" s="20">
+        <v>2</v>
+      </c>
+      <c r="E63" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="F63" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="37">
+        <f>PRODUCT(C63:F63)</f>
+        <v>0.75</v>
+      </c>
+      <c r="H63" s="22"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" spans="1:19" ht="15" customHeight="1">
+      <c r="A64" s="18"/>
+      <c r="B64" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" s="19">
+        <v>1</v>
+      </c>
+      <c r="D64" s="20">
+        <v>6.5</v>
+      </c>
+      <c r="E64" s="21">
+        <f>0.3+0.23</f>
+        <v>0.53</v>
+      </c>
+      <c r="F64" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="G64" s="37">
+        <f>PRODUCT(C64:F64)</f>
+        <v>0.79235000000000011</v>
+      </c>
+      <c r="H64" s="22"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:11" ht="15" customHeight="1">
+      <c r="A65" s="18"/>
+      <c r="B65" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="23">
+        <f>SUM(G60:G64)</f>
+        <v>5.6663815147820786</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I65" s="23">
+        <v>663.31</v>
+      </c>
+      <c r="J65" s="39">
+        <f>G65*I65</f>
+        <v>3758.5675225701002</v>
+      </c>
+      <c r="K65" s="21"/>
+    </row>
+    <row r="66" spans="1:11" ht="15" customHeight="1">
+      <c r="A66" s="18"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="21"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="18">
+        <v>7</v>
+      </c>
+      <c r="B67" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="19"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="21"/>
+    </row>
+    <row r="68" spans="1:11" ht="15" customHeight="1">
+      <c r="A68" s="18"/>
+      <c r="B68" s="35" t="str">
+        <f>B60</f>
+        <v>-at drain wall base</v>
+      </c>
+      <c r="C68" s="19">
+        <f>C60</f>
+        <v>1</v>
+      </c>
+      <c r="D68" s="20">
+        <f>D60</f>
+        <v>10.515086863761049</v>
+      </c>
+      <c r="E68" s="21">
+        <v>0.67</v>
+      </c>
+      <c r="F68" s="21"/>
+      <c r="G68" s="37">
+        <f>PRODUCT(C68:F68)</f>
+        <v>7.0451081987199027</v>
+      </c>
+      <c r="H68" s="22"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="21"/>
+    </row>
+    <row r="69" spans="1:11" s="142" customFormat="1" ht="15" customHeight="1">
+      <c r="A69" s="18"/>
+      <c r="B69" s="138" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="19">
+        <v>1</v>
+      </c>
+      <c r="D69" s="20">
+        <f>23/3.281</f>
+        <v>7.0100579091740318</v>
+      </c>
+      <c r="E69" s="21">
+        <f>0.3+0.23</f>
+        <v>0.53</v>
+      </c>
+      <c r="F69" s="21"/>
+      <c r="G69" s="140">
+        <f>PRODUCT(C69:F69)</f>
+        <v>3.7153306918622371</v>
+      </c>
+      <c r="H69" s="22"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="141"/>
+      <c r="K69" s="21"/>
+    </row>
+    <row r="70" spans="1:11" s="142" customFormat="1" ht="15" customHeight="1">
+      <c r="A70" s="18"/>
+      <c r="B70" s="138" t="str">
+        <f>B121</f>
+        <v>-at entrance</v>
+      </c>
+      <c r="C70" s="19">
+        <f>C121</f>
+        <v>1</v>
+      </c>
+      <c r="D70" s="139">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E70" s="139">
+        <v>0.91</v>
+      </c>
+      <c r="F70" s="138"/>
+      <c r="G70" s="140">
+        <f>PRODUCT(C70:F70)</f>
+        <v>2.0020000000000002</v>
+      </c>
+      <c r="H70" s="22"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="141"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="1:11" s="142" customFormat="1" ht="15" customHeight="1">
+      <c r="A71" s="18"/>
+      <c r="B71" s="138" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71" s="19">
+        <v>1</v>
+      </c>
+      <c r="D71" s="139">
+        <v>12.9</v>
+      </c>
+      <c r="E71" s="139">
+        <v>0.35</v>
+      </c>
+      <c r="F71" s="138"/>
+      <c r="G71" s="140">
+        <f>PRODUCT(C71:F71)</f>
+        <v>4.5149999999999997</v>
+      </c>
+      <c r="H71" s="22"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="141"/>
+      <c r="K71" s="21"/>
+    </row>
+    <row r="72" spans="1:11" ht="15" customHeight="1">
+      <c r="A72" s="18"/>
+      <c r="B72" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="23">
+        <f>SUM(G68:G71)</f>
+        <v>17.27743889058214</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" s="23">
+        <v>1014.97</v>
+      </c>
+      <c r="J72" s="39">
+        <f>G72*I72</f>
+        <v>17536.082150774153</v>
+      </c>
+      <c r="K72" s="21"/>
+    </row>
+    <row r="73" spans="1:11" ht="15" hidden="1" customHeight="1">
+      <c r="A73" s="18"/>
+      <c r="B73" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="39">
+        <f>0.13*G72*8617.2/10</f>
+        <v>1935.4809033030178</v>
+      </c>
+      <c r="K73" s="21"/>
+    </row>
+    <row r="74" spans="1:11" ht="15" customHeight="1">
+      <c r="A74" s="18"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="21"/>
+    </row>
+    <row r="75" spans="1:11" ht="30">
+      <c r="A75" s="18">
+        <v>8</v>
+      </c>
+      <c r="B75" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="21"/>
+    </row>
+    <row r="76" spans="1:11" ht="15" customHeight="1">
+      <c r="A76" s="18"/>
+      <c r="B76" s="35" t="str">
+        <f>B68</f>
+        <v>-at drain wall base</v>
+      </c>
+      <c r="C76" s="19">
+        <f>C68</f>
+        <v>1</v>
+      </c>
+      <c r="D76" s="20">
+        <f>D60</f>
+        <v>10.515086863761049</v>
+      </c>
+      <c r="E76" s="21">
+        <f>E68</f>
+        <v>0.67</v>
+      </c>
+      <c r="F76" s="21">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G76" s="37">
+        <f t="shared" ref="G76:G81" si="4">PRODUCT(C76:F76)</f>
+        <v>0.5283831149039927</v>
+      </c>
+      <c r="H76" s="22"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="21"/>
+    </row>
+    <row r="77" spans="1:11" ht="15" customHeight="1">
+      <c r="A77" s="18"/>
+      <c r="B77" s="35" t="str">
+        <f>B69</f>
+        <v>-at one side drain</v>
+      </c>
+      <c r="C77" s="19">
+        <f>C69</f>
+        <v>1</v>
+      </c>
+      <c r="D77" s="20">
+        <f>D69</f>
+        <v>7.0100579091740318</v>
+      </c>
+      <c r="E77" s="21">
+        <f>E69+0.3</f>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="F77" s="21">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G77" s="37">
+        <f t="shared" si="4"/>
+        <v>0.43637610484608347</v>
+      </c>
+      <c r="H77" s="22"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="21"/>
+    </row>
+    <row r="78" spans="1:11" ht="15" customHeight="1">
+      <c r="A78" s="18"/>
+      <c r="B78" s="35" t="str">
+        <f>B18</f>
+        <v>-at roof</v>
+      </c>
+      <c r="C78" s="19">
+        <f>C18</f>
+        <v>1</v>
+      </c>
+      <c r="D78" s="20">
+        <f>(4.27-0.3)+(9.5+7.333+9.42+9.42+13.833+(10.5-0.75)+7.583)/3.281</f>
+        <v>24.341533069186223</v>
+      </c>
+      <c r="E78" s="21">
+        <f>E18</f>
+        <v>0.23</v>
+      </c>
+      <c r="F78" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G78" s="37">
+        <f t="shared" si="4"/>
+        <v>0.27992763029564161</v>
+      </c>
+      <c r="H78" s="22"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="21"/>
+    </row>
+    <row r="79" spans="1:11" ht="15" customHeight="1">
+      <c r="A79" s="18"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="19">
+        <f>C19</f>
+        <v>1</v>
+      </c>
+      <c r="D79" s="20">
+        <f>25.17/3.281</f>
+        <v>7.6714416336482785</v>
+      </c>
+      <c r="E79" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F79" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G79" s="37">
+        <f t="shared" si="4"/>
+        <v>3.8357208168241397E-2</v>
+      </c>
+      <c r="H79" s="22"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="21"/>
+    </row>
+    <row r="80" spans="1:11" ht="15" customHeight="1">
+      <c r="A80" s="18"/>
+      <c r="B80" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" s="19">
+        <v>4</v>
+      </c>
+      <c r="D80" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="E80" s="21">
+        <v>0.15</v>
+      </c>
+      <c r="F80" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G80" s="37">
+        <f t="shared" si="4"/>
+        <v>2.7000000000000003E-2</v>
+      </c>
+      <c r="H80" s="22"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="21"/>
+    </row>
+    <row r="81" spans="1:20" ht="15" customHeight="1">
+      <c r="A81" s="18"/>
+      <c r="B81" s="35" t="str">
+        <f>B71</f>
+        <v>-at backyard</v>
+      </c>
+      <c r="C81" s="19">
+        <f>C71</f>
+        <v>1</v>
+      </c>
+      <c r="D81" s="20">
+        <f>D71</f>
+        <v>12.9</v>
+      </c>
+      <c r="E81" s="21">
+        <f>E71</f>
+        <v>0.35</v>
+      </c>
+      <c r="F81" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="G81" s="37">
+        <f t="shared" si="4"/>
+        <v>0.22575000000000001</v>
+      </c>
+      <c r="H81" s="22"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="21"/>
+    </row>
+    <row r="82" spans="1:20" ht="15" customHeight="1">
+      <c r="A82" s="18"/>
+      <c r="B82" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C82" s="19"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="23">
+        <f>SUM(G76:G81)</f>
+        <v>1.5357940582139591</v>
+      </c>
+      <c r="H82" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="I82" s="23">
+        <v>12983.1</v>
+      </c>
+      <c r="J82" s="39">
+        <f>G82*I82</f>
+        <v>19939.367837197653</v>
+      </c>
+      <c r="K82" s="21"/>
+    </row>
+    <row r="83" spans="1:20" ht="15" hidden="1" customHeight="1">
+      <c r="A83" s="18"/>
+      <c r="B83" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" s="19"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="39">
+        <f>0.13*G82*8078.11</f>
+        <v>1612.8207341478396</v>
+      </c>
+      <c r="K83" s="21"/>
+    </row>
+    <row r="84" spans="1:20">
+      <c r="A84" s="18"/>
+      <c r="B84" s="86"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="21"/>
+    </row>
+    <row r="85" spans="1:20" ht="39.75">
+      <c r="A85" s="18">
+        <v>9</v>
+      </c>
+      <c r="B85" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="34"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="21"/>
+      <c r="N85" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="O85" s="63"/>
+      <c r="P85" s="63"/>
+      <c r="Q85" s="63"/>
+      <c r="R85" s="63"/>
+      <c r="S85" s="63"/>
+      <c r="T85" s="63"/>
+    </row>
+    <row r="86" spans="1:20" ht="15" customHeight="1">
+      <c r="A86" s="18"/>
+      <c r="B86" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C86" s="34">
+        <v>2</v>
+      </c>
+      <c r="D86" s="36">
+        <f>((21+15.5)-2)/3.281</f>
+        <v>10.515086863761049</v>
+      </c>
+      <c r="E86" s="36"/>
+      <c r="F86" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G86" s="37">
+        <f>PRODUCT(C86:F86)</f>
+        <v>10.515086863761049</v>
+      </c>
+      <c r="H86" s="38"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="171"/>
+      <c r="N86" s="222" t="s">
+        <v>85</v>
+      </c>
+      <c r="O86" s="222"/>
+      <c r="P86" s="222"/>
+      <c r="Q86" s="222"/>
+      <c r="R86" s="222"/>
+      <c r="S86" s="222"/>
+      <c r="T86" s="222"/>
+    </row>
+    <row r="87" spans="1:20" ht="15" customHeight="1">
+      <c r="A87" s="18"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="34">
+        <v>2</v>
+      </c>
+      <c r="D87" s="36">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E87" s="36"/>
+      <c r="F87" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="G87" s="37">
+        <f>PRODUCT(C87:F87)</f>
+        <v>0.69</v>
+      </c>
+      <c r="H87" s="38"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="171"/>
+      <c r="N87" s="184"/>
+      <c r="O87" s="184"/>
+      <c r="P87" s="184"/>
+      <c r="Q87" s="184"/>
+      <c r="R87" s="184"/>
+      <c r="S87" s="184"/>
+      <c r="T87" s="184"/>
+    </row>
+    <row r="88" spans="1:20" ht="15" customHeight="1">
+      <c r="A88" s="18"/>
+      <c r="B88" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" s="34"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="32">
+        <f>SUM(G86:G87)</f>
+        <v>11.205086863761048</v>
+      </c>
+      <c r="H88" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I88" s="38">
+        <v>563.26</v>
+      </c>
+      <c r="J88" s="40">
+        <f>G88*I88</f>
+        <v>6311.3772268820476</v>
+      </c>
+      <c r="K88" s="21"/>
+    </row>
+    <row r="89" spans="1:20" ht="15" hidden="1" customHeight="1">
+      <c r="A89" s="18"/>
+      <c r="B89" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="34"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="40">
+        <f>0.13*G88*2004.3/9</f>
+        <v>324.39846979274608</v>
+      </c>
+      <c r="K89" s="21"/>
+    </row>
+    <row r="90" spans="1:20" ht="15" customHeight="1">
+      <c r="A90" s="18"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="21"/>
+      <c r="N90">
+        <f>9.75/0.75</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" ht="30">
+      <c r="A91" s="18">
+        <v>10</v>
+      </c>
+      <c r="B91" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="E91" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="F91" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="G91" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="H91" s="22"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="21"/>
+    </row>
+    <row r="92" spans="1:20" ht="15" customHeight="1">
+      <c r="A92" s="18"/>
+      <c r="B92" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="19">
+        <f>8*(TRUNC((D93-0.1)/0.15,0)+1)</f>
+        <v>40</v>
+      </c>
+      <c r="D92" s="20">
+        <f>0.66-0.1</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E92" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F92" s="21">
+        <f>PRODUCT(C92:E92)</f>
+        <v>8.8493827160493836</v>
+      </c>
+      <c r="G92" s="89">
+        <f>F92/1000</f>
+        <v>8.8493827160493841E-3</v>
+      </c>
+      <c r="H92" s="22"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="21"/>
+    </row>
+    <row r="93" spans="1:20" ht="15" customHeight="1">
+      <c r="A93" s="18"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="19">
+        <f>8*(TRUNC((D92-0.1)/0.15,0)+1)</f>
+        <v>32</v>
+      </c>
+      <c r="D93" s="20">
+        <f>0.92-0.1</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="E93" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F93" s="21">
+        <f>PRODUCT(C93:E93)</f>
+        <v>10.36641975308642</v>
+      </c>
+      <c r="G93" s="89">
+        <f>F93/1000</f>
+        <v>1.036641975308642E-2</v>
+      </c>
+      <c r="H93" s="22"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="21"/>
+    </row>
+    <row r="94" spans="1:20" ht="15" customHeight="1">
+      <c r="A94" s="18"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="19">
+        <f>(TRUNC((D95-0.1)/0.15,0)+1)</f>
+        <v>3</v>
+      </c>
+      <c r="D94" s="20">
+        <f t="shared" ref="D94" si="5">0.66-0.1</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E94" s="21">
+        <f t="shared" ref="E94:E97" si="6">8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F94" s="21">
+        <f t="shared" ref="F94:F97" si="7">PRODUCT(C94:E94)</f>
+        <v>0.66370370370370368</v>
+      </c>
+      <c r="G94" s="89">
+        <f t="shared" ref="G94:G97" si="8">F94/1000</f>
+        <v>6.6370370370370368E-4</v>
+      </c>
+      <c r="H94" s="22"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="21"/>
+    </row>
+    <row r="95" spans="1:20" ht="15" customHeight="1">
+      <c r="A95" s="18"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="19">
+        <f>(TRUNC((D94-0.1)/0.15,0)+1)</f>
+        <v>4</v>
+      </c>
+      <c r="D95" s="20">
+        <f>0.57-0.1</f>
+        <v>0.47</v>
+      </c>
+      <c r="E95" s="21">
+        <f t="shared" si="6"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F95" s="21">
+        <f t="shared" si="7"/>
+        <v>0.74271604938271596</v>
+      </c>
+      <c r="G95" s="89">
+        <f t="shared" si="8"/>
+        <v>7.4271604938271594E-4</v>
+      </c>
+      <c r="H95" s="22"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="21"/>
+    </row>
+    <row r="96" spans="1:20" ht="15" customHeight="1">
+      <c r="A96" s="18"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="19">
+        <f>(TRUNC((D97-0.1)/0.15,0)+1)</f>
+        <v>5</v>
+      </c>
+      <c r="D96" s="20">
+        <f>1.65-0.1</f>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="E96" s="21">
+        <f t="shared" si="6"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F96" s="21">
+        <f t="shared" si="7"/>
+        <v>3.0617283950617278</v>
+      </c>
+      <c r="G96" s="89">
+        <f t="shared" si="8"/>
+        <v>3.0617283950617278E-3</v>
+      </c>
+      <c r="H96" s="22"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="21"/>
+    </row>
+    <row r="97" spans="1:22" ht="15" customHeight="1">
+      <c r="A97" s="18"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="19">
+        <f>(TRUNC((D96-0.1)/0.15,0)+1)</f>
+        <v>10</v>
+      </c>
+      <c r="D97" s="20">
+        <f>0.84-0.1</f>
+        <v>0.74</v>
+      </c>
+      <c r="E97" s="21">
+        <f t="shared" si="6"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F97" s="21">
+        <f t="shared" si="7"/>
+        <v>2.9234567901234567</v>
+      </c>
+      <c r="G97" s="89">
+        <f t="shared" si="8"/>
+        <v>2.9234567901234567E-3</v>
+      </c>
+      <c r="H97" s="22"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="21"/>
+    </row>
+    <row r="98" spans="1:22" ht="15" customHeight="1">
+      <c r="A98" s="18"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="19">
+        <f>TRUNC((D99-0.1)/0.15,0)+1</f>
+        <v>5</v>
+      </c>
+      <c r="D98" s="20">
+        <f>0.92-0.1</f>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="E98" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F98" s="21">
+        <f>PRODUCT(C98:E98)</f>
+        <v>1.6197530864197531</v>
+      </c>
+      <c r="G98" s="89">
+        <f>F98/1000</f>
+        <v>1.6197530864197531E-3</v>
+      </c>
+      <c r="H98" s="22"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="21"/>
+    </row>
+    <row r="99" spans="1:22" ht="15" customHeight="1">
+      <c r="A99" s="18"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="19">
+        <f>(TRUNC((D98-0.1)/0.15,0)+1)</f>
+        <v>5</v>
+      </c>
+      <c r="D99" s="20">
+        <f>0.8-0.1</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E99" s="21">
+        <f>8*8/162</f>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="F99" s="21">
+        <f>PRODUCT(C99:E99)</f>
+        <v>1.3827160493827162</v>
+      </c>
+      <c r="G99" s="89">
+        <f>F99/1000</f>
+        <v>1.3827160493827162E-3</v>
+      </c>
+      <c r="H99" s="22"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="21"/>
+    </row>
+    <row r="100" spans="1:22" ht="15" customHeight="1">
+      <c r="A100" s="18"/>
+      <c r="B100" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C100" s="19"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="173">
+        <f>SUM(G92:G99)</f>
+        <v>2.9609876543209884E-2</v>
+      </c>
+      <c r="H100" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I100" s="23">
+        <v>131940</v>
+      </c>
+      <c r="J100" s="39">
+        <f>G100*I100</f>
+        <v>3906.7271111111122</v>
+      </c>
+      <c r="K100" s="21"/>
+    </row>
+    <row r="101" spans="1:22" ht="15" hidden="1" customHeight="1">
+      <c r="A101" s="18"/>
+      <c r="B101" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="19"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="22"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="39">
+        <f>0.13*G100*106200</f>
+        <v>408.79395555555567</v>
+      </c>
+      <c r="K101" s="21"/>
+    </row>
+    <row r="102" spans="1:22" ht="15" customHeight="1">
+      <c r="A102" s="18"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="39"/>
+      <c r="K102" s="21"/>
+    </row>
+    <row r="103" spans="1:22" ht="30">
+      <c r="A103" s="130">
+        <v>11</v>
+      </c>
+      <c r="B103" s="143" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" s="133"/>
+      <c r="D103" s="134"/>
+      <c r="E103" s="135"/>
+      <c r="F103" s="135"/>
+      <c r="G103" s="144"/>
+      <c r="H103" s="145"/>
+      <c r="I103" s="144"/>
+      <c r="J103" s="146"/>
+      <c r="K103" s="21"/>
+    </row>
+    <row r="104" spans="1:22" ht="15" customHeight="1">
+      <c r="A104" s="130"/>
+      <c r="B104" s="132" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" s="147">
+        <f>2*8</f>
+        <v>16</v>
+      </c>
+      <c r="D104" s="148">
+        <v>0.66</v>
+      </c>
+      <c r="E104" s="148"/>
+      <c r="F104" s="148">
+        <v>0.1</v>
+      </c>
+      <c r="G104" s="136">
+        <f>PRODUCT(C104:F104)</f>
+        <v>1.056</v>
+      </c>
+      <c r="H104" s="149"/>
+      <c r="I104" s="149"/>
+      <c r="J104" s="149"/>
+      <c r="K104" s="171"/>
+    </row>
+    <row r="105" spans="1:22" ht="15" customHeight="1">
+      <c r="A105" s="130"/>
+      <c r="B105" s="132"/>
+      <c r="C105" s="147">
+        <f>2*8</f>
+        <v>16</v>
+      </c>
+      <c r="D105" s="148">
+        <v>0.92</v>
+      </c>
+      <c r="E105" s="148"/>
+      <c r="F105" s="148">
+        <v>0.1</v>
+      </c>
+      <c r="G105" s="136">
+        <f t="shared" ref="G105:G112" si="9">PRODUCT(C105:F105)</f>
+        <v>1.4720000000000002</v>
+      </c>
+      <c r="H105" s="149"/>
+      <c r="I105" s="149"/>
+      <c r="J105" s="149"/>
+      <c r="K105" s="171"/>
+    </row>
+    <row r="106" spans="1:22" ht="15" customHeight="1">
+      <c r="A106" s="130"/>
+      <c r="B106" s="132"/>
+      <c r="C106" s="147">
+        <f>2*1</f>
+        <v>2</v>
+      </c>
+      <c r="D106" s="148">
+        <v>0.66</v>
+      </c>
+      <c r="E106" s="148"/>
+      <c r="F106" s="148">
+        <v>0.1</v>
+      </c>
+      <c r="G106" s="136">
+        <f t="shared" si="9"/>
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H106" s="149"/>
+      <c r="I106" s="149"/>
+      <c r="J106" s="149"/>
+      <c r="K106" s="171"/>
+    </row>
+    <row r="107" spans="1:22" ht="15" customHeight="1">
+      <c r="A107" s="130"/>
+      <c r="B107" s="132"/>
+      <c r="C107" s="147">
+        <f>2*1</f>
+        <v>2</v>
+      </c>
+      <c r="D107" s="148">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E107" s="148"/>
+      <c r="F107" s="148">
+        <v>0.1</v>
+      </c>
+      <c r="G107" s="136">
+        <f t="shared" si="9"/>
+        <v>0.11399999999999999</v>
+      </c>
+      <c r="H107" s="149"/>
+      <c r="I107" s="149"/>
+      <c r="J107" s="149"/>
+      <c r="K107" s="171"/>
+    </row>
+    <row r="108" spans="1:22" ht="15" customHeight="1">
+      <c r="A108" s="130"/>
+      <c r="B108" s="132"/>
+      <c r="C108" s="147">
+        <f t="shared" ref="C108:C111" si="10">2*1</f>
+        <v>2</v>
+      </c>
+      <c r="D108" s="148">
+        <v>1.65</v>
+      </c>
+      <c r="E108" s="148"/>
+      <c r="F108" s="148">
+        <v>0.1</v>
+      </c>
+      <c r="G108" s="136">
+        <f t="shared" si="9"/>
+        <v>0.33</v>
+      </c>
+      <c r="H108" s="149"/>
+      <c r="I108" s="149"/>
+      <c r="J108" s="149"/>
+      <c r="K108" s="171"/>
+    </row>
+    <row r="109" spans="1:22" ht="15" customHeight="1">
+      <c r="A109" s="130"/>
+      <c r="B109" s="132"/>
+      <c r="C109" s="147">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="D109" s="148">
+        <v>0.84</v>
+      </c>
+      <c r="E109" s="148"/>
+      <c r="F109" s="148">
+        <v>0.1</v>
+      </c>
+      <c r="G109" s="136">
+        <f t="shared" si="9"/>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H109" s="149"/>
+      <c r="I109" s="149"/>
+      <c r="J109" s="149"/>
+      <c r="K109" s="171"/>
+    </row>
+    <row r="110" spans="1:22" ht="15" customHeight="1">
+      <c r="A110" s="130"/>
+      <c r="B110" s="132"/>
+      <c r="C110" s="147">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="D110" s="148">
+        <v>0.92</v>
+      </c>
+      <c r="E110" s="148"/>
+      <c r="F110" s="148">
+        <v>0.1</v>
+      </c>
+      <c r="G110" s="136">
+        <f t="shared" si="9"/>
+        <v>0.18400000000000002</v>
+      </c>
+      <c r="H110" s="149"/>
+      <c r="I110" s="149"/>
+      <c r="J110" s="149"/>
+      <c r="K110" s="171"/>
+      <c r="M110" s="125"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1"/>
+      <c r="T110" s="1"/>
+      <c r="U110" s="1"/>
+      <c r="V110" s="1"/>
+    </row>
+    <row r="111" spans="1:22" ht="15" customHeight="1">
+      <c r="A111" s="130"/>
+      <c r="B111" s="132"/>
+      <c r="C111" s="147">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="D111" s="148">
+        <v>0.8</v>
+      </c>
+      <c r="E111" s="148"/>
+      <c r="F111" s="148">
+        <v>0.1</v>
+      </c>
+      <c r="G111" s="136">
+        <f t="shared" si="9"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="H111" s="149"/>
+      <c r="I111" s="149"/>
+      <c r="J111" s="149"/>
+      <c r="K111" s="171"/>
+      <c r="M111" s="125"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+    </row>
+    <row r="112" spans="1:22" ht="15" customHeight="1">
+      <c r="A112" s="130"/>
+      <c r="B112" s="132" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" s="147">
+        <v>2</v>
+      </c>
+      <c r="D112" s="148">
+        <v>0.9</v>
+      </c>
+      <c r="E112" s="148"/>
+      <c r="F112" s="148">
+        <v>0.1</v>
+      </c>
+      <c r="G112" s="136">
+        <f t="shared" si="9"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="H112" s="149"/>
+      <c r="I112" s="149"/>
+      <c r="J112" s="149"/>
+      <c r="K112" s="171"/>
+      <c r="M112" s="125"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1"/>
+      <c r="T112" s="1"/>
+      <c r="U112" s="1"/>
+      <c r="V112" s="1"/>
+    </row>
+    <row r="113" spans="1:22" ht="15" customHeight="1">
+      <c r="A113" s="130"/>
+      <c r="B113" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" s="147"/>
+      <c r="D113" s="148"/>
+      <c r="E113" s="148"/>
+      <c r="F113" s="148"/>
+      <c r="G113" s="150">
+        <f>SUM(G104:G112)</f>
+        <v>3.7960000000000012</v>
+      </c>
+      <c r="H113" s="149" t="s">
+        <v>41</v>
+      </c>
+      <c r="I113" s="144">
+        <f>81404.27/100</f>
+        <v>814.04270000000008</v>
+      </c>
+      <c r="J113" s="151">
+        <f>G113*I113</f>
+        <v>3090.1060892000014</v>
+      </c>
+      <c r="K113" s="21"/>
+      <c r="M113" s="125"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1"/>
+      <c r="T113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="1"/>
+    </row>
+    <row r="114" spans="1:22" ht="15" hidden="1" customHeight="1">
+      <c r="A114" s="130"/>
+      <c r="B114" s="132" t="s">
+        <v>38</v>
+      </c>
+      <c r="C114" s="147"/>
+      <c r="D114" s="148"/>
+      <c r="E114" s="148"/>
+      <c r="F114" s="148"/>
+      <c r="G114" s="136"/>
+      <c r="H114" s="149"/>
+      <c r="I114" s="149"/>
+      <c r="J114" s="151">
+        <f>0.13*G113*36690.27/100</f>
+        <v>181.05914439600005</v>
+      </c>
+      <c r="K114" s="21"/>
+      <c r="M114" s="125"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1"/>
+      <c r="T114" s="1"/>
+      <c r="U114" s="1"/>
+      <c r="V114" s="1"/>
+    </row>
+    <row r="115" spans="1:22" ht="15" customHeight="1">
+      <c r="A115" s="18"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="38"/>
+      <c r="J115" s="40"/>
+      <c r="K115" s="21"/>
+      <c r="M115" s="125"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+      <c r="U115" s="1"/>
+      <c r="V115" s="1"/>
+    </row>
+    <row r="116" spans="1:22" ht="30">
+      <c r="A116" s="18">
+        <v>12</v>
+      </c>
+      <c r="B116" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" s="34"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="38"/>
+      <c r="J116" s="40"/>
+      <c r="K116" s="21"/>
+      <c r="M116" s="125"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+    </row>
+    <row r="117" spans="1:22" ht="15" customHeight="1">
+      <c r="A117" s="18"/>
+      <c r="B117" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" s="34">
+        <v>8</v>
+      </c>
+      <c r="D117" s="36">
+        <f>D104</f>
+        <v>0.66</v>
+      </c>
+      <c r="E117" s="36">
+        <v>0.92</v>
+      </c>
+      <c r="F117" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G117" s="37">
+        <f>PRODUCT(C117:F117)</f>
+        <v>0.48576000000000008</v>
+      </c>
+      <c r="H117" s="38"/>
+      <c r="I117" s="38"/>
+      <c r="J117" s="38"/>
+      <c r="K117" s="171"/>
+      <c r="M117" s="125"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="1"/>
+    </row>
+    <row r="118" spans="1:22" ht="15" customHeight="1">
+      <c r="A118" s="18"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="34">
+        <v>1</v>
+      </c>
+      <c r="D118" s="36">
+        <f t="shared" ref="D118" si="11">D106</f>
+        <v>0.66</v>
+      </c>
+      <c r="E118" s="36">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F118" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G118" s="37">
+        <f t="shared" ref="G118:G121" si="12">PRODUCT(C118:F118)</f>
+        <v>3.7620000000000001E-2</v>
+      </c>
+      <c r="H118" s="38"/>
+      <c r="I118" s="38"/>
+      <c r="J118" s="38"/>
+      <c r="K118" s="171"/>
+      <c r="M118" s="125">
+        <f>E117*8+E118+D119+D120</f>
+        <v>10.5</v>
+      </c>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+    </row>
+    <row r="119" spans="1:22" ht="15" customHeight="1">
+      <c r="A119" s="18"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="34">
+        <v>1</v>
+      </c>
+      <c r="D119" s="36">
+        <f t="shared" ref="D119" si="13">D108</f>
+        <v>1.65</v>
+      </c>
+      <c r="E119" s="36">
+        <v>0.84</v>
+      </c>
+      <c r="F119" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G119" s="37">
+        <f t="shared" si="12"/>
+        <v>0.1386</v>
+      </c>
+      <c r="H119" s="38"/>
+      <c r="I119" s="38"/>
+      <c r="J119" s="38"/>
+      <c r="K119" s="171"/>
+      <c r="M119" s="125"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+    </row>
+    <row r="120" spans="1:22" ht="15" customHeight="1">
+      <c r="A120" s="18"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="34">
+        <v>1</v>
+      </c>
+      <c r="D120" s="36">
+        <f t="shared" ref="D120" si="14">D110</f>
+        <v>0.92</v>
+      </c>
+      <c r="E120" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="F120" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G120" s="37">
+        <f t="shared" si="12"/>
+        <v>7.3600000000000013E-2</v>
+      </c>
+      <c r="H120" s="38"/>
+      <c r="I120" s="38"/>
+      <c r="J120" s="38"/>
+      <c r="K120" s="171"/>
+      <c r="M120" s="125"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+    </row>
+    <row r="121" spans="1:22" ht="15" customHeight="1">
+      <c r="A121" s="18"/>
+      <c r="B121" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C121" s="34">
+        <v>1</v>
+      </c>
+      <c r="D121" s="36">
+        <f>D70</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E121" s="36">
+        <f>E70</f>
+        <v>0.91</v>
+      </c>
+      <c r="F121" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="G121" s="37">
+        <f t="shared" si="12"/>
+        <v>0.20020000000000004</v>
+      </c>
+      <c r="H121" s="38"/>
+      <c r="I121" s="38"/>
+      <c r="J121" s="38"/>
+      <c r="K121" s="171"/>
+    </row>
+    <row r="122" spans="1:22" ht="15" customHeight="1">
+      <c r="A122" s="18"/>
+      <c r="B122" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" s="34"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="32">
+        <f>SUM(G117:G121)</f>
+        <v>0.93578000000000006</v>
+      </c>
+      <c r="H122" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="I122" s="23">
+        <v>13568.9</v>
+      </c>
+      <c r="J122" s="40">
+        <f>G122*I122</f>
+        <v>12697.505242000001</v>
+      </c>
+      <c r="K122" s="21"/>
+    </row>
+    <row r="123" spans="1:22" ht="15" hidden="1" customHeight="1">
+      <c r="A123" s="18"/>
+      <c r="B123" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123" s="34"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="36"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="38"/>
+      <c r="I123" s="38"/>
+      <c r="J123" s="40">
+        <f>0.13*G122*9524.2</f>
+        <v>1158.6322638800002</v>
+      </c>
+      <c r="K123" s="21"/>
+    </row>
+    <row r="124" spans="1:22" ht="15" customHeight="1">
+      <c r="A124" s="18"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="38"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="21"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1"/>
+      <c r="T124" s="1"/>
+      <c r="U124" s="1"/>
+      <c r="V124" s="1"/>
+    </row>
+    <row r="125" spans="1:22" ht="30.75">
+      <c r="A125" s="18">
+        <v>13</v>
+      </c>
+      <c r="B125" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="E125" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="F125" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="G125" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="H125" s="22"/>
+      <c r="I125" s="23"/>
+      <c r="J125" s="39"/>
+      <c r="K125" s="21"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1"/>
+      <c r="T125" s="1"/>
+      <c r="U125" s="1"/>
+      <c r="V125" s="1"/>
+    </row>
+    <row r="126" spans="1:22">
+      <c r="A126" s="118"/>
+      <c r="B126" s="122" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126" s="120">
+        <f>2*308</f>
+        <v>616</v>
+      </c>
+      <c r="D126" s="12">
+        <f>0.135</f>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E126" s="12">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F126" s="21">
+        <f>PRODUCT(C126:E126)</f>
+        <v>61.372080000000004</v>
+      </c>
+      <c r="G126" s="89">
+        <f>F126</f>
+        <v>61.372080000000004</v>
+      </c>
+      <c r="H126" s="118"/>
+      <c r="I126" s="121"/>
+      <c r="J126" s="121"/>
+      <c r="K126" s="119"/>
+      <c r="M126" s="1">
+        <f>308*2</f>
+        <v>616</v>
+      </c>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1"/>
+      <c r="T126" s="1"/>
+      <c r="U126" s="1"/>
+      <c r="V126" s="1"/>
+    </row>
+    <row r="127" spans="1:22" s="1" customFormat="1" ht="30">
+      <c r="A127" s="118"/>
+      <c r="B127" s="123" t="s">
+        <v>122</v>
+      </c>
+      <c r="C127" s="120">
+        <v>4</v>
+      </c>
+      <c r="D127" s="12">
+        <v>2.64</v>
+      </c>
+      <c r="E127" s="12">
+        <v>2.72</v>
+      </c>
+      <c r="F127" s="12">
+        <f t="shared" ref="F127:F138" si="15">PRODUCT(C127:E127)</f>
+        <v>28.723200000000002</v>
+      </c>
+      <c r="G127" s="124">
+        <f t="shared" ref="G127:G138" si="16">F127</f>
+        <v>28.723200000000002</v>
+      </c>
+      <c r="H127" s="121"/>
+      <c r="I127" s="121"/>
+      <c r="J127" s="121"/>
+      <c r="K127" s="119"/>
+    </row>
+    <row r="128" spans="1:22" s="1" customFormat="1">
+      <c r="A128" s="118"/>
+      <c r="B128" s="123"/>
+      <c r="C128" s="120">
+        <v>4</v>
+      </c>
+      <c r="D128" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="E128" s="12">
+        <v>2.72</v>
+      </c>
+      <c r="F128" s="12">
+        <f t="shared" si="15"/>
+        <v>4.8960000000000008</v>
+      </c>
+      <c r="G128" s="124">
+        <f t="shared" si="16"/>
+        <v>4.8960000000000008</v>
+      </c>
+      <c r="H128" s="121"/>
+      <c r="I128" s="121"/>
+      <c r="J128" s="121"/>
+      <c r="K128" s="119"/>
+    </row>
+    <row r="129" spans="1:22" s="1" customFormat="1">
+      <c r="A129" s="118"/>
+      <c r="B129" s="123"/>
+      <c r="C129" s="120">
+        <v>2</v>
+      </c>
+      <c r="D129" s="12">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E129" s="12">
+        <v>2.72</v>
+      </c>
+      <c r="F129" s="12">
+        <f t="shared" si="15"/>
+        <v>12.512</v>
+      </c>
+      <c r="G129" s="124">
+        <f t="shared" si="16"/>
+        <v>12.512</v>
+      </c>
+      <c r="H129" s="121"/>
+      <c r="I129" s="121"/>
+      <c r="J129" s="121"/>
+      <c r="K129" s="119"/>
+    </row>
+    <row r="130" spans="1:22" s="1" customFormat="1">
+      <c r="A130" s="118"/>
+      <c r="B130" s="170" t="s">
+        <v>145</v>
+      </c>
+      <c r="C130" s="120">
+        <v>4</v>
+      </c>
+      <c r="D130" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="E130" s="12">
+        <v>2.72</v>
+      </c>
+      <c r="F130" s="12">
+        <f t="shared" si="15"/>
+        <v>19.040000000000003</v>
+      </c>
+      <c r="G130" s="124">
+        <f t="shared" si="16"/>
+        <v>19.040000000000003</v>
+      </c>
+      <c r="H130" s="121"/>
+      <c r="I130" s="121"/>
+      <c r="J130" s="121"/>
+      <c r="K130" s="119"/>
+    </row>
+    <row r="131" spans="1:22" s="1" customFormat="1">
+      <c r="A131" s="118"/>
+      <c r="B131" s="169"/>
+      <c r="C131" s="120">
+        <v>4</v>
+      </c>
+      <c r="D131" s="12">
+        <v>1.39</v>
+      </c>
+      <c r="E131" s="12">
+        <v>2.72</v>
+      </c>
+      <c r="F131" s="12">
+        <f t="shared" si="15"/>
+        <v>15.123200000000001</v>
+      </c>
+      <c r="G131" s="124">
+        <f t="shared" si="16"/>
+        <v>15.123200000000001</v>
+      </c>
+      <c r="H131" s="121"/>
+      <c r="I131" s="121"/>
+      <c r="J131" s="121"/>
+      <c r="K131" s="119"/>
+    </row>
+    <row r="132" spans="1:22" s="1" customFormat="1" ht="45">
+      <c r="A132" s="118"/>
+      <c r="B132" s="123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C132" s="120">
+        <v>1</v>
+      </c>
+      <c r="D132" s="12">
+        <f>43.75/3.281</f>
+        <v>13.334349283754952</v>
+      </c>
+      <c r="E132" s="12">
+        <v>3.87</v>
+      </c>
+      <c r="F132" s="12">
+        <f t="shared" si="15"/>
+        <v>51.603931728131663</v>
+      </c>
+      <c r="G132" s="124">
+        <f t="shared" si="16"/>
+        <v>51.603931728131663</v>
+      </c>
+      <c r="H132" s="121"/>
+      <c r="I132" s="121"/>
+      <c r="J132" s="121"/>
+      <c r="K132" s="119"/>
+    </row>
+    <row r="133" spans="1:22" s="1" customFormat="1">
+      <c r="A133" s="118"/>
+      <c r="B133" s="123"/>
+      <c r="C133" s="120">
+        <v>1</v>
+      </c>
+      <c r="D133" s="12">
+        <f>43.75/3.281-3.4</f>
+        <v>9.9343492837549512</v>
+      </c>
+      <c r="E133" s="12">
+        <v>3.87</v>
+      </c>
+      <c r="F133" s="12">
+        <f t="shared" si="15"/>
+        <v>38.445931728131661</v>
+      </c>
+      <c r="G133" s="124">
+        <f t="shared" si="16"/>
+        <v>38.445931728131661</v>
+      </c>
+      <c r="H133" s="121"/>
+      <c r="I133" s="121"/>
+      <c r="J133" s="121"/>
+      <c r="K133" s="119"/>
+    </row>
+    <row r="134" spans="1:22" s="1" customFormat="1">
+      <c r="A134" s="118"/>
+      <c r="B134" s="123"/>
+      <c r="C134" s="120">
+        <v>1</v>
+      </c>
+      <c r="D134" s="12">
+        <f>(D132+D133)/2</f>
+        <v>11.63434928375495</v>
+      </c>
+      <c r="E134" s="12">
+        <v>3.87</v>
+      </c>
+      <c r="F134" s="12">
+        <f t="shared" si="15"/>
+        <v>45.024931728131662</v>
+      </c>
+      <c r="G134" s="124">
+        <f t="shared" si="16"/>
+        <v>45.024931728131662</v>
+      </c>
+      <c r="H134" s="121"/>
+      <c r="I134" s="121"/>
+      <c r="J134" s="121"/>
+      <c r="K134" s="119"/>
+    </row>
+    <row r="135" spans="1:22" s="1" customFormat="1">
+      <c r="A135" s="118"/>
+      <c r="B135" s="123"/>
+      <c r="C135" s="120">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="D135" s="12">
+        <f>25.17/3.281</f>
+        <v>7.6714416336482785</v>
+      </c>
+      <c r="E135" s="12">
+        <v>3.87</v>
+      </c>
+      <c r="F135" s="12">
+        <f t="shared" si="15"/>
+        <v>118.75391648887535</v>
+      </c>
+      <c r="G135" s="124">
+        <f t="shared" si="16"/>
+        <v>118.75391648887535</v>
+      </c>
+      <c r="H135" s="121"/>
+      <c r="I135" s="121"/>
+      <c r="J135" s="121"/>
+      <c r="K135" s="119"/>
+    </row>
+    <row r="136" spans="1:22" s="1" customFormat="1" ht="30">
+      <c r="A136" s="118"/>
+      <c r="B136" s="123" t="s">
+        <v>157</v>
+      </c>
+      <c r="C136" s="120">
+        <f>1*2</f>
+        <v>2</v>
+      </c>
+      <c r="D136" s="12">
+        <f>3.3+0.65+4.5+4.5+1.45+4.5+1.07+4.5+2.2+4.07+0.64+1.32</f>
+        <v>32.699999999999996</v>
+      </c>
+      <c r="E136" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="F136" s="12">
+        <f t="shared" si="15"/>
+        <v>78.47999999999999</v>
+      </c>
+      <c r="G136" s="124">
+        <f t="shared" si="16"/>
+        <v>78.47999999999999</v>
+      </c>
+      <c r="H136" s="121"/>
+      <c r="I136" s="121"/>
+      <c r="J136" s="121"/>
+      <c r="K136" s="119"/>
+    </row>
+    <row r="137" spans="1:22" s="1" customFormat="1">
+      <c r="A137" s="118"/>
+      <c r="B137" s="123" t="s">
+        <v>128</v>
+      </c>
+      <c r="C137" s="120">
+        <f>34</f>
+        <v>34</v>
+      </c>
+      <c r="D137" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E137" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="F137" s="12">
+        <f t="shared" si="15"/>
+        <v>30.599999999999998</v>
+      </c>
+      <c r="G137" s="124">
+        <f t="shared" si="16"/>
+        <v>30.599999999999998</v>
+      </c>
+      <c r="H137" s="121"/>
+      <c r="I137" s="121"/>
+      <c r="J137" s="121"/>
+      <c r="K137" s="119"/>
+    </row>
+    <row r="138" spans="1:22" s="1" customFormat="1">
+      <c r="A138" s="118"/>
+      <c r="B138" s="123" t="s">
+        <v>154</v>
+      </c>
+      <c r="C138" s="120">
+        <v>274</v>
+      </c>
+      <c r="D138" s="12">
+        <f>2.5/3.281</f>
+        <v>0.76196281621456874</v>
+      </c>
+      <c r="E138" s="12">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="F138" s="12">
+        <f t="shared" si="15"/>
+        <v>147.39713501981103</v>
+      </c>
+      <c r="G138" s="124">
+        <f t="shared" si="16"/>
+        <v>147.39713501981103</v>
+      </c>
+      <c r="H138" s="121"/>
+      <c r="I138" s="121"/>
+      <c r="J138" s="121"/>
+      <c r="K138" s="119"/>
+      <c r="M138" s="1" t="e">
+        <f>#REF!*#REF!-measurement!G138*measurement!I140</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" s="1" customFormat="1" ht="30">
+      <c r="A139" s="118"/>
+      <c r="B139" s="123" t="s">
+        <v>155</v>
+      </c>
+      <c r="C139" s="120">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="D139" s="12">
+        <f>0.4+0.48+0.95+0.95+0.35+0.43+0.45+0.43+0.43+0.45+0.45+0.4+0.36+0.38+0.38+0.4+0.4</f>
+        <v>8.0900000000000016</v>
+      </c>
+      <c r="E139" s="12">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F139" s="12">
+        <f>PRODUCT(C139:E139)</f>
+        <v>18.768800000000002</v>
+      </c>
+      <c r="G139" s="124">
+        <f>F139</f>
+        <v>18.768800000000002</v>
+      </c>
+      <c r="H139" s="121"/>
+      <c r="I139" s="121"/>
+      <c r="J139" s="121"/>
+      <c r="K139" s="119"/>
+    </row>
+    <row r="140" spans="1:22" ht="15" customHeight="1">
+      <c r="A140" s="18"/>
+      <c r="B140" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C140" s="19"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="21"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="23">
+        <f>SUM(G126:G139)</f>
+        <v>670.74112669308147</v>
+      </c>
+      <c r="H140" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I140" s="23">
+        <v>181.17</v>
+      </c>
+      <c r="J140" s="39">
+        <f>G140*I140</f>
+        <v>121518.16992298556</v>
+      </c>
+      <c r="K140" s="21"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1"/>
+      <c r="T140" s="1"/>
+      <c r="U140" s="1"/>
+      <c r="V140" s="1"/>
+    </row>
+    <row r="141" spans="1:22" ht="15" hidden="1" customHeight="1">
+      <c r="A141" s="18"/>
+      <c r="B141" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C141" s="19"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="21"/>
+      <c r="G141" s="23"/>
+      <c r="H141" s="22"/>
+      <c r="I141" s="23"/>
+      <c r="J141" s="39">
+        <f>0.13*G140*1871.42/18.94</f>
+        <v>8615.6803965721028</v>
+      </c>
+      <c r="K141" s="21"/>
+    </row>
+    <row r="142" spans="1:22" ht="15" customHeight="1">
+      <c r="A142" s="18"/>
+      <c r="B142" s="35"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="21"/>
+      <c r="F142" s="21"/>
+      <c r="G142" s="23"/>
+      <c r="H142" s="22"/>
+      <c r="I142" s="23"/>
+      <c r="J142" s="39"/>
+      <c r="K142" s="21"/>
+    </row>
+    <row r="143" spans="1:22" s="1" customFormat="1" ht="30">
+      <c r="A143" s="18">
+        <v>14</v>
+      </c>
+      <c r="B143" s="126" t="s">
+        <v>124</v>
+      </c>
+      <c r="C143" s="19"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="21"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="121"/>
+      <c r="H143" s="22"/>
+      <c r="I143" s="23"/>
+      <c r="J143" s="121"/>
+      <c r="K143" s="21"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143"/>
+      <c r="S143"/>
+      <c r="T143"/>
+      <c r="U143"/>
+      <c r="V143"/>
+    </row>
+    <row r="144" spans="1:22" ht="15" customHeight="1">
+      <c r="A144" s="18"/>
+      <c r="B144" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C144" s="34">
+        <v>2</v>
+      </c>
+      <c r="D144" s="36">
+        <f>7.667/3.281</f>
+        <v>2.3367875647668392</v>
+      </c>
+      <c r="E144" s="36"/>
+      <c r="F144" s="36">
+        <f>1.04</f>
+        <v>1.04</v>
+      </c>
+      <c r="G144" s="37">
+        <f>PRODUCT(C144:F144)</f>
+        <v>4.8605181347150257</v>
+      </c>
+      <c r="H144" s="38"/>
+      <c r="I144" s="38"/>
+      <c r="J144" s="38"/>
+      <c r="K144" s="171"/>
+      <c r="N144">
+        <f>5.84+1.76</f>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" ht="15" customHeight="1">
+      <c r="A145" s="18"/>
+      <c r="B145" s="35"/>
+      <c r="C145" s="34">
+        <v>2</v>
+      </c>
+      <c r="D145" s="36">
+        <f>(10.5-0.75)/3.281</f>
+        <v>2.9716549832368178</v>
+      </c>
+      <c r="E145" s="36"/>
+      <c r="F145" s="36">
+        <f>((0.85+0.59)/2)</f>
+        <v>0.72</v>
+      </c>
+      <c r="G145" s="37">
+        <f t="shared" ref="G145:G156" si="17">PRODUCT(C145:F145)</f>
+        <v>4.279183175861017</v>
+      </c>
+      <c r="H145" s="38"/>
+      <c r="I145" s="38"/>
+      <c r="J145" s="38"/>
+      <c r="K145" s="171"/>
+    </row>
+    <row r="146" spans="1:11" ht="15" customHeight="1">
+      <c r="A146" s="18"/>
+      <c r="B146" s="35"/>
+      <c r="C146" s="34">
+        <v>2</v>
+      </c>
+      <c r="D146" s="36">
+        <f>1.4-0.3-0.23</f>
+        <v>0.86999999999999988</v>
+      </c>
+      <c r="E146" s="36"/>
+      <c r="F146" s="36">
+        <f>0.18</f>
+        <v>0.18</v>
+      </c>
+      <c r="G146" s="37">
+        <f t="shared" si="17"/>
+        <v>0.31319999999999992</v>
+      </c>
+      <c r="H146" s="38"/>
+      <c r="I146" s="38"/>
+      <c r="J146" s="38"/>
+      <c r="K146" s="171"/>
+    </row>
+    <row r="147" spans="1:11" ht="15" customHeight="1">
+      <c r="A147" s="18"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="34">
+        <v>2</v>
+      </c>
+      <c r="D147" s="36">
+        <f>13.833/3.281</f>
+        <v>4.2160926546784516</v>
+      </c>
+      <c r="E147" s="36"/>
+      <c r="F147" s="36">
+        <f>(0.5+0.85)/2</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G147" s="37">
+        <f t="shared" si="17"/>
+        <v>5.6917250838159097</v>
+      </c>
+      <c r="H147" s="38"/>
+      <c r="I147" s="38"/>
+      <c r="J147" s="38"/>
+      <c r="K147" s="171"/>
+    </row>
+    <row r="148" spans="1:11" ht="15" customHeight="1">
+      <c r="A148" s="18"/>
+      <c r="B148" s="35"/>
+      <c r="C148" s="34">
+        <v>2</v>
+      </c>
+      <c r="D148" s="36">
+        <f>9.42/3.281</f>
+        <v>2.8710758914964947</v>
+      </c>
+      <c r="E148" s="36"/>
+      <c r="F148" s="36">
+        <f>(((0.5-0.08)+0.39)/2)</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="G148" s="37">
+        <f t="shared" si="17"/>
+        <v>2.325571472112161</v>
+      </c>
+      <c r="H148" s="38"/>
+      <c r="I148" s="38"/>
+      <c r="J148" s="38"/>
+      <c r="K148" s="171"/>
+    </row>
+    <row r="149" spans="1:11" ht="15" customHeight="1">
+      <c r="A149" s="18"/>
+      <c r="B149" s="35"/>
+      <c r="C149" s="34">
+        <v>2</v>
+      </c>
+      <c r="D149" s="36">
+        <f>1.35-0.31</f>
+        <v>1.04</v>
+      </c>
+      <c r="E149" s="36"/>
+      <c r="F149" s="36">
+        <f>((0.08+0.1)/2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="G149" s="37">
+        <f t="shared" si="17"/>
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="H149" s="38"/>
+      <c r="I149" s="38"/>
+      <c r="J149" s="38"/>
+      <c r="K149" s="171"/>
+    </row>
+    <row r="150" spans="1:11" ht="15" customHeight="1">
+      <c r="A150" s="18"/>
+      <c r="B150" s="35"/>
+      <c r="C150" s="34">
+        <v>2</v>
+      </c>
+      <c r="D150" s="36">
+        <f>9.42/3.281</f>
+        <v>2.8710758914964947</v>
+      </c>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36">
+        <f>((0.4+0.39)/2)</f>
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="G150" s="37">
+        <f t="shared" si="17"/>
+        <v>2.2681499542822308</v>
+      </c>
+      <c r="H150" s="38"/>
+      <c r="I150" s="38"/>
+      <c r="J150" s="38"/>
+      <c r="K150" s="171"/>
+    </row>
+    <row r="151" spans="1:11" ht="15" customHeight="1">
+      <c r="A151" s="18"/>
+      <c r="B151" s="35"/>
+      <c r="C151" s="34">
+        <v>2</v>
+      </c>
+      <c r="D151" s="36">
+        <f>1.39-0.3</f>
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="E151" s="36"/>
+      <c r="F151" s="36">
+        <f>((0.12+0.1)/2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="G151" s="37">
+        <f t="shared" si="17"/>
+        <v>0.23979999999999996</v>
+      </c>
+      <c r="H151" s="38"/>
+      <c r="I151" s="38"/>
+      <c r="J151" s="38"/>
+      <c r="K151" s="171"/>
+    </row>
+    <row r="152" spans="1:11" ht="15" customHeight="1">
+      <c r="A152" s="18"/>
+      <c r="B152" s="35"/>
+      <c r="C152" s="34">
+        <v>2</v>
+      </c>
+      <c r="D152" s="36">
+        <f>7.333/3.281</f>
+        <v>2.234989332520573</v>
+      </c>
+      <c r="E152" s="36"/>
+      <c r="F152" s="36">
+        <f>((1.02+1.08)/2)</f>
+        <v>1.05</v>
+      </c>
+      <c r="G152" s="37">
+        <f t="shared" si="17"/>
+        <v>4.6934775982932031</v>
+      </c>
+      <c r="H152" s="38"/>
+      <c r="I152" s="38"/>
+      <c r="J152" s="38"/>
+      <c r="K152" s="171"/>
+    </row>
+    <row r="153" spans="1:11" ht="15" customHeight="1">
+      <c r="A153" s="18"/>
+      <c r="B153" s="35"/>
+      <c r="C153" s="34">
+        <v>2</v>
+      </c>
+      <c r="D153" s="36">
+        <f>4.27-0.3</f>
+        <v>3.9699999999999998</v>
+      </c>
+      <c r="E153" s="36"/>
+      <c r="F153" s="36">
+        <f>((0.5+0.85)/2)</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G153" s="37">
+        <f t="shared" si="17"/>
+        <v>5.3594999999999997</v>
+      </c>
+      <c r="H153" s="38"/>
+      <c r="I153" s="38"/>
+      <c r="J153" s="38"/>
+      <c r="K153" s="171"/>
+    </row>
+    <row r="154" spans="1:11" ht="15" customHeight="1">
+      <c r="A154" s="18"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="34">
+        <v>2</v>
+      </c>
+      <c r="D154" s="36">
+        <f>9.5/3.281</f>
+        <v>2.895458701615361</v>
+      </c>
+      <c r="E154" s="36"/>
+      <c r="F154" s="36">
+        <f>((0.32+0.38)/2)</f>
+        <v>0.35</v>
+      </c>
+      <c r="G154" s="37">
+        <f t="shared" si="17"/>
+        <v>2.0268210911307527</v>
+      </c>
+      <c r="H154" s="38"/>
+      <c r="I154" s="38"/>
+      <c r="J154" s="38"/>
+      <c r="K154" s="171"/>
+    </row>
+    <row r="155" spans="1:11" ht="15" customHeight="1">
+      <c r="A155" s="18"/>
+      <c r="B155" s="35"/>
+      <c r="C155" s="34">
+        <v>2</v>
+      </c>
+      <c r="D155" s="36">
+        <f>5.333/3.281</f>
+        <v>1.6254190795489181</v>
+      </c>
+      <c r="E155" s="36"/>
+      <c r="F155" s="36">
+        <f>((0.12+0.1)/2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="G155" s="37">
+        <f t="shared" si="17"/>
+        <v>0.35759219750076199</v>
+      </c>
+      <c r="H155" s="38"/>
+      <c r="I155" s="38"/>
+      <c r="J155" s="38"/>
+      <c r="K155" s="171"/>
+    </row>
+    <row r="156" spans="1:11" ht="15" customHeight="1">
+      <c r="A156" s="18"/>
+      <c r="B156" s="35"/>
+      <c r="C156" s="34">
+        <v>2</v>
+      </c>
+      <c r="D156" s="36">
+        <f>25.17/3.281</f>
+        <v>7.6714416336482785</v>
+      </c>
+      <c r="E156" s="36"/>
+      <c r="F156" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G156" s="37">
+        <f t="shared" si="17"/>
+        <v>7.6714416336482785</v>
+      </c>
+      <c r="H156" s="38"/>
+      <c r="I156" s="38"/>
+      <c r="J156" s="38"/>
+      <c r="K156" s="171"/>
+    </row>
+    <row r="157" spans="1:11" ht="15" customHeight="1">
+      <c r="A157" s="18"/>
+      <c r="B157" s="123" t="s">
+        <v>142</v>
+      </c>
+      <c r="C157" s="34">
+        <v>2</v>
+      </c>
+      <c r="D157" s="36">
+        <f>23.333/3.281</f>
+        <v>7.1115513562938117</v>
+      </c>
+      <c r="E157" s="36"/>
+      <c r="F157" s="36">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="G157" s="37">
+        <f>PRODUCT(C157:F157)</f>
+        <v>2.8446205425175251</v>
+      </c>
+      <c r="H157" s="38"/>
+      <c r="I157" s="38"/>
+      <c r="J157" s="38"/>
+      <c r="K157" s="171"/>
+    </row>
+    <row r="158" spans="1:11" ht="15" customHeight="1">
+      <c r="A158" s="18"/>
+      <c r="B158" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C158" s="34">
+        <v>2</v>
+      </c>
+      <c r="D158" s="36">
+        <f>2.1</f>
+        <v>2.1</v>
+      </c>
+      <c r="E158" s="36"/>
+      <c r="F158" s="36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G158" s="37">
+        <f t="shared" ref="G158:G173" si="18">PRODUCT(C158:F158)</f>
+        <v>4.620000000000001</v>
+      </c>
+      <c r="H158" s="38"/>
+      <c r="I158" s="38"/>
+      <c r="J158" s="38"/>
+      <c r="K158" s="171"/>
+    </row>
+    <row r="159" spans="1:11" ht="15" customHeight="1">
+      <c r="A159" s="18"/>
+      <c r="B159" s="35"/>
+      <c r="C159" s="34">
+        <v>1</v>
+      </c>
+      <c r="D159" s="36">
+        <f>14/3.281</f>
+        <v>4.2669917708015843</v>
+      </c>
+      <c r="E159" s="36"/>
+      <c r="F159" s="36">
+        <f>(1.85+1.55)/2</f>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="G159" s="37">
+        <f t="shared" si="18"/>
+        <v>7.2538860103626943</v>
+      </c>
+      <c r="H159" s="38"/>
+      <c r="I159" s="38"/>
+      <c r="J159" s="38"/>
+      <c r="K159" s="171"/>
+    </row>
+    <row r="160" spans="1:11" ht="15" customHeight="1">
+      <c r="A160" s="18"/>
+      <c r="B160" s="35"/>
+      <c r="C160" s="34">
+        <v>1</v>
+      </c>
+      <c r="D160" s="36">
+        <f>(22.5/3.281)</f>
+        <v>6.8576653459311183</v>
+      </c>
+      <c r="E160" s="36"/>
+      <c r="F160" s="36">
+        <f>(1.55+1.05)/2</f>
+        <v>1.3</v>
+      </c>
+      <c r="G160" s="37">
+        <f t="shared" si="18"/>
+        <v>8.9149649497104537</v>
+      </c>
+      <c r="H160" s="38"/>
+      <c r="I160" s="38"/>
+      <c r="J160" s="38"/>
+      <c r="K160" s="171"/>
+    </row>
+    <row r="161" spans="1:22" ht="15" customHeight="1">
+      <c r="A161" s="18"/>
+      <c r="B161" s="35"/>
+      <c r="C161" s="34">
+        <v>1</v>
+      </c>
+      <c r="D161" s="36">
+        <f>(19/3.281)</f>
+        <v>5.790917403230722</v>
+      </c>
+      <c r="E161" s="36"/>
+      <c r="F161" s="36">
+        <f>(1.36+0.95)/2</f>
+        <v>1.155</v>
+      </c>
+      <c r="G161" s="37">
+        <f t="shared" si="18"/>
+        <v>6.6885096007314839</v>
+      </c>
+      <c r="H161" s="38"/>
+      <c r="I161" s="38"/>
+      <c r="J161" s="38"/>
+      <c r="K161" s="171"/>
+    </row>
+    <row r="162" spans="1:22" ht="15" customHeight="1">
+      <c r="A162" s="18"/>
+      <c r="B162" s="35"/>
+      <c r="C162" s="34">
+        <v>1</v>
+      </c>
+      <c r="D162" s="36">
+        <f>34.5/3.281</f>
+        <v>10.515086863761049</v>
+      </c>
+      <c r="E162" s="36"/>
+      <c r="F162" s="36">
+        <f>(0.5+0.95)/2</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="G162" s="37">
+        <f t="shared" si="18"/>
+        <v>7.6234379762267599</v>
+      </c>
+      <c r="H162" s="38"/>
+      <c r="I162" s="38"/>
+      <c r="J162" s="38"/>
+      <c r="K162" s="171"/>
+    </row>
+    <row r="163" spans="1:22" ht="15" customHeight="1">
+      <c r="A163" s="18"/>
+      <c r="B163" s="35"/>
+      <c r="C163" s="34">
+        <v>1</v>
+      </c>
+      <c r="D163" s="36">
+        <f>34.75/3.281</f>
+        <v>10.591283145382505</v>
+      </c>
+      <c r="E163" s="36"/>
+      <c r="F163" s="36">
+        <v>1.3</v>
+      </c>
+      <c r="G163" s="37">
+        <f t="shared" si="18"/>
+        <v>13.768668088997257</v>
+      </c>
+      <c r="H163" s="38"/>
+      <c r="I163" s="38"/>
+      <c r="J163" s="38"/>
+      <c r="K163" s="171"/>
+    </row>
+    <row r="164" spans="1:22" ht="15" customHeight="1">
+      <c r="A164" s="18"/>
+      <c r="B164" s="35"/>
+      <c r="C164" s="34">
+        <v>1</v>
+      </c>
+      <c r="D164" s="36">
+        <f>3.12</f>
+        <v>3.12</v>
+      </c>
+      <c r="E164" s="36"/>
+      <c r="F164" s="36">
+        <v>1.9</v>
+      </c>
+      <c r="G164" s="37">
+        <f t="shared" si="18"/>
+        <v>5.9279999999999999</v>
+      </c>
+      <c r="H164" s="38"/>
+      <c r="I164" s="38"/>
+      <c r="J164" s="38"/>
+      <c r="K164" s="171"/>
+    </row>
+    <row r="165" spans="1:22" ht="15" customHeight="1">
+      <c r="A165" s="18"/>
+      <c r="B165" s="35"/>
+      <c r="C165" s="34">
+        <v>1</v>
+      </c>
+      <c r="D165" s="36">
+        <f>22.583/3.281</f>
+        <v>6.882962511429441</v>
+      </c>
+      <c r="E165" s="36"/>
+      <c r="F165" s="36">
+        <f>0.23+0.34</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="G165" s="37">
+        <f t="shared" si="18"/>
+        <v>3.9232886315147817</v>
+      </c>
+      <c r="H165" s="38"/>
+      <c r="I165" s="38"/>
+      <c r="J165" s="38"/>
+      <c r="K165" s="171"/>
+    </row>
+    <row r="166" spans="1:22" ht="15" customHeight="1">
+      <c r="A166" s="18"/>
+      <c r="B166" s="35"/>
+      <c r="C166" s="34">
+        <v>1</v>
+      </c>
+      <c r="D166" s="36">
+        <f>13/3.281</f>
+        <v>3.9622066443157573</v>
+      </c>
+      <c r="E166" s="36"/>
+      <c r="F166" s="36">
+        <f>0.23+0.34</f>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="G166" s="37">
+        <f t="shared" si="18"/>
+        <v>2.258457787259982</v>
+      </c>
+      <c r="H166" s="38"/>
+      <c r="I166" s="38"/>
+      <c r="J166" s="38"/>
+      <c r="K166" s="171"/>
+    </row>
+    <row r="167" spans="1:22" ht="15" customHeight="1">
+      <c r="A167" s="18"/>
+      <c r="B167" s="35"/>
+      <c r="C167" s="34">
+        <v>1</v>
+      </c>
+      <c r="D167" s="36">
+        <f>22.583/3.281</f>
+        <v>6.882962511429441</v>
+      </c>
+      <c r="E167" s="36"/>
+      <c r="F167" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="G167" s="37">
+        <f t="shared" si="18"/>
+        <v>2.064888753428832</v>
+      </c>
+      <c r="H167" s="38"/>
+      <c r="I167" s="38"/>
+      <c r="J167" s="38"/>
+      <c r="K167" s="171"/>
+    </row>
+    <row r="168" spans="1:22" ht="15" customHeight="1">
+      <c r="A168" s="18"/>
+      <c r="B168" s="35"/>
+      <c r="C168" s="34">
+        <v>1</v>
+      </c>
+      <c r="D168" s="36">
+        <v>2.1</v>
+      </c>
+      <c r="E168" s="36"/>
+      <c r="F168" s="36">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G168" s="37">
+        <f t="shared" si="18"/>
+        <v>1.218</v>
+      </c>
+      <c r="H168" s="38"/>
+      <c r="I168" s="38"/>
+      <c r="J168" s="38"/>
+      <c r="K168" s="171"/>
+    </row>
+    <row r="169" spans="1:22" ht="15" customHeight="1">
+      <c r="A169" s="18"/>
+      <c r="B169" s="35"/>
+      <c r="C169" s="34">
+        <v>1</v>
+      </c>
+      <c r="D169" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="E169" s="36"/>
+      <c r="F169" s="36">
+        <v>0.39</v>
+      </c>
+      <c r="G169" s="37">
+        <f t="shared" si="18"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="H169" s="38"/>
+      <c r="I169" s="38"/>
+      <c r="J169" s="38"/>
+      <c r="K169" s="171"/>
+    </row>
+    <row r="170" spans="1:22" ht="15" customHeight="1">
+      <c r="A170" s="18"/>
+      <c r="B170" s="35"/>
+      <c r="C170" s="34">
+        <f>9*2</f>
+        <v>18</v>
+      </c>
+      <c r="D170" s="36">
+        <v>0.125</v>
+      </c>
+      <c r="E170" s="36"/>
+      <c r="F170" s="36">
+        <v>0.94</v>
+      </c>
+      <c r="G170" s="37">
+        <f t="shared" si="18"/>
+        <v>2.1149999999999998</v>
+      </c>
+      <c r="H170" s="38"/>
+      <c r="I170" s="38"/>
+      <c r="J170" s="38"/>
+      <c r="K170" s="171"/>
+    </row>
+    <row r="171" spans="1:22" ht="15" customHeight="1">
+      <c r="A171" s="18"/>
+      <c r="B171" s="35"/>
+      <c r="C171" s="34">
+        <v>2</v>
+      </c>
+      <c r="D171" s="36">
+        <f>18.25/3.281</f>
+        <v>5.5623285583663513</v>
+      </c>
+      <c r="E171" s="36"/>
+      <c r="F171" s="36">
+        <f>(1.35+1.52)/2</f>
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="G171" s="37">
+        <f t="shared" si="18"/>
+        <v>15.963882962511429</v>
+      </c>
+      <c r="H171" s="38"/>
+      <c r="I171" s="38"/>
+      <c r="J171" s="38"/>
+      <c r="K171" s="171"/>
+    </row>
+    <row r="172" spans="1:22" ht="15" customHeight="1">
+      <c r="A172" s="18"/>
+      <c r="B172" s="35"/>
+      <c r="C172" s="34">
+        <v>1</v>
+      </c>
+      <c r="D172" s="36">
+        <f>12</f>
+        <v>12</v>
+      </c>
+      <c r="E172" s="36"/>
+      <c r="F172" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="G172" s="37">
+        <f t="shared" si="18"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="H172" s="38"/>
+      <c r="I172" s="38"/>
+      <c r="J172" s="38"/>
+      <c r="K172" s="171"/>
+    </row>
+    <row r="173" spans="1:22" ht="15" customHeight="1">
+      <c r="A173" s="18"/>
+      <c r="B173" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="C173" s="34">
+        <v>-1</v>
+      </c>
+      <c r="D173" s="36">
+        <v>0.9</v>
+      </c>
+      <c r="E173" s="36"/>
+      <c r="F173" s="36">
+        <v>0.9</v>
+      </c>
+      <c r="G173" s="37">
+        <f t="shared" si="18"/>
+        <v>-0.81</v>
+      </c>
+      <c r="H173" s="38"/>
+      <c r="I173" s="38"/>
+      <c r="J173" s="38"/>
+      <c r="K173" s="171"/>
+    </row>
+    <row r="174" spans="1:22" ht="15" customHeight="1">
+      <c r="A174" s="18"/>
+      <c r="B174" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C174" s="34"/>
+      <c r="D174" s="36"/>
+      <c r="E174" s="36"/>
+      <c r="F174" s="36"/>
+      <c r="G174" s="32">
+        <f>SUM(G144:G173)</f>
+        <v>132.43478564462052</v>
+      </c>
+      <c r="H174" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="I174" s="38">
+        <v>405.86</v>
+      </c>
+      <c r="J174" s="38">
+        <f>G174*I174</f>
+        <v>53749.982101725684</v>
+      </c>
+      <c r="K174" s="171"/>
+    </row>
+    <row r="175" spans="1:22" s="1" customFormat="1" ht="18" hidden="1">
+      <c r="A175" s="18"/>
+      <c r="B175" s="123" t="s">
+        <v>126</v>
+      </c>
+      <c r="C175" s="19"/>
+      <c r="D175" s="20"/>
+      <c r="E175" s="21"/>
+      <c r="F175" s="21"/>
+      <c r="G175" s="121"/>
+      <c r="H175" s="22"/>
+      <c r="I175" s="23"/>
+      <c r="J175" s="121">
+        <f>0.13*G174*11166.2/100</f>
+        <v>1922.4312945044503</v>
+      </c>
+      <c r="K175" s="21"/>
+      <c r="N175" s="223" t="s">
+        <v>134</v>
+      </c>
+      <c r="O175" s="223"/>
+      <c r="P175" s="223"/>
+      <c r="Q175" s="223"/>
+      <c r="R175" s="223"/>
+      <c r="S175" s="223"/>
+      <c r="T175" s="223"/>
+      <c r="U175"/>
+      <c r="V175"/>
+    </row>
+    <row r="176" spans="1:22" s="1" customFormat="1" ht="18">
+      <c r="A176" s="18"/>
+      <c r="B176" s="123"/>
+      <c r="C176" s="19"/>
+      <c r="D176" s="20"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="21"/>
+      <c r="G176" s="121"/>
+      <c r="H176" s="22"/>
+      <c r="I176" s="23"/>
+      <c r="J176" s="121"/>
+      <c r="K176" s="21"/>
+      <c r="N176" s="223" t="s">
+        <v>135</v>
+      </c>
+      <c r="O176" s="223"/>
+      <c r="P176" s="223"/>
+      <c r="Q176" s="223"/>
+      <c r="R176" s="223"/>
+      <c r="S176" s="223"/>
+      <c r="T176" s="223"/>
+      <c r="U176"/>
+      <c r="V176"/>
+    </row>
+    <row r="177" spans="1:22" ht="30.75">
+      <c r="A177" s="18">
+        <v>15</v>
+      </c>
+      <c r="B177" s="117" t="s">
+        <v>127</v>
+      </c>
+      <c r="C177" s="19"/>
+      <c r="D177" s="20"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="21"/>
+      <c r="G177" s="23"/>
+      <c r="H177" s="22"/>
+      <c r="I177" s="23"/>
+      <c r="J177" s="39"/>
+      <c r="K177" s="21"/>
+    </row>
+    <row r="178" spans="1:22" ht="15" customHeight="1">
+      <c r="A178" s="18"/>
+      <c r="B178" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C178" s="19">
+        <v>1</v>
+      </c>
+      <c r="D178" s="20"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="21"/>
+      <c r="G178" s="37">
+        <f>G174-G157</f>
+        <v>129.59016510210299</v>
+      </c>
+      <c r="H178" s="22"/>
+      <c r="I178" s="23"/>
+      <c r="J178" s="39"/>
+      <c r="K178" s="21"/>
+    </row>
+    <row r="179" spans="1:22" ht="15" customHeight="1">
+      <c r="A179" s="18"/>
+      <c r="B179" s="35"/>
+      <c r="C179" s="19">
+        <v>-2</v>
+      </c>
+      <c r="D179" s="20">
+        <f>3+8+3+(4*10/3.281)</f>
+        <v>26.191405059433102</v>
+      </c>
+      <c r="E179" s="21"/>
+      <c r="F179" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="G179" s="37">
+        <f t="shared" ref="G179" si="19">PRODUCT(C179:F179)</f>
+        <v>-23.572264553489791</v>
+      </c>
+      <c r="H179" s="22"/>
+      <c r="I179" s="23"/>
+      <c r="J179" s="39"/>
+      <c r="K179" s="21"/>
+    </row>
+    <row r="180" spans="1:22" ht="15" customHeight="1">
+      <c r="A180" s="18"/>
+      <c r="B180" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C180" s="19"/>
+      <c r="D180" s="20"/>
+      <c r="E180" s="21"/>
+      <c r="F180" s="21"/>
+      <c r="G180" s="23">
+        <f>SUM(G178:G179)</f>
+        <v>106.0179005486132</v>
+      </c>
+      <c r="H180" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I180" s="23">
+        <v>251.77</v>
+      </c>
+      <c r="J180" s="39">
+        <f>G180*I180</f>
+        <v>26692.126821124348</v>
+      </c>
+      <c r="K180" s="21"/>
+    </row>
+    <row r="181" spans="1:22" ht="15" hidden="1" customHeight="1">
+      <c r="A181" s="18"/>
+      <c r="B181" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C181" s="19"/>
+      <c r="D181" s="20"/>
+      <c r="E181" s="21"/>
+      <c r="F181" s="21"/>
+      <c r="G181" s="23"/>
+      <c r="H181" s="22"/>
+      <c r="I181" s="23"/>
+      <c r="J181" s="39">
+        <f>0.13*G180*12736/100</f>
+        <v>1755.317175803279</v>
+      </c>
+      <c r="K181" s="21"/>
+    </row>
+    <row r="182" spans="1:22" ht="15" customHeight="1">
+      <c r="A182" s="18"/>
+      <c r="B182" s="35"/>
+      <c r="C182" s="19"/>
+      <c r="D182" s="20"/>
+      <c r="E182" s="21"/>
+      <c r="F182" s="21"/>
+      <c r="G182" s="23"/>
+      <c r="H182" s="22"/>
+      <c r="I182" s="23"/>
+      <c r="J182" s="39"/>
+      <c r="K182" s="21"/>
+    </row>
+    <row r="183" spans="1:22" s="1" customFormat="1" ht="48">
+      <c r="A183" s="18">
+        <v>16</v>
+      </c>
+      <c r="B183" s="127" t="s">
+        <v>140</v>
+      </c>
+      <c r="C183" s="127"/>
+      <c r="D183" s="20"/>
+      <c r="E183" s="119"/>
+      <c r="F183" s="119"/>
+      <c r="G183" s="121"/>
+      <c r="H183" s="22"/>
+      <c r="I183" s="23"/>
+      <c r="J183" s="121"/>
+      <c r="K183" s="21"/>
+      <c r="M183"/>
+      <c r="N183"/>
+      <c r="O183"/>
+      <c r="P183"/>
+      <c r="Q183"/>
+      <c r="R183"/>
+      <c r="S183"/>
+      <c r="T183"/>
+      <c r="U183"/>
+      <c r="V183"/>
+    </row>
+    <row r="184" spans="1:22" ht="15" customHeight="1">
+      <c r="A184" s="18"/>
+      <c r="B184" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C184" s="19">
+        <v>1</v>
+      </c>
+      <c r="D184" s="20">
+        <f>25.17/3.281</f>
+        <v>7.6714416336482785</v>
+      </c>
+      <c r="E184" s="21">
+        <v>2.8</v>
+      </c>
+      <c r="F184" s="21"/>
+      <c r="G184" s="124">
+        <f t="shared" ref="G184:G185" si="20">PRODUCT(C184:F184)</f>
+        <v>21.480036574215177</v>
+      </c>
+      <c r="H184" s="22"/>
+      <c r="I184" s="23"/>
+      <c r="J184" s="39"/>
+      <c r="K184" s="21"/>
+    </row>
+    <row r="185" spans="1:22" ht="15" customHeight="1">
+      <c r="A185" s="18"/>
+      <c r="B185" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C185" s="19">
+        <v>1</v>
+      </c>
+      <c r="D185" s="20">
+        <f>32.42/3.281</f>
+        <v>9.8811338006705274</v>
+      </c>
+      <c r="E185" s="21">
+        <v>1.53</v>
+      </c>
+      <c r="F185" s="21"/>
+      <c r="G185" s="124">
+        <f t="shared" si="20"/>
+        <v>15.118134715025906</v>
+      </c>
+      <c r="H185" s="22"/>
+      <c r="I185" s="23"/>
+      <c r="J185" s="39"/>
+      <c r="K185" s="21"/>
+    </row>
+    <row r="186" spans="1:22" ht="15" customHeight="1">
+      <c r="A186" s="18"/>
+      <c r="B186" s="35"/>
+      <c r="C186" s="19">
+        <v>1</v>
+      </c>
+      <c r="D186" s="20">
+        <v>3.4</v>
+      </c>
+      <c r="E186" s="21">
+        <v>3.9</v>
+      </c>
+      <c r="F186" s="21">
+        <v>1.5328189999999999</v>
+      </c>
+      <c r="G186" s="37">
+        <f>C186*SQRT(M186*(M186-D186)*(M186-E186)*(M186-F186))</f>
+        <v>2.5854308705263742</v>
+      </c>
+      <c r="H186" s="22"/>
+      <c r="I186" s="23"/>
+      <c r="J186" s="39"/>
+      <c r="K186" s="21"/>
+      <c r="M186">
+        <f>(D186+E186+F186)/2</f>
+        <v>4.4164095000000003</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" ht="15" customHeight="1">
+      <c r="A187" s="18"/>
+      <c r="B187" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C187" s="19"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="21"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="23">
+        <f>SUM(G184:G186)</f>
+        <v>39.183602159767453</v>
+      </c>
+      <c r="H187" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I187" s="23">
+        <v>2271.5500000000002</v>
+      </c>
+      <c r="J187" s="39">
+        <f>G187*I187</f>
+        <v>89007.511486019765</v>
+      </c>
+      <c r="K187" s="21"/>
+    </row>
+    <row r="188" spans="1:22" ht="15" hidden="1" customHeight="1">
+      <c r="A188" s="18"/>
+      <c r="B188" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C188" s="19"/>
+      <c r="D188" s="20"/>
+      <c r="E188" s="21"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="23"/>
+      <c r="H188" s="22"/>
+      <c r="I188" s="23"/>
+      <c r="J188" s="39">
+        <f>0.13*G187*(20218/10)</f>
+        <v>10298.782890060318</v>
+      </c>
+      <c r="K188" s="21"/>
+    </row>
+    <row r="189" spans="1:22" ht="15" customHeight="1">
+      <c r="A189" s="18"/>
+      <c r="B189" s="35"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="20"/>
+      <c r="E189" s="21"/>
+      <c r="F189" s="21"/>
+      <c r="G189" s="23"/>
+      <c r="H189" s="22"/>
+      <c r="I189" s="23"/>
+      <c r="J189" s="39"/>
+      <c r="K189" s="21"/>
+    </row>
+    <row r="190" spans="1:22" s="159" customFormat="1" ht="15.75">
+      <c r="A190" s="152">
+        <v>17</v>
+      </c>
+      <c r="B190" s="153" t="s">
+        <v>132</v>
+      </c>
+      <c r="C190" s="154"/>
+      <c r="D190" s="155"/>
+      <c r="E190" s="156"/>
+      <c r="F190" s="155"/>
+      <c r="G190" s="155"/>
+      <c r="H190" s="155"/>
+      <c r="I190" s="155"/>
+      <c r="J190" s="157"/>
+      <c r="K190" s="158"/>
+      <c r="M190" s="160"/>
+      <c r="N190" s="160"/>
+      <c r="O190" s="160"/>
+      <c r="P190" s="160"/>
+      <c r="Q190" s="160"/>
+      <c r="R190" s="160"/>
+      <c r="S190" s="160"/>
+      <c r="T190" s="160"/>
+      <c r="U190" s="160"/>
+      <c r="V190" s="160"/>
+    </row>
+    <row r="191" spans="1:22" s="160" customFormat="1" ht="15" customHeight="1">
+      <c r="A191" s="130"/>
+      <c r="B191" s="132" t="s">
+        <v>133</v>
+      </c>
+      <c r="C191" s="147">
+        <v>1</v>
+      </c>
+      <c r="D191" s="148">
+        <f>(1.1+1.2)/2</f>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E191" s="161">
+        <v>2.5</v>
+      </c>
+      <c r="F191" s="162"/>
+      <c r="G191" s="163">
+        <f>PRODUCT(C191:F191)</f>
+        <v>2.875</v>
+      </c>
+      <c r="H191" s="149"/>
+      <c r="I191" s="149"/>
+      <c r="J191" s="149"/>
+      <c r="K191" s="135"/>
+    </row>
+    <row r="192" spans="1:22" s="160" customFormat="1" ht="15" customHeight="1">
+      <c r="A192" s="130"/>
+      <c r="B192" s="132"/>
+      <c r="C192" s="147">
+        <v>1</v>
+      </c>
+      <c r="D192" s="148">
+        <v>1.7</v>
+      </c>
+      <c r="E192" s="161">
+        <v>2.4</v>
+      </c>
+      <c r="F192" s="162"/>
+      <c r="G192" s="163">
+        <f>PRODUCT(C192:F192)</f>
+        <v>4.08</v>
+      </c>
+      <c r="H192" s="149"/>
+      <c r="I192" s="149"/>
+      <c r="J192" s="149"/>
+      <c r="K192" s="135"/>
+    </row>
+    <row r="193" spans="1:22" s="160" customFormat="1" ht="15" customHeight="1">
+      <c r="A193" s="130"/>
+      <c r="B193" s="132"/>
+      <c r="C193" s="147">
+        <v>1</v>
+      </c>
+      <c r="D193" s="148">
+        <f>(1.2+1.5)/2</f>
+        <v>1.35</v>
+      </c>
+      <c r="E193" s="148">
+        <v>1.4</v>
+      </c>
+      <c r="F193" s="148"/>
+      <c r="G193" s="163">
+        <f t="shared" ref="G193:G195" si="21">PRODUCT(C193:F193)</f>
+        <v>1.89</v>
+      </c>
+      <c r="H193" s="149"/>
+      <c r="I193" s="149"/>
+      <c r="J193" s="149"/>
+      <c r="K193" s="135"/>
+      <c r="M193" s="164"/>
+      <c r="N193" s="164"/>
+      <c r="O193" s="164"/>
+      <c r="P193" s="164"/>
+      <c r="Q193" s="164"/>
+      <c r="R193" s="164"/>
+      <c r="S193" s="164"/>
+      <c r="T193" s="164"/>
+      <c r="U193" s="164"/>
+      <c r="V193" s="164"/>
+    </row>
+    <row r="194" spans="1:22" s="160" customFormat="1" ht="15" customHeight="1">
+      <c r="A194" s="130"/>
+      <c r="B194" s="132"/>
+      <c r="C194" s="147">
+        <v>1</v>
+      </c>
+      <c r="D194" s="148">
+        <f>(1.6+1.55)/2</f>
+        <v>1.5750000000000002</v>
+      </c>
+      <c r="E194" s="148">
+        <v>3.2</v>
+      </c>
+      <c r="F194" s="148"/>
+      <c r="G194" s="163">
+        <f t="shared" si="21"/>
+        <v>5.0400000000000009</v>
+      </c>
+      <c r="H194" s="149"/>
+      <c r="I194" s="149"/>
+      <c r="J194" s="149"/>
+      <c r="K194" s="135"/>
+    </row>
+    <row r="195" spans="1:22" s="160" customFormat="1" ht="15" customHeight="1">
+      <c r="A195" s="130"/>
+      <c r="B195" s="132"/>
+      <c r="C195" s="147">
+        <v>1</v>
+      </c>
+      <c r="D195" s="148">
+        <v>1.6</v>
+      </c>
+      <c r="E195" s="148">
+        <v>0.65</v>
+      </c>
+      <c r="F195" s="148"/>
+      <c r="G195" s="163">
+        <f t="shared" si="21"/>
+        <v>1.04</v>
+      </c>
+      <c r="H195" s="149"/>
+      <c r="I195" s="149"/>
+      <c r="J195" s="149"/>
+      <c r="K195" s="135"/>
+    </row>
+    <row r="196" spans="1:22" s="160" customFormat="1" ht="15" customHeight="1">
+      <c r="A196" s="149"/>
+      <c r="B196" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="C196" s="154"/>
+      <c r="D196" s="155"/>
+      <c r="E196" s="155"/>
+      <c r="F196" s="155"/>
+      <c r="G196" s="165">
+        <f>SUM(G191:G195)</f>
+        <v>14.925000000000001</v>
+      </c>
+      <c r="H196" s="165" t="s">
+        <v>41</v>
+      </c>
+      <c r="I196" s="165">
+        <f>35*10.7639</f>
+        <v>376.73649999999998</v>
+      </c>
+      <c r="J196" s="157">
+        <f>G196*I196</f>
+        <v>5622.7922625000001</v>
+      </c>
+      <c r="K196" s="147"/>
+    </row>
+    <row r="197" spans="1:22" s="160" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A197" s="149"/>
+      <c r="B197" s="132" t="s">
+        <v>38</v>
+      </c>
+      <c r="C197" s="154"/>
+      <c r="D197" s="155"/>
+      <c r="E197" s="155"/>
+      <c r="F197" s="155"/>
+      <c r="G197" s="155"/>
+      <c r="H197" s="155"/>
+      <c r="I197" s="155"/>
+      <c r="J197" s="151">
+        <f>0.13*J196</f>
+        <v>730.96299412500002</v>
+      </c>
+      <c r="K197" s="147"/>
+    </row>
+    <row r="198" spans="1:22" s="160" customFormat="1" ht="15" customHeight="1">
+      <c r="A198" s="149"/>
+      <c r="B198" s="132"/>
+      <c r="C198" s="154"/>
+      <c r="D198" s="155"/>
+      <c r="E198" s="155"/>
+      <c r="F198" s="155"/>
+      <c r="G198" s="155"/>
+      <c r="H198" s="155"/>
+      <c r="I198" s="155"/>
+      <c r="J198" s="151"/>
+      <c r="K198" s="147"/>
+    </row>
+    <row r="199" spans="1:22" s="160" customFormat="1" ht="42.75">
+      <c r="A199" s="130">
+        <v>18</v>
+      </c>
+      <c r="B199" s="166" t="s">
+        <v>136</v>
+      </c>
+      <c r="C199" s="147"/>
+      <c r="D199" s="148"/>
+      <c r="E199" s="148"/>
+      <c r="F199" s="148"/>
+      <c r="G199" s="136"/>
+      <c r="H199" s="149"/>
+      <c r="I199" s="149"/>
+      <c r="J199" s="151"/>
+      <c r="K199" s="135"/>
+      <c r="M199" s="167"/>
+      <c r="N199" s="167"/>
+      <c r="O199" s="167"/>
+      <c r="P199" s="167"/>
+      <c r="Q199" s="167"/>
+      <c r="R199" s="167"/>
+      <c r="S199" s="167"/>
+      <c r="T199" s="167"/>
+      <c r="U199" s="167"/>
+      <c r="V199" s="167"/>
+    </row>
+    <row r="200" spans="1:22" s="160" customFormat="1" ht="15" customHeight="1">
+      <c r="A200" s="149"/>
+      <c r="B200" s="132" t="s">
+        <v>160</v>
+      </c>
+      <c r="C200" s="133">
+        <v>1</v>
+      </c>
+      <c r="D200" s="155">
+        <f>6.55</f>
+        <v>6.55</v>
+      </c>
+      <c r="E200" s="155">
+        <v>2.62</v>
+      </c>
+      <c r="F200" s="155"/>
+      <c r="G200" s="163">
+        <f t="shared" ref="G200:G202" si="22">PRODUCT(C200:F200)</f>
+        <v>17.161000000000001</v>
+      </c>
+      <c r="H200" s="155"/>
+      <c r="I200" s="155"/>
+      <c r="J200" s="151"/>
+      <c r="K200" s="147"/>
+      <c r="M200" s="167"/>
+      <c r="N200" s="167"/>
+      <c r="O200" s="167"/>
+      <c r="P200" s="167"/>
+      <c r="Q200" s="167"/>
+      <c r="R200" s="167"/>
+      <c r="S200" s="167"/>
+      <c r="T200" s="167"/>
+      <c r="U200" s="167"/>
+      <c r="V200" s="167"/>
+    </row>
+    <row r="201" spans="1:22" s="160" customFormat="1" ht="15" customHeight="1">
+      <c r="A201" s="149"/>
+      <c r="B201" s="132"/>
+      <c r="C201" s="133">
+        <v>1</v>
+      </c>
+      <c r="D201" s="155">
+        <v>8</v>
+      </c>
+      <c r="E201" s="155">
+        <v>3</v>
+      </c>
+      <c r="F201" s="155"/>
+      <c r="G201" s="163">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="H201" s="155"/>
+      <c r="I201" s="155"/>
+      <c r="J201" s="151"/>
+      <c r="K201" s="147"/>
+    </row>
+    <row r="202" spans="1:22" s="160" customFormat="1" ht="15" customHeight="1">
+      <c r="A202" s="149"/>
+      <c r="B202" s="132" t="str">
+        <f>B121</f>
+        <v>-at entrance</v>
+      </c>
+      <c r="C202" s="133">
+        <v>1</v>
+      </c>
+      <c r="D202" s="137">
+        <f>D121</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E202" s="137">
+        <f>E121</f>
+        <v>0.91</v>
+      </c>
+      <c r="F202" s="137"/>
+      <c r="G202" s="163">
+        <f t="shared" si="22"/>
+        <v>2.0020000000000002</v>
+      </c>
+      <c r="H202" s="155"/>
+      <c r="I202" s="155"/>
+      <c r="J202" s="151"/>
+      <c r="K202" s="147"/>
+      <c r="M202" s="167"/>
+      <c r="N202" s="167"/>
+      <c r="O202" s="167"/>
+      <c r="P202" s="167"/>
+      <c r="Q202" s="167"/>
+      <c r="R202" s="167"/>
+      <c r="S202" s="167"/>
+      <c r="T202" s="167"/>
+      <c r="U202" s="167"/>
+      <c r="V202" s="167"/>
+    </row>
+    <row r="203" spans="1:22" s="160" customFormat="1" ht="15" customHeight="1">
+      <c r="A203" s="149"/>
+      <c r="B203" s="132" t="s">
+        <v>165</v>
+      </c>
+      <c r="C203" s="133">
+        <v>1</v>
+      </c>
+      <c r="D203" s="137"/>
+      <c r="E203" s="137"/>
+      <c r="F203" s="137"/>
+      <c r="G203" s="163">
+        <f>G196</f>
+        <v>14.925000000000001</v>
+      </c>
+      <c r="H203" s="155"/>
+      <c r="I203" s="155"/>
+      <c r="J203" s="151"/>
+      <c r="K203" s="147"/>
+      <c r="M203" s="167"/>
+      <c r="N203" s="167"/>
+      <c r="O203" s="167"/>
+      <c r="P203" s="167"/>
+      <c r="Q203" s="167"/>
+      <c r="R203" s="167"/>
+      <c r="S203" s="167"/>
+      <c r="T203" s="167"/>
+      <c r="U203" s="167"/>
+      <c r="V203" s="167"/>
+    </row>
+    <row r="204" spans="1:22" s="160" customFormat="1" ht="15" customHeight="1">
+      <c r="A204" s="149"/>
+      <c r="B204" s="132" t="s">
+        <v>39</v>
+      </c>
+      <c r="C204" s="154"/>
+      <c r="D204" s="155"/>
+      <c r="E204" s="155"/>
+      <c r="F204" s="155"/>
+      <c r="G204" s="165">
+        <f>SUM(G200:G203)</f>
+        <v>58.088000000000008</v>
+      </c>
+      <c r="H204" s="165" t="s">
+        <v>41</v>
+      </c>
+      <c r="I204" s="165">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J204" s="157">
+        <f>G204*I204</f>
+        <v>534.40960000000007</v>
+      </c>
+      <c r="K204" s="147"/>
+      <c r="M204" s="167"/>
+      <c r="N204" s="167"/>
+      <c r="O204" s="167"/>
+      <c r="P204" s="167"/>
+      <c r="Q204" s="167"/>
+      <c r="R204" s="167"/>
+      <c r="S204" s="167"/>
+      <c r="T204" s="167"/>
+      <c r="U204" s="167"/>
+      <c r="V204" s="167"/>
+    </row>
+    <row r="205" spans="1:22" s="160" customFormat="1" ht="15" customHeight="1">
+      <c r="A205" s="130"/>
+      <c r="B205" s="132"/>
+      <c r="C205" s="133"/>
+      <c r="D205" s="134"/>
+      <c r="E205" s="135"/>
+      <c r="F205" s="135"/>
+      <c r="G205" s="144"/>
+      <c r="H205" s="145"/>
+      <c r="I205" s="144"/>
+      <c r="J205" s="146"/>
+      <c r="K205" s="135"/>
+      <c r="M205" s="167"/>
+      <c r="N205" s="167"/>
+      <c r="O205" s="167"/>
+      <c r="P205" s="167"/>
+      <c r="Q205" s="167"/>
+      <c r="R205" s="167"/>
+      <c r="S205" s="167"/>
+      <c r="T205" s="167"/>
+      <c r="U205" s="167"/>
+      <c r="V205" s="167"/>
+    </row>
+    <row r="206" spans="1:22" ht="30">
+      <c r="A206" s="18">
+        <v>19</v>
+      </c>
+      <c r="B206" s="128" t="s">
+        <v>162</v>
+      </c>
+      <c r="C206" s="19">
+        <v>1</v>
+      </c>
+      <c r="D206" s="20"/>
+      <c r="E206" s="21"/>
+      <c r="F206" s="21"/>
+      <c r="G206" s="124">
+        <f t="shared" ref="G206" si="23">PRODUCT(C206:F206)</f>
+        <v>1</v>
+      </c>
+      <c r="H206" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="I206" s="23">
+        <v>25000</v>
+      </c>
+      <c r="J206" s="32">
+        <f>G206*I206</f>
+        <v>25000</v>
+      </c>
+      <c r="K206" s="21"/>
+      <c r="M206" s="33"/>
+      <c r="N206" s="33"/>
+      <c r="O206" s="33"/>
+      <c r="P206" s="33"/>
+      <c r="Q206" s="33"/>
+      <c r="R206" s="33"/>
+      <c r="S206" s="33"/>
+      <c r="T206" s="33"/>
+      <c r="U206" s="33"/>
+      <c r="V206" s="33"/>
+    </row>
+    <row r="207" spans="1:22" ht="15" customHeight="1">
+      <c r="A207" s="18"/>
+      <c r="B207" s="35"/>
+      <c r="C207" s="19"/>
+      <c r="D207" s="20"/>
+      <c r="E207" s="21"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="23"/>
+      <c r="H207" s="22"/>
+      <c r="I207" s="23"/>
+      <c r="J207" s="39"/>
+      <c r="K207" s="21"/>
+      <c r="M207" s="33"/>
+      <c r="N207" s="33"/>
+      <c r="O207" s="33"/>
+      <c r="P207" s="33"/>
+      <c r="Q207" s="33"/>
+      <c r="R207" s="33"/>
+      <c r="S207" s="33"/>
+      <c r="T207" s="33"/>
+      <c r="U207" s="33"/>
+      <c r="V207" s="33"/>
+    </row>
+    <row r="208" spans="1:22" ht="15" customHeight="1">
+      <c r="A208" s="18">
+        <v>20</v>
+      </c>
+      <c r="B208" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C208" s="19">
+        <v>1</v>
+      </c>
+      <c r="D208" s="20"/>
+      <c r="E208" s="21"/>
+      <c r="F208" s="21"/>
+      <c r="G208" s="32">
+        <f t="shared" ref="G208" si="24">PRODUCT(C208:F208)</f>
+        <v>1</v>
+      </c>
+      <c r="H208" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I208" s="23">
+        <v>1000</v>
+      </c>
+      <c r="J208" s="32">
+        <f>G208*I208</f>
+        <v>1000</v>
+      </c>
+      <c r="K208" s="21"/>
+      <c r="M208" s="33"/>
+      <c r="N208" s="33"/>
+      <c r="O208" s="33"/>
+      <c r="P208" s="33"/>
+      <c r="Q208" s="33"/>
+      <c r="R208" s="33"/>
+      <c r="S208" s="33"/>
+      <c r="T208" s="33"/>
+      <c r="U208" s="33"/>
+      <c r="V208" s="33"/>
+    </row>
+    <row r="209" spans="1:22" ht="15" customHeight="1">
+      <c r="A209" s="18"/>
+      <c r="B209" s="24"/>
+      <c r="C209" s="19"/>
+      <c r="D209" s="20"/>
+      <c r="E209" s="21"/>
+      <c r="F209" s="21"/>
+      <c r="G209" s="23"/>
+      <c r="H209" s="22"/>
+      <c r="I209" s="23"/>
+      <c r="J209" s="39"/>
+      <c r="K209" s="21"/>
+      <c r="M209" s="33"/>
+      <c r="N209" s="33"/>
+      <c r="O209" s="33"/>
+      <c r="P209" s="33"/>
+      <c r="Q209" s="33"/>
+      <c r="R209" s="33"/>
+      <c r="S209" s="33"/>
+      <c r="T209" s="33"/>
+      <c r="U209" s="33"/>
+      <c r="V209" s="33"/>
+    </row>
+    <row r="210" spans="1:22">
+      <c r="A210" s="38"/>
+      <c r="B210" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C210" s="42"/>
+      <c r="D210" s="36"/>
+      <c r="E210" s="36"/>
+      <c r="F210" s="36"/>
+      <c r="G210" s="39"/>
+      <c r="H210" s="39"/>
+      <c r="I210" s="39"/>
+      <c r="J210" s="39">
+        <f>SUM(J10:J208)</f>
+        <v>559505.71356778976</v>
+      </c>
+      <c r="K210" s="34"/>
+      <c r="M210" s="33"/>
+      <c r="N210" s="33"/>
+      <c r="O210" s="33"/>
+      <c r="P210" s="33"/>
+      <c r="Q210" s="33"/>
+      <c r="R210" s="33"/>
+      <c r="S210" s="33"/>
+      <c r="T210" s="33"/>
+      <c r="U210" s="33"/>
+      <c r="V210" s="33"/>
+    </row>
+    <row r="211" spans="1:22">
+      <c r="A211" s="53"/>
+      <c r="B211" s="56"/>
+      <c r="C211" s="57"/>
+      <c r="D211" s="54"/>
+      <c r="E211" s="54"/>
+      <c r="F211" s="54"/>
+      <c r="G211" s="55"/>
+      <c r="H211" s="55"/>
+      <c r="I211" s="55"/>
+      <c r="J211" s="55"/>
+      <c r="K211" s="52"/>
+      <c r="M211" s="33"/>
+      <c r="N211" s="33"/>
+      <c r="O211" s="33"/>
+      <c r="P211" s="33"/>
+      <c r="Q211" s="33"/>
+      <c r="R211" s="33"/>
+      <c r="S211" s="33"/>
+      <c r="T211" s="33"/>
+      <c r="U211" s="33"/>
+      <c r="V211" s="33"/>
+    </row>
+    <row r="212" spans="1:22" s="1" customFormat="1" hidden="1">
+      <c r="A212" s="45"/>
+      <c r="B212" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C212" s="189">
+        <f>J210</f>
+        <v>559505.71356778976</v>
+      </c>
+      <c r="D212" s="189"/>
+      <c r="E212" s="37">
+        <v>100</v>
+      </c>
+      <c r="F212" s="46"/>
+      <c r="G212" s="47"/>
+      <c r="H212" s="46"/>
+      <c r="I212" s="48"/>
+      <c r="J212" s="49"/>
+      <c r="K212" s="50"/>
+      <c r="M212" s="33"/>
+      <c r="N212" s="33"/>
+      <c r="O212" s="33"/>
+      <c r="P212" s="33"/>
+      <c r="Q212" s="33"/>
+      <c r="R212" s="33"/>
+      <c r="S212" s="33"/>
+      <c r="T212" s="33"/>
+      <c r="U212" s="33"/>
+      <c r="V212" s="33"/>
+    </row>
+    <row r="213" spans="1:22" hidden="1">
+      <c r="A213" s="51"/>
+      <c r="B213" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C213" s="196">
+        <v>500000</v>
+      </c>
+      <c r="D213" s="196"/>
+      <c r="E213" s="37"/>
+      <c r="F213" s="44"/>
+      <c r="G213" s="43"/>
+      <c r="H213" s="43"/>
+      <c r="I213" s="43"/>
+      <c r="J213" s="43"/>
+      <c r="K213" s="44"/>
+      <c r="M213" s="33"/>
+      <c r="N213" s="33"/>
+      <c r="O213" s="33"/>
+      <c r="P213" s="33"/>
+      <c r="Q213" s="33"/>
+      <c r="R213" s="33"/>
+      <c r="S213" s="33"/>
+      <c r="T213" s="33"/>
+      <c r="U213" s="33"/>
+      <c r="V213" s="33"/>
+    </row>
+    <row r="214" spans="1:22" hidden="1">
+      <c r="A214" s="51"/>
+      <c r="B214" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C214" s="196">
+        <f>C213-C216-C217</f>
+        <v>475000</v>
+      </c>
+      <c r="D214" s="196"/>
+      <c r="E214" s="37">
+        <f>C214/C212*100</f>
+        <v>84.896362714703358</v>
+      </c>
+      <c r="F214" s="44"/>
+      <c r="G214" s="43"/>
+      <c r="H214" s="43"/>
+      <c r="I214" s="43"/>
+      <c r="J214" s="43"/>
+      <c r="K214" s="44"/>
+      <c r="M214" s="33"/>
+      <c r="N214" s="33"/>
+      <c r="O214" s="33"/>
+      <c r="P214" s="33"/>
+      <c r="Q214" s="33"/>
+      <c r="R214" s="33"/>
+      <c r="S214" s="33"/>
+      <c r="T214" s="33"/>
+      <c r="U214" s="33"/>
+      <c r="V214" s="33"/>
+    </row>
+    <row r="215" spans="1:22" hidden="1">
+      <c r="A215" s="51"/>
+      <c r="B215" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C215" s="189">
+        <f>C212-C214</f>
+        <v>84505.71356778976</v>
+      </c>
+      <c r="D215" s="189"/>
+      <c r="E215" s="37">
+        <f>100-E214</f>
+        <v>15.103637285296642</v>
+      </c>
+      <c r="F215" s="44"/>
+      <c r="G215" s="43"/>
+      <c r="H215" s="43"/>
+      <c r="I215" s="43"/>
+      <c r="J215" s="43"/>
+      <c r="K215" s="44"/>
+      <c r="M215" s="33"/>
+      <c r="N215" s="33"/>
+      <c r="O215" s="33"/>
+      <c r="P215" s="33"/>
+      <c r="Q215" s="33"/>
+      <c r="R215" s="33"/>
+      <c r="S215" s="33"/>
+      <c r="T215" s="33"/>
+      <c r="U215" s="33"/>
+      <c r="V215" s="33"/>
+    </row>
+    <row r="216" spans="1:22" hidden="1">
+      <c r="A216" s="51"/>
+      <c r="B216" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C216" s="189">
+        <f>C213*0.03</f>
+        <v>15000</v>
+      </c>
+      <c r="D216" s="189"/>
+      <c r="E216" s="37">
+        <v>3</v>
+      </c>
+      <c r="F216" s="44"/>
+      <c r="G216" s="43"/>
+      <c r="H216" s="43"/>
+      <c r="I216" s="43"/>
+      <c r="J216" s="43"/>
+      <c r="K216" s="44"/>
+      <c r="M216" s="33"/>
+      <c r="N216" s="33"/>
+      <c r="O216" s="33"/>
+      <c r="P216" s="33"/>
+      <c r="Q216" s="33"/>
+      <c r="R216" s="33"/>
+      <c r="S216" s="33"/>
+      <c r="T216" s="33"/>
+      <c r="U216" s="33"/>
+      <c r="V216" s="33"/>
+    </row>
+    <row r="217" spans="1:22" hidden="1">
+      <c r="A217" s="51"/>
+      <c r="B217" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C217" s="189">
+        <f>C213*0.02</f>
+        <v>10000</v>
+      </c>
+      <c r="D217" s="189"/>
+      <c r="E217" s="37">
+        <v>2</v>
+      </c>
+      <c r="F217" s="44"/>
+      <c r="G217" s="43"/>
+      <c r="H217" s="43"/>
+      <c r="I217" s="43"/>
+      <c r="J217" s="43"/>
+      <c r="K217" s="44"/>
+      <c r="M217" s="33"/>
+      <c r="N217" s="33"/>
+      <c r="O217" s="33"/>
+      <c r="P217" s="33"/>
+      <c r="Q217" s="33"/>
+      <c r="R217" s="33"/>
+      <c r="S217" s="33"/>
+      <c r="T217" s="33"/>
+      <c r="U217" s="33"/>
+      <c r="V217" s="33"/>
+    </row>
+    <row r="218" spans="1:22" s="33" customFormat="1">
+      <c r="A218" s="52"/>
+      <c r="B218" s="52"/>
+      <c r="C218" s="52"/>
+      <c r="D218" s="52"/>
+      <c r="E218" s="52"/>
+      <c r="F218" s="52"/>
+      <c r="G218" s="52"/>
+      <c r="H218" s="52"/>
+      <c r="I218" s="52"/>
+      <c r="J218" s="52"/>
+      <c r="K218" s="52"/>
+    </row>
+    <row r="219" spans="1:22" s="33" customFormat="1"/>
+    <row r="220" spans="1:22" s="33" customFormat="1"/>
+    <row r="221" spans="1:22" s="33" customFormat="1"/>
+    <row r="222" spans="1:22" s="33" customFormat="1"/>
+    <row r="223" spans="1:22" s="33" customFormat="1"/>
+    <row r="224" spans="1:22" s="33" customFormat="1"/>
+    <row r="225" s="33" customFormat="1"/>
+    <row r="226" s="33" customFormat="1"/>
+    <row r="227" s="33" customFormat="1"/>
+    <row r="228" s="33" customFormat="1"/>
+    <row r="229" s="33" customFormat="1"/>
+    <row r="230" s="33" customFormat="1"/>
+    <row r="231" s="33" customFormat="1"/>
+    <row r="232" s="33" customFormat="1"/>
+    <row r="233" s="33" customFormat="1"/>
+    <row r="234" s="33" customFormat="1"/>
+    <row r="235" s="33" customFormat="1"/>
+    <row r="236" s="33" customFormat="1"/>
+    <row r="237" s="33" customFormat="1"/>
+    <row r="238" s="33" customFormat="1"/>
+    <row r="239" s="33" customFormat="1"/>
+    <row r="240" s="33" customFormat="1"/>
+    <row r="241" s="33" customFormat="1"/>
+    <row r="242" s="33" customFormat="1"/>
+    <row r="243" s="33" customFormat="1"/>
+    <row r="244" s="33" customFormat="1"/>
+    <row r="245" s="33" customFormat="1"/>
+    <row r="246" s="33" customFormat="1"/>
+    <row r="247" s="33" customFormat="1"/>
+    <row r="248" s="33" customFormat="1"/>
+    <row r="249" s="33" customFormat="1"/>
+    <row r="250" s="33" customFormat="1"/>
+    <row r="251" s="33" customFormat="1"/>
+    <row r="252" s="33" customFormat="1"/>
+    <row r="253" s="33" customFormat="1"/>
+    <row r="254" s="33" customFormat="1"/>
+    <row r="255" s="33" customFormat="1"/>
+    <row r="256" s="33" customFormat="1"/>
+    <row r="257" spans="13:22" s="33" customFormat="1"/>
+    <row r="258" spans="13:22" s="33" customFormat="1">
+      <c r="M258"/>
+      <c r="N258"/>
+      <c r="O258"/>
+      <c r="P258"/>
+      <c r="Q258"/>
+      <c r="R258"/>
+      <c r="S258"/>
+      <c r="T258"/>
+      <c r="U258"/>
+      <c r="V258"/>
+    </row>
+    <row r="259" spans="13:22" s="33" customFormat="1">
+      <c r="M259"/>
+      <c r="N259"/>
+      <c r="O259"/>
+      <c r="P259"/>
+      <c r="Q259"/>
+      <c r="R259"/>
+      <c r="S259"/>
+      <c r="T259"/>
+      <c r="U259"/>
+      <c r="V259"/>
+    </row>
+    <row r="260" spans="13:22" s="33" customFormat="1">
+      <c r="M260"/>
+      <c r="N260"/>
+      <c r="O260"/>
+      <c r="P260"/>
+      <c r="Q260"/>
+      <c r="R260"/>
+      <c r="S260"/>
+      <c r="T260"/>
+      <c r="U260"/>
+      <c r="V260"/>
+    </row>
+    <row r="261" spans="13:22" s="33" customFormat="1">
+      <c r="M261"/>
+      <c r="N261"/>
+      <c r="O261"/>
+      <c r="P261"/>
+      <c r="Q261"/>
+      <c r="R261"/>
+      <c r="S261"/>
+      <c r="T261"/>
+      <c r="U261"/>
+      <c r="V261"/>
+    </row>
+    <row r="262" spans="13:22" s="33" customFormat="1">
+      <c r="M262"/>
+      <c r="N262"/>
+      <c r="O262"/>
+      <c r="P262"/>
+      <c r="Q262"/>
+      <c r="R262"/>
+      <c r="S262"/>
+      <c r="T262"/>
+      <c r="U262"/>
+      <c r="V262"/>
+    </row>
+    <row r="263" spans="13:22" s="33" customFormat="1">
+      <c r="M263"/>
+      <c r="N263"/>
+      <c r="O263"/>
+      <c r="P263"/>
+      <c r="Q263"/>
+      <c r="R263"/>
+      <c r="S263"/>
+      <c r="T263"/>
+      <c r="U263"/>
+      <c r="V263"/>
+    </row>
+    <row r="264" spans="13:22" s="33" customFormat="1">
+      <c r="M264"/>
+      <c r="N264"/>
+      <c r="O264"/>
+      <c r="P264"/>
+      <c r="Q264"/>
+      <c r="R264"/>
+      <c r="S264"/>
+      <c r="T264"/>
+      <c r="U264"/>
+      <c r="V264"/>
+    </row>
+    <row r="265" spans="13:22" s="33" customFormat="1">
+      <c r="M265"/>
+      <c r="N265"/>
+      <c r="O265"/>
+      <c r="P265"/>
+      <c r="Q265"/>
+      <c r="R265"/>
+      <c r="S265"/>
+      <c r="T265"/>
+      <c r="U265"/>
+      <c r="V265"/>
+    </row>
+    <row r="266" spans="13:22" s="33" customFormat="1">
+      <c r="M266"/>
+      <c r="N266"/>
+      <c r="O266"/>
+      <c r="P266"/>
+      <c r="Q266"/>
+      <c r="R266"/>
+      <c r="S266"/>
+      <c r="T266"/>
+      <c r="U266"/>
+      <c r="V266"/>
+    </row>
+    <row r="267" spans="13:22" s="33" customFormat="1">
+      <c r="M267"/>
+      <c r="N267"/>
+      <c r="O267"/>
+      <c r="P267"/>
+      <c r="Q267"/>
+      <c r="R267"/>
+      <c r="S267"/>
+      <c r="T267"/>
+      <c r="U267"/>
+      <c r="V267"/>
+    </row>
+    <row r="268" spans="13:22" s="33" customFormat="1">
+      <c r="M268"/>
+      <c r="N268"/>
+      <c r="O268"/>
+      <c r="P268"/>
+      <c r="Q268"/>
+      <c r="R268"/>
+      <c r="S268"/>
+      <c r="T268"/>
+      <c r="U268"/>
+      <c r="V268"/>
+    </row>
+    <row r="269" spans="13:22" s="33" customFormat="1">
+      <c r="M269"/>
+      <c r="N269"/>
+      <c r="O269"/>
+      <c r="P269"/>
+      <c r="Q269"/>
+      <c r="R269"/>
+      <c r="S269"/>
+      <c r="T269"/>
+      <c r="U269"/>
+      <c r="V269"/>
+    </row>
+    <row r="270" spans="13:22" s="33" customFormat="1">
+      <c r="M270"/>
+      <c r="N270"/>
+      <c r="O270"/>
+      <c r="P270"/>
+      <c r="Q270"/>
+      <c r="R270"/>
+      <c r="S270"/>
+      <c r="T270"/>
+      <c r="U270"/>
+      <c r="V270"/>
+    </row>
+    <row r="271" spans="13:22" s="33" customFormat="1">
+      <c r="M271"/>
+      <c r="N271"/>
+      <c r="O271"/>
+      <c r="P271"/>
+      <c r="Q271"/>
+      <c r="R271"/>
+      <c r="S271"/>
+      <c r="T271"/>
+      <c r="U271"/>
+      <c r="V271"/>
+    </row>
+    <row r="272" spans="13:22" s="33" customFormat="1">
+      <c r="M272"/>
+      <c r="N272"/>
+      <c r="O272"/>
+      <c r="P272"/>
+      <c r="Q272"/>
+      <c r="R272"/>
+      <c r="S272"/>
+      <c r="T272"/>
+      <c r="U272"/>
+      <c r="V272"/>
+    </row>
+    <row r="273" spans="13:22" s="33" customFormat="1">
+      <c r="M273"/>
+      <c r="N273"/>
+      <c r="O273"/>
+      <c r="P273"/>
+      <c r="Q273"/>
+      <c r="R273"/>
+      <c r="S273"/>
+      <c r="T273"/>
+      <c r="U273"/>
+      <c r="V273"/>
+    </row>
+    <row r="274" spans="13:22" s="33" customFormat="1">
+      <c r="M274"/>
+      <c r="N274"/>
+      <c r="O274"/>
+      <c r="P274"/>
+      <c r="Q274"/>
+      <c r="R274"/>
+      <c r="S274"/>
+      <c r="T274"/>
+      <c r="U274"/>
+      <c r="V274"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="N86:T86"/>
+    <mergeCell ref="N175:T175"/>
+    <mergeCell ref="N176:T176"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C217:D217"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B143" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
   </headerFooter>
